--- a/spreadsheet/aks_checklist.es.xlsx
+++ b/spreadsheet/aks_checklist.es.xlsx
@@ -1122,7 +1122,7 @@
       <c r="G8" s="22" t="n"/>
       <c r="H8" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/business-continuity-and-disaster-recovery</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/business-continuity-and-disaster-recovery</t>
         </is>
       </c>
       <c r="I8" s="16" t="n"/>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="B38" s="22" t="inlineStr">
         <is>
-          <t>TIENE</t>
+          <t>Tiene</t>
         </is>
       </c>
       <c r="C38" s="22" t="inlineStr">
@@ -4725,1750 +4725,5094 @@
       <c r="P86" s="26" t="n"/>
     </row>
     <row r="87" ht="16.5" customHeight="1" s="13">
-      <c r="A87" s="22" t="n"/>
-      <c r="B87" s="22" t="n"/>
-      <c r="C87" s="22" t="n"/>
+      <c r="A87" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B87" s="22" t="inlineStr">
+        <is>
+          <t>PaaS</t>
+        </is>
+      </c>
+      <c r="C87" s="22" t="inlineStr">
+        <is>
+          <t>Don't use virtual network service endpoints when there are data exfiltration concerns, unless you use NVA filtering.</t>
+        </is>
+      </c>
       <c r="D87" s="22" t="n"/>
-      <c r="E87" s="22" t="n"/>
+      <c r="E87" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G87" s="22" t="n"/>
-      <c r="H87" s="16" t="n"/>
-      <c r="I87" s="16" t="n"/>
+      <c r="H87" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I87" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J87" s="23" t="n"/>
       <c r="K87" s="23" t="n"/>
-      <c r="L87" s="26" t="n"/>
+      <c r="L87" s="26" t="inlineStr">
+        <is>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+        </is>
+      </c>
       <c r="M87" s="26" t="n"/>
       <c r="N87" s="26" t="n"/>
       <c r="O87" s="26" t="n"/>
       <c r="P87" s="26" t="n"/>
     </row>
     <row r="88" ht="16.5" customHeight="1" s="13">
-      <c r="A88" s="22" t="n"/>
-      <c r="B88" s="22" t="n"/>
-      <c r="C88" s="22" t="n"/>
+      <c r="A88" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B88" s="22" t="inlineStr">
+        <is>
+          <t>PaaS</t>
+        </is>
+      </c>
+      <c r="C88" s="22" t="inlineStr">
+        <is>
+          <t>Don't implement forced tunneling to enable communication from Azure to Azure resources.</t>
+        </is>
+      </c>
       <c r="D88" s="22" t="n"/>
-      <c r="E88" s="22" t="n"/>
+      <c r="E88" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G88" s="22" t="n"/>
-      <c r="H88" s="16" t="n"/>
-      <c r="I88" s="16" t="n"/>
+      <c r="H88" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I88" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J88" s="23" t="n"/>
       <c r="K88" s="23" t="n"/>
-      <c r="L88" s="26" t="n"/>
+      <c r="L88" s="26" t="inlineStr">
+        <is>
+          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
+        </is>
+      </c>
       <c r="M88" s="26" t="n"/>
       <c r="N88" s="26" t="n"/>
       <c r="O88" s="26" t="n"/>
       <c r="P88" s="26" t="n"/>
     </row>
     <row r="89" ht="16.5" customHeight="1" s="13">
-      <c r="A89" s="22" t="n"/>
-      <c r="B89" s="22" t="n"/>
-      <c r="C89" s="22" t="n"/>
+      <c r="A89" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B89" s="22" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="C89" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
+        </is>
+      </c>
       <c r="D89" s="22" t="n"/>
-      <c r="E89" s="22" t="n"/>
+      <c r="E89" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G89" s="22" t="n"/>
-      <c r="H89" s="16" t="n"/>
-      <c r="I89" s="16" t="n"/>
+      <c r="H89" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I89" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J89" s="23" t="n"/>
       <c r="K89" s="23" t="n"/>
-      <c r="L89" s="26" t="n"/>
+      <c r="L89" s="26" t="inlineStr">
+        <is>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+        </is>
+      </c>
       <c r="M89" s="26" t="n"/>
       <c r="N89" s="26" t="n"/>
       <c r="O89" s="26" t="n"/>
       <c r="P89" s="26" t="n"/>
     </row>
     <row r="90" ht="16.5" customHeight="1" s="13">
-      <c r="A90" s="22" t="n"/>
-      <c r="B90" s="22" t="n"/>
-      <c r="C90" s="22" t="n"/>
+      <c r="A90" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B90" s="22" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="C90" s="22" t="inlineStr">
+        <is>
+          <t>Use Firewall Manager with Virtual WAN to deploy and manage Azure firewalls across Virtual WAN hubs or in hub virtual networks. Firewall Manager is now in general availability for both Virtual WAN and regular virtual networks.</t>
+        </is>
+      </c>
       <c r="D90" s="22" t="n"/>
-      <c r="E90" s="22" t="n"/>
+      <c r="E90" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G90" s="22" t="n"/>
-      <c r="H90" s="16" t="n"/>
-      <c r="I90" s="16" t="n"/>
+      <c r="H90" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
+        </is>
+      </c>
+      <c r="I90" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J90" s="23" t="n"/>
       <c r="K90" s="23" t="n"/>
-      <c r="L90" s="26" t="n"/>
+      <c r="L90" s="26" t="inlineStr">
+        <is>
+          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
+        </is>
+      </c>
       <c r="M90" s="26" t="n"/>
       <c r="N90" s="26" t="n"/>
       <c r="O90" s="26" t="n"/>
       <c r="P90" s="26" t="n"/>
     </row>
     <row r="91" ht="16.5" customHeight="1" s="13">
-      <c r="A91" s="22" t="n"/>
-      <c r="B91" s="22" t="n"/>
-      <c r="C91" s="22" t="n"/>
+      <c r="A91" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B91" s="22" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="C91" s="22" t="inlineStr">
+        <is>
+          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
+        </is>
+      </c>
       <c r="D91" s="22" t="n"/>
-      <c r="E91" s="22" t="n"/>
+      <c r="E91" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G91" s="22" t="n"/>
-      <c r="H91" s="16" t="n"/>
-      <c r="I91" s="16" t="n"/>
+      <c r="H91" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
+        </is>
+      </c>
+      <c r="I91" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J91" s="23" t="n"/>
       <c r="K91" s="23" t="n"/>
-      <c r="L91" s="26" t="n"/>
+      <c r="L91" s="26" t="inlineStr">
+        <is>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+        </is>
+      </c>
       <c r="M91" s="26" t="n"/>
       <c r="N91" s="26" t="n"/>
       <c r="O91" s="26" t="n"/>
       <c r="P91" s="26" t="n"/>
     </row>
     <row r="92" ht="16.5" customHeight="1" s="13">
-      <c r="A92" s="22" t="n"/>
-      <c r="B92" s="22" t="n"/>
-      <c r="C92" s="22" t="n"/>
+      <c r="A92" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B92" s="22" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="C92" s="22" t="inlineStr">
+        <is>
+          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
+        </is>
+      </c>
       <c r="D92" s="22" t="n"/>
-      <c r="E92" s="22" t="n"/>
+      <c r="E92" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G92" s="22" t="n"/>
-      <c r="H92" s="16" t="n"/>
-      <c r="I92" s="16" t="n"/>
+      <c r="H92" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
+        </is>
+      </c>
+      <c r="I92" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J92" s="23" t="n"/>
       <c r="K92" s="23" t="n"/>
-      <c r="L92" s="26" t="n"/>
+      <c r="L92" s="26" t="inlineStr">
+        <is>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+        </is>
+      </c>
       <c r="M92" s="26" t="n"/>
       <c r="N92" s="26" t="n"/>
       <c r="O92" s="26" t="n"/>
       <c r="P92" s="26" t="n"/>
     </row>
     <row r="93" ht="16.5" customHeight="1" s="13">
-      <c r="A93" s="22" t="n"/>
-      <c r="B93" s="22" t="n"/>
-      <c r="C93" s="22" t="n"/>
+      <c r="A93" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B93" s="22" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="C93" s="22" t="inlineStr">
+        <is>
+          <t>Use WAF within a landing-zone virtual network for protecting inbound HTTP/S traffic from the internet.</t>
+        </is>
+      </c>
       <c r="D93" s="22" t="n"/>
-      <c r="E93" s="22" t="n"/>
+      <c r="E93" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G93" s="22" t="n"/>
-      <c r="H93" s="16" t="n"/>
-      <c r="I93" s="16" t="n"/>
+      <c r="H93" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
+        </is>
+      </c>
+      <c r="I93" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J93" s="23" t="n"/>
       <c r="K93" s="23" t="n"/>
-      <c r="L93" s="26" t="n"/>
+      <c r="L93" s="26" t="inlineStr">
+        <is>
+          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+        </is>
+      </c>
       <c r="M93" s="26" t="n"/>
       <c r="N93" s="26" t="n"/>
       <c r="O93" s="26" t="n"/>
       <c r="P93" s="26" t="n"/>
     </row>
     <row r="94" ht="16.5" customHeight="1" s="13">
-      <c r="A94" s="22" t="n"/>
-      <c r="B94" s="22" t="n"/>
-      <c r="C94" s="22" t="n"/>
+      <c r="A94" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B94" s="22" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="C94" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
+        </is>
+      </c>
       <c r="D94" s="22" t="n"/>
-      <c r="E94" s="22" t="n"/>
+      <c r="E94" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G94" s="22" t="n"/>
-      <c r="H94" s="16" t="n"/>
-      <c r="I94" s="16" t="n"/>
+      <c r="H94" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+        </is>
+      </c>
+      <c r="I94" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J94" s="23" t="n"/>
       <c r="K94" s="23" t="n"/>
-      <c r="L94" s="26" t="n"/>
+      <c r="L94" s="26" t="inlineStr">
+        <is>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+        </is>
+      </c>
       <c r="M94" s="26" t="n"/>
       <c r="N94" s="26" t="n"/>
       <c r="O94" s="26" t="n"/>
       <c r="P94" s="26" t="n"/>
     </row>
     <row r="95" ht="16.5" customHeight="1" s="13">
-      <c r="A95" s="22" t="n"/>
-      <c r="B95" s="22" t="n"/>
-      <c r="C95" s="22" t="n"/>
+      <c r="A95" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B95" s="22" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="C95" s="22" t="inlineStr">
+        <is>
+          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
+        </is>
+      </c>
       <c r="D95" s="22" t="n"/>
-      <c r="E95" s="22" t="n"/>
+      <c r="E95" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G95" s="22" t="n"/>
-      <c r="H95" s="16" t="n"/>
-      <c r="I95" s="16" t="n"/>
+      <c r="H95" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I95" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J95" s="23" t="n"/>
       <c r="K95" s="23" t="n"/>
-      <c r="L95" s="26" t="n"/>
+      <c r="L95" s="26" t="inlineStr">
+        <is>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+        </is>
+      </c>
       <c r="M95" s="26" t="n"/>
       <c r="N95" s="26" t="n"/>
       <c r="O95" s="26" t="n"/>
       <c r="P95" s="26" t="n"/>
     </row>
     <row r="96" ht="16.5" customHeight="1" s="13">
-      <c r="A96" s="22" t="n"/>
-      <c r="B96" s="22" t="n"/>
-      <c r="C96" s="22" t="n"/>
+      <c r="A96" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B96" s="22" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="C96" s="22" t="inlineStr">
+        <is>
+          <t>If partner NVAs are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
+        </is>
+      </c>
       <c r="D96" s="22" t="n"/>
-      <c r="E96" s="22" t="n"/>
+      <c r="E96" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G96" s="22" t="n"/>
-      <c r="H96" s="16" t="n"/>
-      <c r="I96" s="16" t="n"/>
+      <c r="H96" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I96" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J96" s="23" t="n"/>
       <c r="K96" s="23" t="n"/>
-      <c r="L96" s="26" t="n"/>
+      <c r="L96" s="26" t="inlineStr">
+        <is>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+        </is>
+      </c>
       <c r="M96" s="26" t="n"/>
       <c r="N96" s="26" t="n"/>
       <c r="O96" s="26" t="n"/>
       <c r="P96" s="26" t="n"/>
     </row>
     <row r="97" ht="16.5" customHeight="1" s="13">
-      <c r="A97" s="22" t="n"/>
-      <c r="B97" s="22" t="n"/>
-      <c r="C97" s="22" t="n"/>
+      <c r="A97" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B97" s="22" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="C97" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure DDoS Protection Standard protection plans to help protect all public endpoints hosted within the virtual networks.</t>
+        </is>
+      </c>
       <c r="D97" s="22" t="n"/>
-      <c r="E97" s="22" t="n"/>
+      <c r="E97" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G97" s="22" t="n"/>
-      <c r="H97" s="16" t="n"/>
-      <c r="I97" s="16" t="n"/>
+      <c r="H97" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+        </is>
+      </c>
+      <c r="I97" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J97" s="23" t="n"/>
       <c r="K97" s="23" t="n"/>
-      <c r="L97" s="26" t="n"/>
+      <c r="L97" s="26" t="inlineStr">
+        <is>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+        </is>
+      </c>
       <c r="M97" s="26" t="n"/>
       <c r="N97" s="26" t="n"/>
       <c r="O97" s="26" t="n"/>
       <c r="P97" s="26" t="n"/>
     </row>
     <row r="98" ht="16.5" customHeight="1" s="13">
-      <c r="A98" s="22" t="n"/>
-      <c r="B98" s="22" t="n"/>
-      <c r="C98" s="22" t="n"/>
+      <c r="A98" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B98" s="22" t="inlineStr">
+        <is>
+          <t>App delivery</t>
+        </is>
+      </c>
+      <c r="C98" s="22" t="inlineStr">
+        <is>
+          <t>Perform app delivery within landing zones for both internal-facing (corp) and external-facing apps (online).</t>
+        </is>
+      </c>
       <c r="D98" s="22" t="n"/>
-      <c r="E98" s="22" t="n"/>
+      <c r="E98" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G98" s="22" t="n"/>
-      <c r="H98" s="16" t="n"/>
-      <c r="I98" s="16" t="n"/>
+      <c r="H98" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+        </is>
+      </c>
+      <c r="I98" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J98" s="23" t="n"/>
       <c r="K98" s="23" t="n"/>
-      <c r="L98" s="26" t="n"/>
+      <c r="L98" s="26" t="inlineStr">
+        <is>
+          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+        </is>
+      </c>
       <c r="M98" s="26" t="n"/>
       <c r="N98" s="26" t="n"/>
       <c r="O98" s="26" t="n"/>
       <c r="P98" s="26" t="n"/>
     </row>
     <row r="99" ht="16.5" customHeight="1" s="13">
-      <c r="A99" s="22" t="n"/>
-      <c r="B99" s="22" t="n"/>
-      <c r="C99" s="22" t="n"/>
+      <c r="A99" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B99" s="22" t="inlineStr">
+        <is>
+          <t>App delivery</t>
+        </is>
+      </c>
+      <c r="C99" s="22" t="inlineStr">
+        <is>
+          <t>For secure delivery of HTTP/S apps, use Application Gateway v2 and ensure that WAF protection and policies are enabled.</t>
+        </is>
+      </c>
       <c r="D99" s="22" t="n"/>
-      <c r="E99" s="22" t="n"/>
+      <c r="E99" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G99" s="22" t="n"/>
-      <c r="H99" s="16" t="n"/>
-      <c r="I99" s="16" t="n"/>
+      <c r="H99" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+        </is>
+      </c>
+      <c r="I99" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J99" s="23" t="n"/>
       <c r="K99" s="23" t="n"/>
-      <c r="L99" s="26" t="n"/>
+      <c r="L99" s="26" t="inlineStr">
+        <is>
+          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
+        </is>
+      </c>
       <c r="M99" s="26" t="n"/>
       <c r="N99" s="26" t="n"/>
       <c r="O99" s="26" t="n"/>
       <c r="P99" s="26" t="n"/>
     </row>
     <row r="100" ht="16.5" customHeight="1" s="13">
-      <c r="A100" s="22" t="n"/>
-      <c r="B100" s="22" t="n"/>
-      <c r="C100" s="22" t="n"/>
+      <c r="A100" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B100" s="22" t="inlineStr">
+        <is>
+          <t>App delivery</t>
+        </is>
+      </c>
+      <c r="C100" s="22" t="inlineStr">
+        <is>
+          <t>Use a partner NVA if you can't use Application Gateway v2 for the security of HTTP/S apps.</t>
+        </is>
+      </c>
       <c r="D100" s="22" t="n"/>
-      <c r="E100" s="22" t="n"/>
+      <c r="E100" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G100" s="22" t="n"/>
-      <c r="H100" s="16" t="n"/>
-      <c r="I100" s="16" t="n"/>
+      <c r="H100" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+        </is>
+      </c>
+      <c r="I100" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J100" s="23" t="n"/>
       <c r="K100" s="23" t="n"/>
-      <c r="L100" s="26" t="n"/>
+      <c r="L100" s="26" t="inlineStr">
+        <is>
+          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
+        </is>
+      </c>
       <c r="M100" s="26" t="n"/>
       <c r="N100" s="26" t="n"/>
       <c r="O100" s="26" t="n"/>
       <c r="P100" s="26" t="n"/>
     </row>
     <row r="101" ht="16.5" customHeight="1" s="13">
-      <c r="A101" s="22" t="n"/>
-      <c r="B101" s="22" t="n"/>
-      <c r="C101" s="22" t="n"/>
+      <c r="A101" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B101" s="22" t="inlineStr">
+        <is>
+          <t>App delivery</t>
+        </is>
+      </c>
+      <c r="C101" s="22" t="inlineStr">
+        <is>
+          <t>Deploy Azure Application Gateway v2 or partner NVAs used for inbound HTTP/S connections within the landing-zone virtual network and with the apps that they're securing.</t>
+        </is>
+      </c>
       <c r="D101" s="22" t="n"/>
-      <c r="E101" s="22" t="n"/>
+      <c r="E101" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G101" s="22" t="n"/>
-      <c r="H101" s="16" t="n"/>
-      <c r="I101" s="16" t="n"/>
+      <c r="H101" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I101" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J101" s="23" t="n"/>
       <c r="K101" s="23" t="n"/>
-      <c r="L101" s="26" t="n"/>
+      <c r="L101" s="26" t="inlineStr">
+        <is>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+        </is>
+      </c>
       <c r="M101" s="26" t="n"/>
       <c r="N101" s="26" t="n"/>
       <c r="O101" s="26" t="n"/>
       <c r="P101" s="26" t="n"/>
     </row>
     <row r="102" ht="16.5" customHeight="1" s="13">
-      <c r="A102" s="22" t="n"/>
-      <c r="B102" s="22" t="n"/>
-      <c r="C102" s="22" t="n"/>
+      <c r="A102" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B102" s="22" t="inlineStr">
+        <is>
+          <t>App delivery</t>
+        </is>
+      </c>
+      <c r="C102" s="22" t="inlineStr">
+        <is>
+          <t>Use a DDoS standard protection plan for all public IP addresses in a landing zone.</t>
+        </is>
+      </c>
       <c r="D102" s="22" t="n"/>
-      <c r="E102" s="22" t="n"/>
+      <c r="E102" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G102" s="22" t="n"/>
-      <c r="H102" s="16" t="n"/>
-      <c r="I102" s="16" t="n"/>
+      <c r="H102" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I102" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J102" s="23" t="n"/>
       <c r="K102" s="23" t="n"/>
-      <c r="L102" s="26" t="n"/>
+      <c r="L102" s="26" t="inlineStr">
+        <is>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+        </is>
+      </c>
       <c r="M102" s="26" t="n"/>
       <c r="N102" s="26" t="n"/>
       <c r="O102" s="26" t="n"/>
       <c r="P102" s="26" t="n"/>
     </row>
     <row r="103" ht="16.5" customHeight="1" s="13">
-      <c r="A103" s="22" t="n"/>
-      <c r="B103" s="22" t="n"/>
-      <c r="C103" s="22" t="n"/>
+      <c r="A103" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B103" s="22" t="inlineStr">
+        <is>
+          <t>App delivery</t>
+        </is>
+      </c>
+      <c r="C103" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure Front Door with WAF policies to deliver and help protect global HTTP/S apps that span Azure regions.</t>
+        </is>
+      </c>
       <c r="D103" s="22" t="n"/>
-      <c r="E103" s="22" t="n"/>
+      <c r="E103" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G103" s="22" t="n"/>
-      <c r="H103" s="16" t="n"/>
-      <c r="I103" s="16" t="n"/>
+      <c r="H103" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I103" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J103" s="23" t="n"/>
       <c r="K103" s="23" t="n"/>
-      <c r="L103" s="26" t="n"/>
+      <c r="L103" s="26" t="inlineStr">
+        <is>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+        </is>
+      </c>
       <c r="M103" s="26" t="n"/>
       <c r="N103" s="26" t="n"/>
       <c r="O103" s="26" t="n"/>
       <c r="P103" s="26" t="n"/>
     </row>
     <row r="104" ht="16.5" customHeight="1" s="13">
-      <c r="A104" s="22" t="n"/>
-      <c r="B104" s="22" t="n"/>
-      <c r="C104" s="22" t="n"/>
+      <c r="A104" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B104" s="22" t="inlineStr">
+        <is>
+          <t>App delivery</t>
+        </is>
+      </c>
+      <c r="C104" s="22" t="inlineStr">
+        <is>
+          <t>When using Front Door and Application Gateway to help protect HTTP/S apps, use WAF policies in Front Door. Lock down Application Gateway to receive traffic only from Front Door.</t>
+        </is>
+      </c>
       <c r="D104" s="22" t="n"/>
-      <c r="E104" s="22" t="n"/>
+      <c r="E104" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G104" s="22" t="n"/>
-      <c r="H104" s="16" t="n"/>
-      <c r="I104" s="16" t="n"/>
+      <c r="H104" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+        </is>
+      </c>
+      <c r="I104" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J104" s="23" t="n"/>
       <c r="K104" s="23" t="n"/>
-      <c r="L104" s="26" t="n"/>
+      <c r="L104" s="26" t="inlineStr">
+        <is>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+        </is>
+      </c>
       <c r="M104" s="26" t="n"/>
       <c r="N104" s="26" t="n"/>
       <c r="O104" s="26" t="n"/>
       <c r="P104" s="26" t="n"/>
     </row>
     <row r="105" ht="16.5" customHeight="1" s="13">
-      <c r="A105" s="22" t="n"/>
-      <c r="B105" s="22" t="n"/>
-      <c r="C105" s="22" t="n"/>
+      <c r="A105" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B105" s="22" t="inlineStr">
+        <is>
+          <t>App delivery</t>
+        </is>
+      </c>
+      <c r="C105" s="22" t="inlineStr">
+        <is>
+          <t>Use Traffic Manager to deliver global apps that span protocols other than HTTP/S.</t>
+        </is>
+      </c>
       <c r="D105" s="22" t="n"/>
-      <c r="E105" s="22" t="n"/>
+      <c r="E105" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G105" s="22" t="n"/>
-      <c r="H105" s="16" t="n"/>
-      <c r="I105" s="16" t="n"/>
+      <c r="H105" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I105" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J105" s="23" t="n"/>
       <c r="K105" s="23" t="n"/>
-      <c r="L105" s="26" t="n"/>
+      <c r="L105" s="26" t="inlineStr">
+        <is>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+        </is>
+      </c>
       <c r="M105" s="26" t="n"/>
       <c r="N105" s="26" t="n"/>
       <c r="O105" s="26" t="n"/>
       <c r="P105" s="26" t="n"/>
     </row>
     <row r="106" ht="16.5" customHeight="1" s="13">
-      <c r="A106" s="22" t="n"/>
-      <c r="B106" s="22" t="n"/>
-      <c r="C106" s="22" t="n"/>
+      <c r="A106" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B106" s="22" t="inlineStr">
+        <is>
+          <t>App delivery</t>
+        </is>
+      </c>
+      <c r="C106" s="22" t="inlineStr">
+        <is>
+          <t>If users only need access to internal applications, has Azure AD Application Proxy been considered as an alternative to Azure Virtual Desktop (AVD)?</t>
+        </is>
+      </c>
       <c r="D106" s="22" t="n"/>
-      <c r="E106" s="22" t="n"/>
+      <c r="E106" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G106" s="22" t="n"/>
-      <c r="H106" s="16" t="n"/>
-      <c r="I106" s="16" t="n"/>
+      <c r="H106" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I106" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+        </is>
+      </c>
       <c r="J106" s="23" t="n"/>
       <c r="K106" s="23" t="n"/>
-      <c r="L106" s="26" t="n"/>
+      <c r="L106" s="26" t="inlineStr">
+        <is>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+        </is>
+      </c>
       <c r="M106" s="26" t="n"/>
       <c r="N106" s="26" t="n"/>
       <c r="O106" s="26" t="n"/>
       <c r="P106" s="26" t="n"/>
     </row>
     <row r="107" ht="16.5" customHeight="1" s="13">
-      <c r="A107" s="22" t="n"/>
-      <c r="B107" s="22" t="n"/>
-      <c r="C107" s="22" t="n"/>
+      <c r="A107" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B107" s="22" t="inlineStr">
+        <is>
+          <t>Segmentation</t>
+        </is>
+      </c>
+      <c r="C107" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
+        </is>
+      </c>
       <c r="D107" s="22" t="n"/>
-      <c r="E107" s="22" t="n"/>
+      <c r="E107" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G107" s="22" t="n"/>
-      <c r="H107" s="16" t="n"/>
-      <c r="I107" s="16" t="n"/>
+      <c r="H107" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+        </is>
+      </c>
+      <c r="I107" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J107" s="23" t="n"/>
       <c r="K107" s="23" t="n"/>
-      <c r="L107" s="26" t="n"/>
+      <c r="L107" s="26" t="inlineStr">
+        <is>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+        </is>
+      </c>
       <c r="M107" s="26" t="n"/>
       <c r="N107" s="26" t="n"/>
       <c r="O107" s="26" t="n"/>
       <c r="P107" s="26" t="n"/>
     </row>
     <row r="108" ht="16.5" customHeight="1" s="13">
-      <c r="A108" s="22" t="n"/>
-      <c r="B108" s="22" t="n"/>
-      <c r="C108" s="22" t="n"/>
+      <c r="A108" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B108" s="22" t="inlineStr">
+        <is>
+          <t>App delivery</t>
+        </is>
+      </c>
+      <c r="C108" s="22" t="inlineStr">
+        <is>
+          <t>To reduce the number of firewall ports open for incoming connections in your network, consider using Azure AD Application Proxy to give remote users secure and authenticated access to internal applications.</t>
+        </is>
+      </c>
       <c r="D108" s="22" t="n"/>
-      <c r="E108" s="22" t="n"/>
+      <c r="E108" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G108" s="22" t="n"/>
-      <c r="H108" s="16" t="n"/>
-      <c r="I108" s="16" t="n"/>
+      <c r="H108" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I108" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+        </is>
+      </c>
       <c r="J108" s="23" t="n"/>
       <c r="K108" s="23" t="n"/>
-      <c r="L108" s="26" t="n"/>
+      <c r="L108" s="26" t="inlineStr">
+        <is>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+        </is>
+      </c>
       <c r="M108" s="26" t="n"/>
       <c r="N108" s="26" t="n"/>
       <c r="O108" s="26" t="n"/>
       <c r="P108" s="26" t="n"/>
     </row>
     <row r="109" ht="16.5" customHeight="1" s="13">
-      <c r="A109" s="22" t="n"/>
-      <c r="B109" s="22" t="n"/>
-      <c r="C109" s="22" t="n"/>
+      <c r="A109" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B109" s="22" t="inlineStr">
+        <is>
+          <t>Segmentation</t>
+        </is>
+      </c>
+      <c r="C109" s="22" t="inlineStr">
+        <is>
+          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
+        </is>
+      </c>
       <c r="D109" s="22" t="n"/>
-      <c r="E109" s="22" t="n"/>
+      <c r="E109" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G109" s="22" t="n"/>
-      <c r="H109" s="16" t="n"/>
-      <c r="I109" s="16" t="n"/>
+      <c r="H109" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I109" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J109" s="23" t="n"/>
       <c r="K109" s="23" t="n"/>
-      <c r="L109" s="26" t="n"/>
+      <c r="L109" s="26" t="inlineStr">
+        <is>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+        </is>
+      </c>
       <c r="M109" s="26" t="n"/>
       <c r="N109" s="26" t="n"/>
       <c r="O109" s="26" t="n"/>
       <c r="P109" s="26" t="n"/>
     </row>
     <row r="110" ht="16.5" customHeight="1" s="13">
-      <c r="A110" s="22" t="n"/>
-      <c r="B110" s="22" t="n"/>
-      <c r="C110" s="22" t="n"/>
+      <c r="A110" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B110" s="22" t="inlineStr">
+        <is>
+          <t>Segmentation</t>
+        </is>
+      </c>
+      <c r="C110" s="22" t="inlineStr">
+        <is>
+          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
+        </is>
+      </c>
       <c r="D110" s="22" t="n"/>
-      <c r="E110" s="22" t="n"/>
+      <c r="E110" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G110" s="22" t="n"/>
-      <c r="H110" s="16" t="n"/>
-      <c r="I110" s="16" t="n"/>
+      <c r="H110" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+        </is>
+      </c>
+      <c r="I110" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J110" s="23" t="n"/>
       <c r="K110" s="23" t="n"/>
-      <c r="L110" s="26" t="n"/>
+      <c r="L110" s="26" t="inlineStr">
+        <is>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+        </is>
+      </c>
       <c r="M110" s="26" t="n"/>
       <c r="N110" s="26" t="n"/>
       <c r="O110" s="26" t="n"/>
       <c r="P110" s="26" t="n"/>
     </row>
     <row r="111" ht="16.5" customHeight="1" s="13">
-      <c r="A111" s="22" t="n"/>
-      <c r="B111" s="22" t="n"/>
-      <c r="C111" s="22" t="n"/>
+      <c r="A111" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B111" s="22" t="inlineStr">
+        <is>
+          <t>Segmentation</t>
+        </is>
+      </c>
+      <c r="C111" s="22" t="inlineStr">
+        <is>
+          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
+        </is>
+      </c>
       <c r="D111" s="22" t="n"/>
-      <c r="E111" s="22" t="n"/>
+      <c r="E111" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G111" s="22" t="n"/>
-      <c r="H111" s="16" t="n"/>
+      <c r="H111" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
-      <c r="L111" s="26" t="n"/>
+      <c r="L111" s="26" t="inlineStr">
+        <is>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+        </is>
+      </c>
       <c r="M111" s="26" t="n"/>
       <c r="N111" s="26" t="n"/>
       <c r="O111" s="26" t="n"/>
       <c r="P111" s="26" t="n"/>
     </row>
     <row r="112" ht="16.5" customHeight="1" s="13">
-      <c r="A112" s="22" t="n"/>
-      <c r="B112" s="22" t="n"/>
-      <c r="C112" s="22" t="n"/>
+      <c r="A112" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B112" s="22" t="inlineStr">
+        <is>
+          <t>Segmentation</t>
+        </is>
+      </c>
+      <c r="C112" s="22" t="inlineStr">
+        <is>
+          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
+        </is>
+      </c>
       <c r="D112" s="22" t="n"/>
-      <c r="E112" s="22" t="n"/>
+      <c r="E112" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G112" s="22" t="n"/>
-      <c r="H112" s="16" t="n"/>
-      <c r="I112" s="16" t="n"/>
+      <c r="H112" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I112" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J112" s="23" t="n"/>
       <c r="K112" s="24" t="n"/>
-      <c r="L112" s="26" t="n"/>
+      <c r="L112" s="26" t="inlineStr">
+        <is>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+        </is>
+      </c>
       <c r="M112" s="26" t="n"/>
       <c r="N112" s="26" t="n"/>
       <c r="O112" s="26" t="n"/>
       <c r="P112" s="26" t="n"/>
     </row>
     <row r="113" ht="16.5" customHeight="1" s="13">
-      <c r="A113" s="22" t="n"/>
-      <c r="B113" s="22" t="n"/>
-      <c r="C113" s="22" t="n"/>
+      <c r="A113" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B113" s="22" t="inlineStr">
+        <is>
+          <t>Segmentation</t>
+        </is>
+      </c>
+      <c r="C113" s="22" t="inlineStr">
+        <is>
+          <t>Use NSGs to selectively allow connectivity between landing zones.</t>
+        </is>
+      </c>
       <c r="D113" s="22" t="n"/>
-      <c r="E113" s="22" t="n"/>
+      <c r="E113" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G113" s="22" t="n"/>
-      <c r="H113" s="16" t="n"/>
-      <c r="I113" s="16" t="n"/>
+      <c r="H113" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I113" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J113" s="23" t="n"/>
       <c r="K113" s="23" t="n"/>
-      <c r="L113" s="26" t="n"/>
+      <c r="L113" s="26" t="inlineStr">
+        <is>
+          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+        </is>
+      </c>
       <c r="M113" s="26" t="n"/>
       <c r="N113" s="26" t="n"/>
       <c r="O113" s="26" t="n"/>
       <c r="P113" s="26" t="n"/>
     </row>
     <row r="114" ht="16.5" customHeight="1" s="13">
-      <c r="A114" s="22" t="n"/>
-      <c r="B114" s="22" t="n"/>
-      <c r="C114" s="22" t="n"/>
+      <c r="A114" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B114" s="22" t="inlineStr">
+        <is>
+          <t>Segmentation</t>
+        </is>
+      </c>
+      <c r="C114" s="22" t="inlineStr">
+        <is>
+          <t>For Virtual WAN topologies, route traffic across landing zones via Azure Firewall if the organization requires filtering and logging capabilities for traffic flowing across landing zones.</t>
+        </is>
+      </c>
       <c r="D114" s="22" t="n"/>
-      <c r="E114" s="22" t="n"/>
+      <c r="E114" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G114" s="22" t="n"/>
-      <c r="H114" s="16" t="n"/>
-      <c r="I114" s="16" t="n"/>
+      <c r="H114" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I114" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J114" s="23" t="n"/>
       <c r="K114" s="23" t="n"/>
-      <c r="L114" s="26" t="n"/>
+      <c r="L114" s="26" t="inlineStr">
+        <is>
+          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+        </is>
+      </c>
       <c r="M114" s="26" t="n"/>
       <c r="N114" s="26" t="n"/>
       <c r="O114" s="26" t="n"/>
       <c r="P114" s="26" t="n"/>
     </row>
     <row r="115" ht="16.5" customHeight="1" s="13">
-      <c r="A115" s="22" t="n"/>
-      <c r="B115" s="22" t="n"/>
-      <c r="C115" s="22" t="n"/>
+      <c r="A115" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B115" s="22" t="inlineStr">
+        <is>
+          <t>Encryption</t>
+        </is>
+      </c>
+      <c r="C115" s="22" t="inlineStr">
+        <is>
+          <t>When you're using ExpressRoute Direct, configure MACsec in order to encrypt traffic at the layer-two level between the organization's routers and MSEE. The diagram shows this encryption in flow.</t>
+        </is>
+      </c>
       <c r="D115" s="22" t="n"/>
-      <c r="E115" s="22" t="n"/>
+      <c r="E115" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G115" s="22" t="n"/>
-      <c r="H115" s="16" t="n"/>
+      <c r="H115" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
-      <c r="L115" s="26" t="n"/>
+      <c r="L115" s="26" t="inlineStr">
+        <is>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+        </is>
+      </c>
       <c r="M115" s="26" t="n"/>
       <c r="N115" s="26" t="n"/>
       <c r="O115" s="26" t="n"/>
       <c r="P115" s="26" t="n"/>
     </row>
     <row r="116" ht="16.5" customHeight="1" s="13">
-      <c r="A116" s="22" t="n"/>
-      <c r="B116" s="22" t="n"/>
-      <c r="C116" s="22" t="n"/>
+      <c r="A116" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B116" s="22" t="inlineStr">
+        <is>
+          <t>Encryption</t>
+        </is>
+      </c>
+      <c r="C116" s="22" t="inlineStr">
+        <is>
+          <t>If traffic between Azure regions must be encrypted, use global VNet peering to connect virtual networks across regions.</t>
+        </is>
+      </c>
       <c r="D116" s="22" t="n"/>
-      <c r="E116" s="22" t="n"/>
+      <c r="E116" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G116" s="22" t="n"/>
-      <c r="H116" s="16" t="n"/>
+      <c r="H116" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
-      <c r="L116" s="26" t="n"/>
+      <c r="L116" s="26" t="inlineStr">
+        <is>
+          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
+        </is>
+      </c>
       <c r="M116" s="26" t="n"/>
       <c r="N116" s="26" t="n"/>
       <c r="O116" s="26" t="n"/>
       <c r="P116" s="26" t="n"/>
     </row>
     <row r="117" ht="16.5" customHeight="1" s="13">
-      <c r="A117" s="22" t="n"/>
-      <c r="B117" s="22" t="n"/>
-      <c r="C117" s="22" t="n"/>
+      <c r="A117" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B117" s="22" t="inlineStr">
+        <is>
+          <t>Encryption</t>
+        </is>
+      </c>
+      <c r="C117" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">For Virtual WAN scenarios where MACsec isn't an option (for example, not using ExpressRoute Direct), use a Virtual WAN VPN gateway to establish IPsec tunnels over ExpressRoute private peering. </t>
+        </is>
+      </c>
       <c r="D117" s="22" t="n"/>
-      <c r="E117" s="22" t="n"/>
+      <c r="E117" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G117" s="22" t="n"/>
-      <c r="H117" s="16" t="n"/>
+      <c r="H117" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
-      <c r="L117" s="26" t="n"/>
+      <c r="L117" s="26" t="inlineStr">
+        <is>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+        </is>
+      </c>
       <c r="M117" s="26" t="n"/>
       <c r="N117" s="26" t="n"/>
       <c r="O117" s="26" t="n"/>
       <c r="P117" s="26" t="n"/>
     </row>
     <row r="118" ht="16.5" customHeight="1" s="13">
-      <c r="A118" s="22" t="n"/>
-      <c r="B118" s="22" t="n"/>
-      <c r="C118" s="22" t="n"/>
+      <c r="A118" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B118" s="22" t="inlineStr">
+        <is>
+          <t>Inspection</t>
+        </is>
+      </c>
+      <c r="C118" s="22" t="inlineStr">
+        <is>
+          <t>Use Network Watcher packets to capture despite the limited capture window.</t>
+        </is>
+      </c>
       <c r="D118" s="22" t="n"/>
-      <c r="E118" s="22" t="n"/>
+      <c r="E118" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G118" s="22" t="n"/>
-      <c r="H118" s="16" t="n"/>
-      <c r="I118" s="16" t="n"/>
+      <c r="H118" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+        </is>
+      </c>
+      <c r="I118" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J118" s="23" t="n"/>
       <c r="K118" s="23" t="n"/>
-      <c r="L118" s="26" t="n"/>
+      <c r="L118" s="26" t="inlineStr">
+        <is>
+          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+        </is>
+      </c>
       <c r="M118" s="26" t="n"/>
       <c r="N118" s="26" t="n"/>
       <c r="O118" s="26" t="n"/>
       <c r="P118" s="26" t="n"/>
     </row>
     <row r="119" ht="16.5" customHeight="1" s="13">
-      <c r="A119" s="22" t="n"/>
-      <c r="B119" s="22" t="n"/>
-      <c r="C119" s="22" t="n"/>
+      <c r="A119" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B119" s="22" t="inlineStr">
+        <is>
+          <t>Inspection</t>
+        </is>
+      </c>
+      <c r="C119" s="22" t="inlineStr">
+        <is>
+          <t>Evaluate whether the latest version of NSG flow logs provides the level of detail that you need.</t>
+        </is>
+      </c>
       <c r="D119" s="22" t="n"/>
-      <c r="E119" s="22" t="n"/>
+      <c r="E119" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G119" s="22" t="n"/>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
-      <c r="L119" s="26" t="n"/>
+      <c r="L119" s="26" t="inlineStr">
+        <is>
+          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
+        </is>
+      </c>
       <c r="M119" s="26" t="n"/>
       <c r="N119" s="26" t="n"/>
       <c r="O119" s="26" t="n"/>
       <c r="P119" s="26" t="n"/>
     </row>
     <row r="120" ht="16.5" customHeight="1" s="13">
-      <c r="A120" s="22" t="n"/>
-      <c r="B120" s="22" t="n"/>
-      <c r="C120" s="22" t="n"/>
+      <c r="A120" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B120" s="22" t="inlineStr">
+        <is>
+          <t>Inspection</t>
+        </is>
+      </c>
+      <c r="C120" s="22" t="inlineStr">
+        <is>
+          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
+        </is>
+      </c>
       <c r="D120" s="22" t="n"/>
-      <c r="E120" s="22" t="n"/>
+      <c r="E120" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G120" s="22" t="n"/>
-      <c r="H120" s="16" t="n"/>
+      <c r="H120" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+        </is>
+      </c>
       <c r="I120" s="16" t="n"/>
       <c r="J120" s="23" t="n"/>
       <c r="K120" s="23" t="n"/>
-      <c r="L120" s="26" t="n"/>
+      <c r="L120" s="26" t="inlineStr">
+        <is>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+        </is>
+      </c>
       <c r="M120" s="26" t="n"/>
       <c r="N120" s="26" t="n"/>
       <c r="O120" s="26" t="n"/>
       <c r="P120" s="26" t="n"/>
     </row>
     <row r="121" ht="16.5" customHeight="1" s="13">
-      <c r="A121" s="22" t="n"/>
-      <c r="B121" s="22" t="n"/>
-      <c r="C121" s="22" t="n"/>
+      <c r="A121" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B121" s="22" t="inlineStr">
+        <is>
+          <t>Inspection</t>
+        </is>
+      </c>
+      <c r="C121" s="22" t="inlineStr">
+        <is>
+          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
+        </is>
+      </c>
       <c r="D121" s="22" t="n"/>
-      <c r="E121" s="22" t="n"/>
+      <c r="E121" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G121" s="22" t="n"/>
-      <c r="H121" s="16" t="n"/>
+      <c r="H121" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+        </is>
+      </c>
       <c r="I121" s="16" t="n"/>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
-      <c r="L121" s="26" t="n"/>
+      <c r="L121" s="26" t="inlineStr">
+        <is>
+          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+        </is>
+      </c>
       <c r="M121" s="26" t="n"/>
       <c r="N121" s="26" t="n"/>
       <c r="O121" s="26" t="n"/>
       <c r="P121" s="26" t="n"/>
     </row>
     <row r="122" ht="16.5" customHeight="1" s="13">
-      <c r="A122" s="22" t="n"/>
-      <c r="B122" s="22" t="n"/>
-      <c r="C122" s="22" t="n"/>
+      <c r="A122" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B122" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C122" s="22" t="inlineStr">
+        <is>
+          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
+        </is>
+      </c>
       <c r="D122" s="22" t="n"/>
-      <c r="E122" s="22" t="n"/>
+      <c r="E122" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G122" s="22" t="n"/>
-      <c r="H122" s="16" t="n"/>
-      <c r="I122" s="16" t="n"/>
+      <c r="H122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
-      <c r="L122" s="26" t="n"/>
+      <c r="L122" s="26" t="inlineStr">
+        <is>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+        </is>
+      </c>
       <c r="M122" s="26" t="n"/>
       <c r="N122" s="26" t="n"/>
       <c r="O122" s="26" t="n"/>
       <c r="P122" s="26" t="n"/>
     </row>
     <row r="123" ht="16.5" customHeight="1" s="13">
-      <c r="A123" s="22" t="n"/>
-      <c r="B123" s="22" t="n"/>
-      <c r="C123" s="22" t="n"/>
+      <c r="A123" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B123" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C123" s="22" t="inlineStr">
+        <is>
+          <t>Is the landing zone documented?</t>
+        </is>
+      </c>
       <c r="D123" s="22" t="n"/>
-      <c r="E123" s="22" t="n"/>
+      <c r="E123" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G123" s="22" t="n"/>
       <c r="H123" s="16" t="n"/>
       <c r="I123" s="16" t="n"/>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
-      <c r="L123" s="26" t="n"/>
+      <c r="L123" s="26" t="inlineStr">
+        <is>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+        </is>
+      </c>
       <c r="M123" s="26" t="n"/>
       <c r="N123" s="26" t="n"/>
       <c r="O123" s="26" t="n"/>
       <c r="P123" s="26" t="n"/>
     </row>
     <row r="124" ht="16.5" customHeight="1" s="13">
-      <c r="A124" s="22" t="n"/>
-      <c r="B124" s="22" t="n"/>
-      <c r="C124" s="22" t="n"/>
+      <c r="A124" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B124" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C124" s="22" t="inlineStr">
+        <is>
+          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
+        </is>
+      </c>
       <c r="D124" s="22" t="n"/>
-      <c r="E124" s="22" t="n"/>
+      <c r="E124" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G124" s="22" t="n"/>
-      <c r="H124" s="16" t="n"/>
-      <c r="I124" s="16" t="n"/>
+      <c r="H124" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I124" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="J124" s="23" t="n"/>
       <c r="K124" s="23" t="n"/>
-      <c r="L124" s="26" t="n"/>
+      <c r="L124" s="26" t="inlineStr">
+        <is>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+        </is>
+      </c>
       <c r="M124" s="26" t="n"/>
       <c r="N124" s="26" t="n"/>
       <c r="O124" s="26" t="n"/>
       <c r="P124" s="26" t="n"/>
     </row>
     <row r="125" ht="16.5" customHeight="1" s="13">
-      <c r="A125" s="22" t="n"/>
-      <c r="B125" s="22" t="n"/>
-      <c r="C125" s="22" t="n"/>
+      <c r="A125" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B125" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C125" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
+        </is>
+      </c>
       <c r="D125" s="22" t="n"/>
-      <c r="E125" s="22" t="n"/>
+      <c r="E125" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G125" s="22" t="n"/>
-      <c r="H125" s="16" t="n"/>
-      <c r="I125" s="16" t="n"/>
+      <c r="H125" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I125" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
-      <c r="L125" s="26" t="n"/>
+      <c r="L125" s="26" t="inlineStr">
+        <is>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+        </is>
+      </c>
       <c r="M125" s="26" t="n"/>
       <c r="N125" s="26" t="n"/>
       <c r="O125" s="26" t="n"/>
       <c r="P125" s="26" t="n"/>
     </row>
     <row r="126" ht="16.5" customHeight="1" s="13">
-      <c r="A126" s="22" t="n"/>
-      <c r="B126" s="22" t="n"/>
-      <c r="C126" s="22" t="n"/>
+      <c r="A126" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B126" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C126" s="22" t="inlineStr">
+        <is>
+          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
+        </is>
+      </c>
       <c r="D126" s="22" t="n"/>
-      <c r="E126" s="22" t="n"/>
+      <c r="E126" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G126" s="22" t="n"/>
-      <c r="H126" s="16" t="n"/>
+      <c r="H126" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
-      <c r="L126" s="26" t="n"/>
+      <c r="L126" s="26" t="inlineStr">
+        <is>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+        </is>
+      </c>
       <c r="M126" s="26" t="n"/>
       <c r="N126" s="26" t="n"/>
       <c r="O126" s="26" t="n"/>
       <c r="P126" s="26" t="n"/>
     </row>
     <row r="127" ht="16.5" customHeight="1" s="13">
-      <c r="A127" s="22" t="n"/>
-      <c r="B127" s="22" t="n"/>
-      <c r="C127" s="22" t="n"/>
+      <c r="A127" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B127" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C127" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
+        </is>
+      </c>
       <c r="D127" s="22" t="n"/>
-      <c r="E127" s="22" t="n"/>
+      <c r="E127" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G127" s="22" t="n"/>
-      <c r="H127" s="16" t="n"/>
+      <c r="H127" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+        </is>
+      </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
-      <c r="L127" s="26" t="n"/>
+      <c r="L127" s="26" t="inlineStr">
+        <is>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+        </is>
+      </c>
       <c r="M127" s="26" t="n"/>
       <c r="N127" s="26" t="n"/>
       <c r="O127" s="26" t="n"/>
       <c r="P127" s="26" t="n"/>
     </row>
     <row r="128" ht="16.5" customHeight="1" s="13">
-      <c r="A128" s="22" t="n"/>
-      <c r="B128" s="22" t="n"/>
-      <c r="C128" s="22" t="n"/>
+      <c r="A128" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B128" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C128" s="22" t="inlineStr">
+        <is>
+          <t>Use Network Watcher to proactively monitor traffic flows</t>
+        </is>
+      </c>
       <c r="D128" s="22" t="n"/>
-      <c r="E128" s="22" t="n"/>
+      <c r="E128" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G128" s="22" t="n"/>
-      <c r="H128" s="16" t="n"/>
+      <c r="H128" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
+        </is>
+      </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
-      <c r="L128" s="26" t="n"/>
+      <c r="L128" s="26" t="inlineStr">
+        <is>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+        </is>
+      </c>
       <c r="M128" s="26" t="n"/>
       <c r="N128" s="26" t="n"/>
       <c r="O128" s="26" t="n"/>
       <c r="P128" s="26" t="n"/>
     </row>
     <row r="129" ht="16.5" customHeight="1" s="13">
-      <c r="A129" s="22" t="n"/>
-      <c r="B129" s="22" t="n"/>
-      <c r="C129" s="22" t="n"/>
+      <c r="A129" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B129" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C129" s="22" t="inlineStr">
+        <is>
+          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
+        </is>
+      </c>
       <c r="D129" s="22" t="n"/>
-      <c r="E129" s="22" t="n"/>
+      <c r="E129" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G129" s="22" t="n"/>
-      <c r="H129" s="16" t="n"/>
+      <c r="H129" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
-      <c r="L129" s="26" t="n"/>
+      <c r="L129" s="26" t="inlineStr">
+        <is>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+        </is>
+      </c>
       <c r="M129" s="26" t="n"/>
       <c r="N129" s="26" t="n"/>
       <c r="O129" s="26" t="n"/>
       <c r="P129" s="26" t="n"/>
     </row>
     <row r="130" ht="16.5" customHeight="1" s="13">
-      <c r="A130" s="22" t="n"/>
-      <c r="B130" s="22" t="n"/>
-      <c r="C130" s="22" t="n"/>
+      <c r="A130" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B130" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C130" s="22" t="inlineStr">
+        <is>
+          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
+        </is>
+      </c>
       <c r="D130" s="22" t="n"/>
-      <c r="E130" s="22" t="n"/>
+      <c r="E130" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G130" s="22" t="n"/>
-      <c r="H130" s="16" t="n"/>
+      <c r="H130" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
-      <c r="L130" s="26" t="n"/>
+      <c r="L130" s="26" t="inlineStr">
+        <is>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+        </is>
+      </c>
       <c r="M130" s="26" t="n"/>
       <c r="N130" s="26" t="n"/>
       <c r="O130" s="26" t="n"/>
       <c r="P130" s="26" t="n"/>
     </row>
     <row r="131" ht="16.5" customHeight="1" s="13">
-      <c r="A131" s="22" t="n"/>
-      <c r="B131" s="22" t="n"/>
-      <c r="C131" s="22" t="n"/>
+      <c r="A131" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B131" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C131" s="22" t="inlineStr">
+        <is>
+          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
+        </is>
+      </c>
       <c r="D131" s="22" t="n"/>
-      <c r="E131" s="22" t="n"/>
+      <c r="E131" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G131" s="22" t="n"/>
-      <c r="H131" s="16" t="n"/>
+      <c r="H131" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+        </is>
+      </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
-      <c r="L131" s="26" t="n"/>
+      <c r="L131" s="26" t="inlineStr">
+        <is>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+        </is>
+      </c>
       <c r="M131" s="26" t="n"/>
       <c r="N131" s="26" t="n"/>
       <c r="O131" s="26" t="n"/>
       <c r="P131" s="26" t="n"/>
     </row>
     <row r="132" ht="16.5" customHeight="1" s="13">
-      <c r="A132" s="22" t="n"/>
-      <c r="B132" s="22" t="n"/>
-      <c r="C132" s="22" t="n"/>
+      <c r="A132" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B132" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C132" s="22" t="inlineStr">
+        <is>
+          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
+        </is>
+      </c>
       <c r="D132" s="22" t="n"/>
-      <c r="E132" s="22" t="n"/>
+      <c r="E132" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G132" s="22" t="n"/>
-      <c r="H132" s="16" t="n"/>
+      <c r="H132" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+        </is>
+      </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
-      <c r="L132" s="26" t="n"/>
+      <c r="L132" s="26" t="inlineStr">
+        <is>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+        </is>
+      </c>
       <c r="M132" s="26" t="n"/>
       <c r="N132" s="26" t="n"/>
       <c r="O132" s="26" t="n"/>
       <c r="P132" s="26" t="n"/>
     </row>
     <row r="133" ht="16.5" customHeight="1" s="13">
-      <c r="A133" s="22" t="n"/>
-      <c r="B133" s="22" t="n"/>
-      <c r="C133" s="22" t="n"/>
+      <c r="A133" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B133" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C133" s="22" t="inlineStr">
+        <is>
+          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
+        </is>
+      </c>
       <c r="D133" s="22" t="n"/>
-      <c r="E133" s="22" t="n"/>
+      <c r="E133" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G133" s="22" t="n"/>
-      <c r="H133" s="16" t="n"/>
+      <c r="H133" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+        </is>
+      </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
-      <c r="L133" s="26" t="n"/>
+      <c r="L133" s="26" t="inlineStr">
+        <is>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+        </is>
+      </c>
       <c r="M133" s="26" t="n"/>
       <c r="N133" s="26" t="n"/>
       <c r="O133" s="26" t="n"/>
       <c r="P133" s="26" t="n"/>
     </row>
     <row r="134" ht="16.5" customHeight="1" s="13">
-      <c r="A134" s="22" t="n"/>
-      <c r="B134" s="22" t="n"/>
-      <c r="C134" s="22" t="n"/>
+      <c r="A134" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B134" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C134" s="22" t="inlineStr">
+        <is>
+          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
+        </is>
+      </c>
       <c r="D134" s="22" t="n"/>
-      <c r="E134" s="22" t="n"/>
+      <c r="E134" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G134" s="22" t="n"/>
-      <c r="H134" s="16" t="n"/>
+      <c r="H134" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
-      <c r="L134" s="26" t="n"/>
+      <c r="L134" s="26" t="inlineStr">
+        <is>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+        </is>
+      </c>
       <c r="M134" s="26" t="n"/>
       <c r="N134" s="26" t="n"/>
       <c r="O134" s="26" t="n"/>
       <c r="P134" s="26" t="n"/>
     </row>
     <row r="135" ht="16.5" customHeight="1" s="13">
-      <c r="A135" s="22" t="n"/>
-      <c r="B135" s="22" t="n"/>
-      <c r="C135" s="22" t="n"/>
+      <c r="A135" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B135" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C135" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure Monitor Logs for insights and reporting.</t>
+        </is>
+      </c>
       <c r="D135" s="22" t="n"/>
-      <c r="E135" s="22" t="n"/>
+      <c r="E135" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G135" s="22" t="n"/>
-      <c r="H135" s="16" t="n"/>
+      <c r="H135" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+        </is>
+      </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
-      <c r="L135" s="26" t="n"/>
+      <c r="L135" s="26" t="inlineStr">
+        <is>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+        </is>
+      </c>
       <c r="M135" s="26" t="n"/>
       <c r="N135" s="26" t="n"/>
       <c r="O135" s="26" t="n"/>
       <c r="P135" s="26" t="n"/>
     </row>
     <row r="136" ht="16.5" customHeight="1" s="13">
-      <c r="A136" s="22" t="n"/>
-      <c r="B136" s="22" t="n"/>
-      <c r="C136" s="22" t="n"/>
+      <c r="A136" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B136" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C136" s="22" t="inlineStr">
+        <is>
+          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
+        </is>
+      </c>
       <c r="D136" s="22" t="n"/>
-      <c r="E136" s="22" t="n"/>
+      <c r="E136" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G136" s="22" t="n"/>
-      <c r="H136" s="16" t="n"/>
+      <c r="H136" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+        </is>
+      </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
-      <c r="L136" s="26" t="n"/>
+      <c r="L136" s="26" t="inlineStr">
+        <is>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+        </is>
+      </c>
       <c r="M136" s="26" t="n"/>
       <c r="N136" s="26" t="n"/>
       <c r="O136" s="26" t="n"/>
       <c r="P136" s="26" t="n"/>
     </row>
     <row r="137" ht="16.5" customHeight="1" s="13">
-      <c r="A137" s="22" t="n"/>
-      <c r="B137" s="22" t="n"/>
-      <c r="C137" s="22" t="n"/>
+      <c r="A137" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B137" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C137" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
+        </is>
+      </c>
       <c r="D137" s="22" t="n"/>
-      <c r="E137" s="22" t="n"/>
+      <c r="E137" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G137" s="22" t="n"/>
-      <c r="H137" s="16" t="n"/>
+      <c r="H137" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+        </is>
+      </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
-      <c r="L137" s="26" t="n"/>
+      <c r="L137" s="26" t="inlineStr">
+        <is>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+        </is>
+      </c>
       <c r="M137" s="26" t="n"/>
       <c r="N137" s="26" t="n"/>
       <c r="O137" s="26" t="n"/>
       <c r="P137" s="26" t="n"/>
     </row>
     <row r="138" ht="16.5" customHeight="1" s="13">
-      <c r="A138" s="22" t="n"/>
-      <c r="B138" s="22" t="n"/>
-      <c r="C138" s="22" t="n"/>
+      <c r="A138" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B138" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C138" s="22" t="inlineStr">
+        <is>
+          <t>Employ Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
+        </is>
+      </c>
       <c r="D138" s="22" t="n"/>
-      <c r="E138" s="22" t="n"/>
+      <c r="E138" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G138" s="22" t="n"/>
-      <c r="H138" s="16" t="n"/>
+      <c r="H138" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+        </is>
+      </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
-      <c r="L138" s="26" t="n"/>
+      <c r="L138" s="26" t="inlineStr">
+        <is>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+        </is>
+      </c>
       <c r="M138" s="26" t="n"/>
       <c r="N138" s="26" t="n"/>
       <c r="O138" s="26" t="n"/>
       <c r="P138" s="26" t="n"/>
     </row>
     <row r="139" ht="16.5" customHeight="1" s="13">
-      <c r="A139" s="22" t="n"/>
-      <c r="B139" s="22" t="n"/>
-      <c r="C139" s="22" t="n"/>
+      <c r="A139" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B139" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C139" s="22" t="inlineStr">
+        <is>
+          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
+        </is>
+      </c>
       <c r="D139" s="22" t="n"/>
-      <c r="E139" s="22" t="n"/>
+      <c r="E139" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G139" s="22" t="n"/>
-      <c r="H139" s="16" t="n"/>
+      <c r="H139" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+        </is>
+      </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
-      <c r="L139" s="26" t="n"/>
+      <c r="L139" s="26" t="inlineStr">
+        <is>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+        </is>
+      </c>
       <c r="M139" s="26" t="n"/>
       <c r="N139" s="26" t="n"/>
       <c r="O139" s="26" t="n"/>
       <c r="P139" s="26" t="n"/>
     </row>
     <row r="140" ht="16.5" customHeight="1" s="13">
-      <c r="A140" s="22" t="n"/>
-      <c r="B140" s="22" t="n"/>
-      <c r="C140" s="22" t="n"/>
+      <c r="A140" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B140" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C140" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
+        </is>
+      </c>
       <c r="D140" s="22" t="n"/>
-      <c r="E140" s="22" t="n"/>
+      <c r="E140" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G140" s="22" t="n"/>
-      <c r="H140" s="16" t="n"/>
+      <c r="H140" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
+        </is>
+      </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
-      <c r="L140" s="26" t="n"/>
+      <c r="L140" s="26" t="inlineStr">
+        <is>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+        </is>
+      </c>
       <c r="M140" s="26" t="n"/>
       <c r="N140" s="26" t="n"/>
       <c r="O140" s="26" t="n"/>
       <c r="P140" s="26" t="n"/>
     </row>
     <row r="141" ht="16.5" customHeight="1" s="13">
-      <c r="A141" s="22" t="n"/>
-      <c r="B141" s="22" t="n"/>
-      <c r="C141" s="22" t="n"/>
+      <c r="A141" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B141" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C141" s="22" t="inlineStr">
+        <is>
+          <t>Ensure that monitoring requirements have been assessed and that appropriate data collection and alerting configurations are applied</t>
+        </is>
+      </c>
       <c r="D141" s="22" t="n"/>
-      <c r="E141" s="22" t="n"/>
+      <c r="E141" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G141" s="22" t="n"/>
-      <c r="H141" s="16" t="n"/>
+      <c r="H141" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/architecture/best-practices/monitoring</t>
+        </is>
+      </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
-      <c r="L141" s="26" t="n"/>
+      <c r="L141" s="26" t="inlineStr">
+        <is>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+        </is>
+      </c>
       <c r="M141" s="26" t="n"/>
       <c r="N141" s="26" t="n"/>
       <c r="O141" s="26" t="n"/>
       <c r="P141" s="26" t="n"/>
     </row>
     <row r="142" ht="16.5" customHeight="1" s="13">
-      <c r="A142" s="22" t="n"/>
-      <c r="B142" s="22" t="n"/>
-      <c r="C142" s="22" t="n"/>
+      <c r="A142" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B142" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C142" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
+        </is>
+      </c>
       <c r="D142" s="22" t="n"/>
-      <c r="E142" s="22" t="n"/>
+      <c r="E142" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G142" s="22" t="n"/>
-      <c r="H142" s="16" t="n"/>
+      <c r="H142" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+        </is>
+      </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
-      <c r="L142" s="26" t="n"/>
+      <c r="L142" s="26" t="inlineStr">
+        <is>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+        </is>
+      </c>
       <c r="M142" s="26" t="n"/>
       <c r="N142" s="26" t="n"/>
       <c r="O142" s="26" t="n"/>
       <c r="P142" s="26" t="n"/>
     </row>
     <row r="143" ht="16.5" customHeight="1" s="13">
-      <c r="A143" s="22" t="n"/>
-      <c r="B143" s="22" t="n"/>
-      <c r="C143" s="22" t="n"/>
+      <c r="A143" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B143" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C143" s="22" t="inlineStr">
+        <is>
+          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
+        </is>
+      </c>
       <c r="D143" s="22" t="n"/>
-      <c r="E143" s="22" t="n"/>
+      <c r="E143" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G143" s="22" t="n"/>
-      <c r="H143" s="16" t="n"/>
+      <c r="H143" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+        </is>
+      </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
-      <c r="L143" s="26" t="n"/>
+      <c r="L143" s="26" t="inlineStr">
+        <is>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+        </is>
+      </c>
       <c r="M143" s="26" t="n"/>
       <c r="N143" s="26" t="n"/>
       <c r="O143" s="26" t="n"/>
       <c r="P143" s="26" t="n"/>
     </row>
     <row r="144" ht="16.5" customHeight="1" s="13">
-      <c r="A144" s="22" t="n"/>
-      <c r="B144" s="22" t="n"/>
-      <c r="C144" s="22" t="n"/>
+      <c r="A144" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B144" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C144" s="22" t="inlineStr">
+        <is>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+        </is>
+      </c>
       <c r="D144" s="22" t="n"/>
-      <c r="E144" s="22" t="n"/>
+      <c r="E144" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G144" s="22" t="n"/>
-      <c r="H144" s="16" t="n"/>
+      <c r="H144" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J144" s="23" t="n"/>
       <c r="K144" s="23" t="n"/>
-      <c r="L144" s="26" t="n"/>
+      <c r="L144" s="26" t="inlineStr">
+        <is>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+        </is>
+      </c>
       <c r="M144" s="26" t="n"/>
       <c r="N144" s="26" t="n"/>
       <c r="O144" s="26" t="n"/>
       <c r="P144" s="26" t="n"/>
     </row>
     <row r="145" ht="16.5" customHeight="1" s="13">
-      <c r="A145" s="22" t="n"/>
-      <c r="B145" s="22" t="n"/>
-      <c r="C145" s="22" t="n"/>
+      <c r="A145" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B145" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C145" s="22" t="inlineStr">
+        <is>
+          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
+        </is>
+      </c>
       <c r="D145" s="22" t="n"/>
-      <c r="E145" s="22" t="n"/>
+      <c r="E145" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G145" s="22" t="n"/>
-      <c r="H145" s="16" t="n"/>
+      <c r="H145" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J145" s="23" t="n"/>
       <c r="K145" s="23" t="n"/>
-      <c r="L145" s="26" t="n"/>
+      <c r="L145" s="26" t="inlineStr">
+        <is>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+        </is>
+      </c>
       <c r="M145" s="26" t="n"/>
       <c r="N145" s="26" t="n"/>
       <c r="O145" s="26" t="n"/>
       <c r="P145" s="26" t="n"/>
     </row>
     <row r="146" ht="16.5" customHeight="1" s="13">
-      <c r="A146" s="22" t="n"/>
-      <c r="B146" s="22" t="n"/>
-      <c r="C146" s="22" t="n"/>
+      <c r="A146" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B146" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C146" s="22" t="inlineStr">
+        <is>
+          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
+        </is>
+      </c>
       <c r="D146" s="22" t="n"/>
-      <c r="E146" s="22" t="n"/>
+      <c r="E146" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G146" s="22" t="n"/>
-      <c r="H146" s="16" t="n"/>
+      <c r="H146" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J146" s="23" t="n"/>
       <c r="K146" s="23" t="n"/>
-      <c r="L146" s="26" t="n"/>
+      <c r="L146" s="26" t="inlineStr">
+        <is>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+        </is>
+      </c>
       <c r="M146" s="26" t="n"/>
       <c r="N146" s="26" t="n"/>
       <c r="O146" s="26" t="n"/>
       <c r="P146" s="26" t="n"/>
     </row>
     <row r="147" ht="16.5" customHeight="1" s="13">
-      <c r="A147" s="22" t="n"/>
-      <c r="B147" s="22" t="n"/>
-      <c r="C147" s="22" t="n"/>
+      <c r="A147" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B147" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C147" s="22" t="inlineStr">
+        <is>
+          <t>Establish an automated process for key and certificate rotation.</t>
+        </is>
+      </c>
       <c r="D147" s="22" t="n"/>
-      <c r="E147" s="22" t="n"/>
+      <c r="E147" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G147" s="22" t="n"/>
-      <c r="H147" s="16" t="n"/>
+      <c r="H147" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
-      <c r="L147" s="26" t="n"/>
+      <c r="L147" s="26" t="inlineStr">
+        <is>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+        </is>
+      </c>
       <c r="M147" s="26" t="n"/>
       <c r="N147" s="26" t="n"/>
       <c r="O147" s="26" t="n"/>
       <c r="P147" s="26" t="n"/>
     </row>
     <row r="148" ht="16.5" customHeight="1" s="13">
-      <c r="A148" s="22" t="n"/>
-      <c r="B148" s="22" t="n"/>
-      <c r="C148" s="22" t="n"/>
+      <c r="A148" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B148" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C148" s="22" t="inlineStr">
+        <is>
+          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
+        </is>
+      </c>
       <c r="D148" s="22" t="n"/>
-      <c r="E148" s="22" t="n"/>
+      <c r="E148" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G148" s="22" t="n"/>
-      <c r="H148" s="16" t="n"/>
+      <c r="H148" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
-      <c r="L148" s="26" t="n"/>
+      <c r="L148" s="26" t="inlineStr">
+        <is>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+        </is>
+      </c>
       <c r="M148" s="26" t="n"/>
       <c r="N148" s="26" t="n"/>
       <c r="O148" s="26" t="n"/>
       <c r="P148" s="26" t="n"/>
     </row>
     <row r="149" ht="16.5" customHeight="1" s="13">
-      <c r="A149" s="22" t="n"/>
-      <c r="B149" s="22" t="n"/>
-      <c r="C149" s="22" t="n"/>
+      <c r="A149" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B149" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C149" s="22" t="inlineStr">
+        <is>
+          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
+        </is>
+      </c>
       <c r="D149" s="22" t="n"/>
-      <c r="E149" s="22" t="n"/>
+      <c r="E149" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G149" s="22" t="n"/>
-      <c r="H149" s="16" t="n"/>
+      <c r="H149" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+        </is>
+      </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
-      <c r="L149" s="26" t="n"/>
+      <c r="L149" s="26" t="inlineStr">
+        <is>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+        </is>
+      </c>
       <c r="M149" s="26" t="n"/>
       <c r="N149" s="26" t="n"/>
       <c r="O149" s="26" t="n"/>
       <c r="P149" s="26" t="n"/>
     </row>
     <row r="150" ht="16.5" customHeight="1" s="13">
-      <c r="A150" s="22" t="n"/>
-      <c r="B150" s="22" t="n"/>
-      <c r="C150" s="22" t="n"/>
+      <c r="A150" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B150" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C150" s="22" t="inlineStr">
+        <is>
+          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
+        </is>
+      </c>
       <c r="D150" s="22" t="n"/>
-      <c r="E150" s="22" t="n"/>
+      <c r="E150" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G150" s="22" t="n"/>
-      <c r="H150" s="16" t="n"/>
+      <c r="H150" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J150" s="23" t="n"/>
       <c r="K150" s="23" t="n"/>
-      <c r="L150" s="26" t="n"/>
+      <c r="L150" s="26" t="inlineStr">
+        <is>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+        </is>
+      </c>
       <c r="M150" s="26" t="n"/>
       <c r="N150" s="26" t="n"/>
       <c r="O150" s="26" t="n"/>
       <c r="P150" s="26" t="n"/>
     </row>
     <row r="151" ht="16.5" customHeight="1" s="13">
-      <c r="A151" s="22" t="n"/>
-      <c r="B151" s="22" t="n"/>
-      <c r="C151" s="22" t="n"/>
+      <c r="A151" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B151" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C151" s="22" t="inlineStr">
+        <is>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+        </is>
+      </c>
       <c r="D151" s="22" t="n"/>
-      <c r="E151" s="22" t="n"/>
+      <c r="E151" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G151" s="22" t="n"/>
-      <c r="H151" s="16" t="n"/>
+      <c r="H151" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+        </is>
+      </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
-      <c r="L151" s="26" t="n"/>
+      <c r="L151" s="26" t="inlineStr">
+        <is>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+        </is>
+      </c>
       <c r="M151" s="26" t="n"/>
       <c r="N151" s="26" t="n"/>
       <c r="O151" s="26" t="n"/>
       <c r="P151" s="26" t="n"/>
     </row>
     <row r="152" ht="16.5" customHeight="1" s="13">
-      <c r="A152" s="22" t="n"/>
-      <c r="B152" s="22" t="n"/>
-      <c r="C152" s="22" t="n"/>
+      <c r="A152" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B152" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C152" s="22" t="inlineStr">
+        <is>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
+        </is>
+      </c>
       <c r="D152" s="22" t="n"/>
-      <c r="E152" s="22" t="n"/>
+      <c r="E152" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G152" s="22" t="n"/>
-      <c r="H152" s="16" t="n"/>
+      <c r="H152" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
-      <c r="L152" s="26" t="n"/>
+      <c r="L152" s="26" t="inlineStr">
+        <is>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+        </is>
+      </c>
       <c r="M152" s="26" t="n"/>
       <c r="N152" s="26" t="n"/>
       <c r="O152" s="26" t="n"/>
       <c r="P152" s="26" t="n"/>
     </row>
     <row r="153" ht="16.5" customHeight="1" s="13">
-      <c r="A153" s="22" t="n"/>
-      <c r="B153" s="22" t="n"/>
-      <c r="C153" s="22" t="n"/>
+      <c r="A153" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B153" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C153" s="22" t="inlineStr">
+        <is>
+          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
+        </is>
+      </c>
       <c r="D153" s="22" t="n"/>
-      <c r="E153" s="22" t="n"/>
+      <c r="E153" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G153" s="22" t="n"/>
-      <c r="H153" s="16" t="n"/>
+      <c r="H153" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
-      <c r="L153" s="26" t="n"/>
+      <c r="L153" s="26" t="inlineStr">
+        <is>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+        </is>
+      </c>
       <c r="M153" s="26" t="n"/>
       <c r="N153" s="26" t="n"/>
       <c r="O153" s="26" t="n"/>
       <c r="P153" s="26" t="n"/>
     </row>
     <row r="154" ht="16.5" customHeight="1" s="13">
-      <c r="A154" s="22" t="n"/>
-      <c r="B154" s="22" t="n"/>
-      <c r="C154" s="22" t="n"/>
+      <c r="A154" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B154" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C154" s="22" t="inlineStr">
+        <is>
+          <t>Leverage Azure Policy</t>
+        </is>
+      </c>
       <c r="D154" s="22" t="n"/>
-      <c r="E154" s="22" t="n"/>
+      <c r="E154" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G154" s="22" t="n"/>
-      <c r="H154" s="16" t="n"/>
+      <c r="H154" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J154" s="23" t="n"/>
       <c r="K154" s="23" t="n"/>
-      <c r="L154" s="26" t="n"/>
+      <c r="L154" s="26" t="inlineStr">
+        <is>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+        </is>
+      </c>
       <c r="M154" s="26" t="n"/>
       <c r="N154" s="26" t="n"/>
       <c r="O154" s="26" t="n"/>
       <c r="P154" s="26" t="n"/>
     </row>
     <row r="155" ht="16.5" customHeight="1" s="13">
-      <c r="A155" s="22" t="n"/>
-      <c r="B155" s="22" t="n"/>
-      <c r="C155" s="22" t="n"/>
+      <c r="A155" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B155" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C155" s="22" t="inlineStr">
+        <is>
+          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
+        </is>
+      </c>
       <c r="D155" s="22" t="n"/>
-      <c r="E155" s="22" t="n"/>
+      <c r="E155" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G155" s="22" t="n"/>
-      <c r="H155" s="16" t="n"/>
+      <c r="H155" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+        </is>
+      </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
-      <c r="L155" s="26" t="n"/>
+      <c r="L155" s="26" t="inlineStr">
+        <is>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+        </is>
+      </c>
       <c r="M155" s="26" t="n"/>
       <c r="N155" s="26" t="n"/>
       <c r="O155" s="26" t="n"/>
       <c r="P155" s="26" t="n"/>
     </row>
     <row r="156" ht="16.5" customHeight="1" s="13">
-      <c r="A156" s="22" t="n"/>
-      <c r="B156" s="22" t="n"/>
-      <c r="C156" s="22" t="n"/>
+      <c r="A156" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B156" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C156" s="22" t="inlineStr">
+        <is>
+          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
+        </is>
+      </c>
       <c r="D156" s="22" t="n"/>
-      <c r="E156" s="22" t="n"/>
+      <c r="E156" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G156" s="22" t="n"/>
-      <c r="H156" s="16" t="n"/>
+      <c r="H156" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J156" s="23" t="n"/>
       <c r="K156" s="23" t="n"/>
-      <c r="L156" s="26" t="n"/>
+      <c r="L156" s="26" t="inlineStr">
+        <is>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+        </is>
+      </c>
       <c r="M156" s="26" t="n"/>
       <c r="N156" s="26" t="n"/>
       <c r="O156" s="26" t="n"/>
       <c r="P156" s="26" t="n"/>
     </row>
     <row r="157" ht="16.5" customHeight="1" s="13">
-      <c r="A157" s="22" t="n"/>
-      <c r="B157" s="22" t="n"/>
-      <c r="C157" s="22" t="n"/>
+      <c r="A157" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B157" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C157" s="22" t="inlineStr">
+        <is>
+          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
+        </is>
+      </c>
       <c r="D157" s="22" t="n"/>
-      <c r="E157" s="22" t="n"/>
+      <c r="E157" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G157" s="22" t="n"/>
-      <c r="H157" s="16" t="n"/>
+      <c r="H157" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J157" s="23" t="n"/>
       <c r="K157" s="23" t="n"/>
-      <c r="L157" s="26" t="n"/>
+      <c r="L157" s="26" t="inlineStr">
+        <is>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+        </is>
+      </c>
       <c r="M157" s="26" t="n"/>
       <c r="N157" s="26" t="n"/>
       <c r="O157" s="26" t="n"/>
       <c r="P157" s="26" t="n"/>
     </row>
     <row r="158" ht="16.5" customHeight="1" s="13">
-      <c r="A158" s="22" t="n"/>
-      <c r="B158" s="22" t="n"/>
-      <c r="C158" s="22" t="n"/>
+      <c r="A158" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B158" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C158" s="22" t="inlineStr">
+        <is>
+          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
+        </is>
+      </c>
       <c r="D158" s="22" t="n"/>
-      <c r="E158" s="22" t="n"/>
+      <c r="E158" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G158" s="22" t="n"/>
-      <c r="H158" s="16" t="n"/>
+      <c r="H158" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J158" s="23" t="n"/>
       <c r="K158" s="23" t="n"/>
-      <c r="L158" s="26" t="n"/>
+      <c r="L158" s="26" t="inlineStr">
+        <is>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+        </is>
+      </c>
       <c r="M158" s="26" t="n"/>
       <c r="N158" s="26" t="n"/>
       <c r="O158" s="26" t="n"/>
       <c r="P158" s="26" t="n"/>
     </row>
     <row r="159" ht="16.5" customHeight="1" s="13">
-      <c r="A159" s="22" t="n"/>
-      <c r="B159" s="22" t="n"/>
-      <c r="C159" s="22" t="n"/>
+      <c r="A159" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B159" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C159" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
+        </is>
+      </c>
       <c r="D159" s="22" t="n"/>
-      <c r="E159" s="22" t="n"/>
+      <c r="E159" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G159" s="22" t="n"/>
-      <c r="H159" s="16" t="n"/>
+      <c r="H159" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J159" s="23" t="n"/>
       <c r="K159" s="23" t="n"/>
-      <c r="L159" s="26" t="n"/>
+      <c r="L159" s="26" t="inlineStr">
+        <is>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
+        </is>
+      </c>
       <c r="M159" s="26" t="n"/>
       <c r="N159" s="26" t="n"/>
       <c r="O159" s="26" t="n"/>
       <c r="P159" s="26" t="n"/>
     </row>
     <row r="160" ht="16.5" customHeight="1" s="13">
-      <c r="A160" s="22" t="n"/>
-      <c r="B160" s="22" t="n"/>
-      <c r="C160" s="22" t="n"/>
+      <c r="A160" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B160" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C160" s="22" t="inlineStr">
+        <is>
+          <t>Use built-in policies where possible to minimize operational overhead.</t>
+        </is>
+      </c>
       <c r="D160" s="22" t="n"/>
-      <c r="E160" s="22" t="n"/>
+      <c r="E160" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G160" s="22" t="n"/>
-      <c r="H160" s="16" t="n"/>
+      <c r="H160" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J160" s="23" t="n"/>
       <c r="K160" s="24" t="n"/>
-      <c r="L160" s="26" t="n"/>
+      <c r="L160" s="26" t="inlineStr">
+        <is>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+        </is>
+      </c>
       <c r="M160" s="26" t="n"/>
       <c r="N160" s="26" t="n"/>
       <c r="O160" s="26" t="n"/>
       <c r="P160" s="26" t="n"/>
     </row>
     <row r="161" ht="16.5" customHeight="1" s="13">
-      <c r="A161" s="22" t="n"/>
-      <c r="B161" s="22" t="n"/>
-      <c r="C161" s="22" t="n"/>
+      <c r="A161" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B161" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C161" s="22" t="inlineStr">
+        <is>
+          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
+        </is>
+      </c>
       <c r="D161" s="22" t="n"/>
-      <c r="E161" s="22" t="n"/>
+      <c r="E161" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G161" s="22" t="n"/>
-      <c r="H161" s="16" t="n"/>
+      <c r="H161" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
-      <c r="L161" s="26" t="n"/>
+      <c r="L161" s="26" t="inlineStr">
+        <is>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+        </is>
+      </c>
       <c r="M161" s="26" t="n"/>
       <c r="N161" s="26" t="n"/>
       <c r="O161" s="26" t="n"/>
       <c r="P161" s="26" t="n"/>
     </row>
     <row r="162" ht="16.5" customHeight="1" s="13">
-      <c r="A162" s="22" t="n"/>
-      <c r="B162" s="22" t="n"/>
-      <c r="C162" s="22" t="n"/>
+      <c r="A162" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B162" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C162" s="22" t="inlineStr">
+        <is>
+          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
+        </is>
+      </c>
       <c r="D162" s="22" t="n"/>
-      <c r="E162" s="22" t="n"/>
+      <c r="E162" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G162" s="22" t="n"/>
-      <c r="H162" s="16" t="n"/>
+      <c r="H162" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
-      <c r="L162" s="26" t="n"/>
+      <c r="L162" s="26" t="inlineStr">
+        <is>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+        </is>
+      </c>
       <c r="M162" s="26" t="n"/>
       <c r="N162" s="26" t="n"/>
       <c r="O162" s="26" t="n"/>
       <c r="P162" s="26" t="n"/>
     </row>
     <row r="163" ht="16.5" customHeight="1" s="13">
-      <c r="A163" s="22" t="n"/>
-      <c r="B163" s="22" t="n"/>
-      <c r="C163" s="22" t="n"/>
+      <c r="A163" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B163" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C163" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
+        </is>
+      </c>
       <c r="D163" s="22" t="n"/>
-      <c r="E163" s="22" t="n"/>
+      <c r="E163" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G163" s="22" t="n"/>
-      <c r="H163" s="16" t="n"/>
+      <c r="H163" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+        </is>
+      </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
-      <c r="L163" s="26" t="n"/>
+      <c r="L163" s="26" t="inlineStr">
+        <is>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+        </is>
+      </c>
       <c r="M163" s="26" t="n"/>
       <c r="N163" s="26" t="n"/>
       <c r="O163" s="26" t="n"/>
       <c r="P163" s="26" t="n"/>
     </row>
     <row r="164" ht="16.5" customHeight="1" s="13">
-      <c r="A164" s="22" t="n"/>
-      <c r="B164" s="22" t="n"/>
-      <c r="C164" s="22" t="n"/>
+      <c r="A164" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B164" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C164" s="22" t="inlineStr">
+        <is>
+          <t>Monitor VM security configuration drift via Azure Policy.</t>
+        </is>
+      </c>
       <c r="D164" s="22" t="n"/>
-      <c r="E164" s="22" t="n"/>
+      <c r="E164" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G164" s="22" t="n"/>
-      <c r="H164" s="16" t="n"/>
+      <c r="H164" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+        </is>
+      </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
-      <c r="L164" s="26" t="n"/>
+      <c r="L164" s="26" t="inlineStr">
+        <is>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+        </is>
+      </c>
       <c r="M164" s="26" t="n"/>
       <c r="N164" s="26" t="n"/>
       <c r="O164" s="26" t="n"/>
       <c r="P164" s="26" t="n"/>
     </row>
     <row r="165" ht="16.5" customHeight="1" s="13">
-      <c r="A165" s="22" t="n"/>
-      <c r="B165" s="22" t="n"/>
-      <c r="C165" s="22" t="n"/>
+      <c r="A165" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B165" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C165" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
+        </is>
+      </c>
       <c r="D165" s="22" t="n"/>
-      <c r="E165" s="22" t="n"/>
+      <c r="E165" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G165" s="22" t="n"/>
-      <c r="H165" s="16" t="n"/>
+      <c r="H165" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+        </is>
+      </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
-      <c r="L165" s="26" t="n"/>
+      <c r="L165" s="26" t="inlineStr">
+        <is>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+        </is>
+      </c>
       <c r="M165" s="26" t="n"/>
       <c r="N165" s="26" t="n"/>
       <c r="O165" s="26" t="n"/>
       <c r="P165" s="26" t="n"/>
     </row>
     <row r="166" ht="16.5" customHeight="1" s="13">
-      <c r="A166" s="22" t="n"/>
-      <c r="B166" s="22" t="n"/>
-      <c r="C166" s="22" t="n"/>
+      <c r="A166" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B166" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C166" s="22" t="inlineStr">
+        <is>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
+        </is>
+      </c>
       <c r="D166" s="22" t="n"/>
-      <c r="E166" s="22" t="n"/>
+      <c r="E166" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G166" s="22" t="n"/>
-      <c r="H166" s="16" t="n"/>
+      <c r="H166" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+        </is>
+      </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
-      <c r="L166" s="26" t="n"/>
+      <c r="L166" s="26" t="inlineStr">
+        <is>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+        </is>
+      </c>
       <c r="M166" s="26" t="n"/>
       <c r="N166" s="26" t="n"/>
       <c r="O166" s="26" t="n"/>
       <c r="P166" s="26" t="n"/>
     </row>
     <row r="167" ht="16.5" customHeight="1" s="13">
-      <c r="A167" s="22" t="n"/>
-      <c r="B167" s="22" t="n"/>
-      <c r="C167" s="22" t="n"/>
+      <c r="A167" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B167" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C167" s="22" t="inlineStr">
+        <is>
+          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
+        </is>
+      </c>
       <c r="D167" s="22" t="n"/>
-      <c r="E167" s="22" t="n"/>
+      <c r="E167" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G167" s="22" t="n"/>
-      <c r="H167" s="16" t="n"/>
+      <c r="H167" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
+        </is>
+      </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
-      <c r="L167" s="26" t="n"/>
+      <c r="L167" s="26" t="inlineStr">
+        <is>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+        </is>
+      </c>
       <c r="M167" s="26" t="n"/>
       <c r="N167" s="26" t="n"/>
       <c r="O167" s="26" t="n"/>
       <c r="P167" s="26" t="n"/>
     </row>
     <row r="168" ht="16.5" customHeight="1" s="13">
-      <c r="A168" s="22" t="n"/>
-      <c r="B168" s="22" t="n"/>
-      <c r="C168" s="22" t="n"/>
+      <c r="A168" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B168" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C168" s="22" t="inlineStr">
+        <is>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+        </is>
+      </c>
       <c r="D168" s="22" t="n"/>
-      <c r="E168" s="22" t="n"/>
+      <c r="E168" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G168" s="22" t="n"/>
-      <c r="H168" s="16" t="n"/>
+      <c r="H168" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
+        </is>
+      </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
-      <c r="L168" s="26" t="n"/>
+      <c r="L168" s="26" t="inlineStr">
+        <is>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+        </is>
+      </c>
       <c r="M168" s="26" t="n"/>
       <c r="N168" s="26" t="n"/>
       <c r="O168" s="26" t="n"/>
       <c r="P168" s="26" t="n"/>
     </row>
     <row r="169" ht="16.5" customHeight="1" s="13">
-      <c r="A169" s="22" t="n"/>
-      <c r="B169" s="22" t="n"/>
-      <c r="C169" s="22" t="n"/>
+      <c r="A169" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B169" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C169" s="22" t="inlineStr">
+        <is>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+        </is>
+      </c>
       <c r="D169" s="22" t="n"/>
-      <c r="E169" s="22" t="n"/>
+      <c r="E169" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G169" s="22" t="n"/>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
-      <c r="L169" s="26" t="n"/>
+      <c r="L169" s="26" t="inlineStr">
+        <is>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+        </is>
+      </c>
       <c r="M169" s="26" t="n"/>
       <c r="N169" s="26" t="n"/>
       <c r="O169" s="26" t="n"/>
       <c r="P169" s="26" t="n"/>
     </row>
     <row r="170" ht="16.5" customHeight="1" s="13">
-      <c r="A170" s="22" t="n"/>
-      <c r="B170" s="22" t="n"/>
-      <c r="C170" s="22" t="n"/>
+      <c r="A170" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B170" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C170" s="22" t="inlineStr">
+        <is>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+        </is>
+      </c>
       <c r="D170" s="22" t="n"/>
-      <c r="E170" s="22" t="n"/>
+      <c r="E170" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G170" s="22" t="n"/>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J170" s="23" t="n"/>
       <c r="K170" s="23" t="n"/>
-      <c r="L170" s="26" t="n"/>
+      <c r="L170" s="26" t="inlineStr">
+        <is>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+        </is>
+      </c>
       <c r="M170" s="26" t="n"/>
       <c r="N170" s="26" t="n"/>
       <c r="O170" s="26" t="n"/>
       <c r="P170" s="26" t="n"/>
     </row>
     <row r="171" ht="16.5" customHeight="1" s="13">
-      <c r="A171" s="22" t="n"/>
-      <c r="B171" s="22" t="n"/>
-      <c r="C171" s="22" t="n"/>
+      <c r="A171" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B171" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C171" s="22" t="inlineStr">
+        <is>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+        </is>
+      </c>
       <c r="D171" s="22" t="n"/>
-      <c r="E171" s="22" t="n"/>
+      <c r="E171" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G171" s="22" t="n"/>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
+        </is>
+      </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
-      <c r="L171" s="26" t="n"/>
+      <c r="L171" s="26" t="inlineStr">
+        <is>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+        </is>
+      </c>
       <c r="M171" s="26" t="n"/>
       <c r="N171" s="26" t="n"/>
       <c r="O171" s="26" t="n"/>
       <c r="P171" s="26" t="n"/>
     </row>
     <row r="172" ht="16.5" customHeight="1" s="13">
-      <c r="A172" s="22" t="n"/>
-      <c r="B172" s="22" t="n"/>
-      <c r="C172" s="22" t="n"/>
+      <c r="A172" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B172" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C172" s="22" t="inlineStr">
+        <is>
+          <t>Plan how new azure services will be implemented</t>
+        </is>
+      </c>
       <c r="D172" s="22" t="n"/>
-      <c r="E172" s="22" t="n"/>
+      <c r="E172" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G172" s="22" t="n"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
-      <c r="L172" s="26" t="n"/>
+      <c r="L172" s="26" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M172" s="26" t="n"/>
       <c r="N172" s="26" t="n"/>
       <c r="O172" s="26" t="n"/>
       <c r="P172" s="26" t="n"/>
     </row>
     <row r="173" ht="16.5" customHeight="1" s="13">
-      <c r="A173" s="22" t="n"/>
-      <c r="B173" s="22" t="n"/>
-      <c r="C173" s="22" t="n"/>
+      <c r="A173" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B173" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C173" s="22" t="inlineStr">
+        <is>
+          <t>Plan how service request will be fulfilled for Azure services</t>
+        </is>
+      </c>
       <c r="D173" s="22" t="n"/>
-      <c r="E173" s="22" t="n"/>
+      <c r="E173" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G173" s="22" t="n"/>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
-      <c r="L173" s="26" t="n"/>
+      <c r="L173" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M173" s="26" t="n"/>
       <c r="N173" s="26" t="n"/>
       <c r="O173" s="26" t="n"/>
       <c r="P173" s="26" t="n"/>
     </row>
     <row r="174" ht="16.5" customHeight="1" s="13">
-      <c r="A174" s="22" t="n"/>
-      <c r="B174" s="22" t="n"/>
-      <c r="C174" s="22" t="n"/>
+      <c r="A174" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B174" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C174" s="22" t="inlineStr">
+        <is>
+          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
+        </is>
+      </c>
       <c r="D174" s="22" t="n"/>
-      <c r="E174" s="22" t="n"/>
+      <c r="E174" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G174" s="22" t="n"/>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+        </is>
+      </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
-      <c r="L174" s="26" t="n"/>
+      <c r="L174" s="26" t="inlineStr">
+        <is>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+        </is>
+      </c>
       <c r="M174" s="26" t="n"/>
       <c r="N174" s="26" t="n"/>
       <c r="O174" s="26" t="n"/>
       <c r="P174" s="26" t="n"/>
     </row>
     <row r="175" ht="16.5" customHeight="1" s="13">
-      <c r="A175" s="22" t="n"/>
-      <c r="B175" s="22" t="n"/>
-      <c r="C175" s="22" t="n"/>
+      <c r="A175" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B175" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C175" s="22" t="inlineStr">
+        <is>
+          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
+        </is>
+      </c>
       <c r="D175" s="22" t="n"/>
-      <c r="E175" s="22" t="n"/>
+      <c r="E175" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G175" s="22" t="n"/>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+        </is>
+      </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
-      <c r="L175" s="26" t="n"/>
+      <c r="L175" s="26" t="inlineStr">
+        <is>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+        </is>
+      </c>
       <c r="M175" s="26" t="n"/>
       <c r="N175" s="26" t="n"/>
       <c r="O175" s="26" t="n"/>
       <c r="P175" s="26" t="n"/>
     </row>
     <row r="176" ht="16.5" customHeight="1" s="13">
-      <c r="A176" s="22" t="n"/>
-      <c r="B176" s="22" t="n"/>
-      <c r="C176" s="22" t="n"/>
+      <c r="A176" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B176" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C176" s="22" t="inlineStr">
+        <is>
+          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
+        </is>
+      </c>
       <c r="D176" s="22" t="n"/>
-      <c r="E176" s="22" t="n"/>
+      <c r="E176" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G176" s="22" t="n"/>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+        </is>
+      </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
-      <c r="L176" s="26" t="n"/>
+      <c r="L176" s="26" t="inlineStr">
+        <is>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+        </is>
+      </c>
       <c r="M176" s="26" t="n"/>
       <c r="N176" s="26" t="n"/>
       <c r="O176" s="26" t="n"/>
       <c r="P176" s="26" t="n"/>
     </row>
     <row r="177" ht="16.5" customHeight="1" s="13">
-      <c r="A177" s="22" t="n"/>
-      <c r="B177" s="22" t="n"/>
-      <c r="C177" s="22" t="n"/>
+      <c r="A177" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B177" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C177" s="22" t="inlineStr">
+        <is>
+          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
+        </is>
+      </c>
       <c r="D177" s="22" t="n"/>
-      <c r="E177" s="22" t="n"/>
+      <c r="E177" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G177" s="22" t="n"/>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+        </is>
+      </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
-      <c r="L177" s="26" t="n"/>
+      <c r="L177" s="26" t="inlineStr">
+        <is>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+        </is>
+      </c>
       <c r="M177" s="26" t="n"/>
       <c r="N177" s="26" t="n"/>
       <c r="O177" s="26" t="n"/>
       <c r="P177" s="26" t="n"/>
     </row>
     <row r="178" ht="16.5" customHeight="1" s="13">
-      <c r="A178" s="22" t="n"/>
-      <c r="B178" s="22" t="n"/>
-      <c r="C178" s="22" t="n"/>
+      <c r="A178" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B178" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C178" s="22" t="inlineStr">
+        <is>
+          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
+        </is>
+      </c>
       <c r="D178" s="22" t="n"/>
-      <c r="E178" s="22" t="n"/>
+      <c r="E178" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G178" s="22" t="n"/>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+        </is>
+      </c>
       <c r="J178" s="23" t="n"/>
       <c r="K178" s="23" t="n"/>
-      <c r="L178" s="26" t="n"/>
+      <c r="L178" s="26" t="inlineStr">
+        <is>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+        </is>
+      </c>
       <c r="M178" s="26" t="n"/>
       <c r="N178" s="26" t="n"/>
       <c r="O178" s="26" t="n"/>
       <c r="P178" s="26" t="n"/>
     </row>
     <row r="179" ht="16.5" customHeight="1" s="13">
-      <c r="A179" s="22" t="n"/>
-      <c r="B179" s="22" t="n"/>
-      <c r="C179" s="22" t="n"/>
+      <c r="A179" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B179" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C179" s="22" t="inlineStr">
+        <is>
+          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
+        </is>
+      </c>
       <c r="D179" s="22" t="n"/>
-      <c r="E179" s="22" t="n"/>
+      <c r="E179" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G179" s="22" t="n"/>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+        </is>
+      </c>
       <c r="J179" s="23" t="n"/>
       <c r="K179" s="23" t="n"/>
-      <c r="L179" s="26" t="n"/>
+      <c r="L179" s="26" t="inlineStr">
+        <is>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+        </is>
+      </c>
       <c r="M179" s="26" t="n"/>
       <c r="N179" s="26" t="n"/>
       <c r="O179" s="26" t="n"/>
       <c r="P179" s="26" t="n"/>
     </row>
     <row r="180" ht="16.5" customHeight="1" s="13">
-      <c r="A180" s="22" t="n"/>
-      <c r="B180" s="22" t="n"/>
-      <c r="C180" s="22" t="n"/>
+      <c r="A180" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B180" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C180" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
+        </is>
+      </c>
       <c r="D180" s="22" t="n"/>
-      <c r="E180" s="22" t="n"/>
+      <c r="E180" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G180" s="22" t="n"/>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+        </is>
+      </c>
       <c r="J180" s="23" t="n"/>
       <c r="K180" s="23" t="n"/>
-      <c r="L180" s="26" t="n"/>
+      <c r="L180" s="26" t="inlineStr">
+        <is>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+        </is>
+      </c>
       <c r="M180" s="26" t="n"/>
       <c r="N180" s="26" t="n"/>
       <c r="O180" s="26" t="n"/>
       <c r="P180" s="26" t="n"/>
     </row>
     <row r="181" ht="16.5" customHeight="1" s="13">
-      <c r="A181" s="22" t="n"/>
-      <c r="B181" s="22" t="n"/>
-      <c r="C181" s="22" t="n"/>
+      <c r="A181" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B181" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C181" s="22" t="inlineStr">
+        <is>
+          <t>Disable health probes when there’s only one origin in an Azure Front Door origin group.</t>
+        </is>
+      </c>
       <c r="D181" s="22" t="n"/>
-      <c r="E181" s="22" t="n"/>
+      <c r="E181" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G181" s="22" t="n"/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+        </is>
+      </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
-      <c r="L181" s="26" t="n"/>
+      <c r="L181" s="26" t="inlineStr">
+        <is>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+        </is>
+      </c>
       <c r="M181" s="26" t="n"/>
       <c r="N181" s="26" t="n"/>
       <c r="O181" s="26" t="n"/>
       <c r="P181" s="26" t="n"/>
     </row>
     <row r="182" ht="16.5" customHeight="1" s="13">
-      <c r="A182" s="22" t="n"/>
-      <c r="B182" s="22" t="n"/>
-      <c r="C182" s="22" t="n"/>
+      <c r="A182" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B182" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C182" s="22" t="inlineStr">
+        <is>
+          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
+        </is>
+      </c>
       <c r="D182" s="22" t="n"/>
-      <c r="E182" s="22" t="n"/>
+      <c r="E182" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G182" s="22" t="n"/>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+        </is>
+      </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
-      <c r="L182" s="26" t="n"/>
+      <c r="L182" s="26" t="inlineStr">
+        <is>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+        </is>
+      </c>
       <c r="M182" s="26" t="n"/>
       <c r="N182" s="26" t="n"/>
       <c r="O182" s="26" t="n"/>
       <c r="P182" s="26" t="n"/>
     </row>
     <row r="183" ht="16.5" customHeight="1" s="13">
-      <c r="A183" s="22" t="n"/>
-      <c r="B183" s="22" t="n"/>
-      <c r="C183" s="22" t="n"/>
+      <c r="A183" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B183" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C183" s="22" t="inlineStr">
+        <is>
+          <t>Use HEAD health probes with Azure Front Door. Reduce the traffic that Front Door sends to your application.</t>
+        </is>
+      </c>
       <c r="D183" s="22" t="n"/>
-      <c r="E183" s="22" t="n"/>
+      <c r="E183" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G183" s="22" t="n"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
-      <c r="L183" s="26" t="n"/>
+      <c r="L183" s="26" t="inlineStr">
+        <is>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+        </is>
+      </c>
       <c r="M183" s="26" t="n"/>
       <c r="N183" s="26" t="n"/>
       <c r="O183" s="26" t="n"/>
       <c r="P183" s="26" t="n"/>
     </row>
     <row r="184" ht="16.5" customHeight="1" s="13">
-      <c r="A184" s="22" t="n"/>
-      <c r="B184" s="22" t="n"/>
-      <c r="C184" s="22" t="n"/>
+      <c r="A184" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B184" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C184" s="22" t="inlineStr">
+        <is>
+          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
+        </is>
+      </c>
       <c r="D184" s="22" t="n"/>
-      <c r="E184" s="22" t="n"/>
+      <c r="E184" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G184" s="22" t="n"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+        </is>
+      </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
-      <c r="L184" s="26" t="n"/>
+      <c r="L184" s="26" t="inlineStr">
+        <is>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+        </is>
+      </c>
       <c r="M184" s="26" t="n"/>
       <c r="N184" s="26" t="n"/>
       <c r="O184" s="26" t="n"/>
       <c r="P184" s="26" t="n"/>
     </row>
     <row r="185" ht="16.5" customHeight="1" s="13">
-      <c r="A185" s="22" t="n"/>
-      <c r="B185" s="22" t="n"/>
-      <c r="C185" s="22" t="n"/>
+      <c r="A185" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B185" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C185" s="22" t="inlineStr">
+        <is>
+          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
+        </is>
+      </c>
       <c r="D185" s="22" t="n"/>
-      <c r="E185" s="22" t="n"/>
+      <c r="E185" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G185" s="22" t="n"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+        </is>
+      </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
-      <c r="L185" s="26" t="n"/>
+      <c r="L185" s="26" t="inlineStr">
+        <is>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+        </is>
+      </c>
       <c r="M185" s="26" t="n"/>
       <c r="N185" s="26" t="n"/>
       <c r="O185" s="26" t="n"/>
       <c r="P185" s="26" t="n"/>
     </row>
     <row r="186" ht="16.5" customHeight="1" s="13">
-      <c r="A186" s="22" t="n"/>
-      <c r="B186" s="22" t="n"/>
-      <c r="C186" s="22" t="n"/>
+      <c r="A186" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B186" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C186" s="22" t="inlineStr">
+        <is>
+          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
+        </is>
+      </c>
       <c r="D186" s="22" t="n"/>
-      <c r="E186" s="22" t="n"/>
+      <c r="E186" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G186" s="22" t="n"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+        </is>
+      </c>
       <c r="J186" s="23" t="n"/>
       <c r="K186" s="23" t="n"/>
-      <c r="L186" s="26" t="n"/>
+      <c r="L186" s="26" t="inlineStr">
+        <is>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+        </is>
+      </c>
       <c r="M186" s="26" t="n"/>
       <c r="N186" s="26" t="n"/>
       <c r="O186" s="26" t="n"/>
       <c r="P186" s="26" t="n"/>
     </row>
     <row r="187" ht="16.5" customHeight="1" s="13">
-      <c r="A187" s="22" t="n"/>
-      <c r="B187" s="22" t="n"/>
-      <c r="C187" s="22" t="n"/>
+      <c r="A187" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B187" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C187" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
+        </is>
+      </c>
       <c r="D187" s="22" t="n"/>
-      <c r="E187" s="22" t="n"/>
+      <c r="E187" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G187" s="22" t="n"/>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+        </is>
+      </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
-      <c r="L187" s="26" t="n"/>
+      <c r="L187" s="26" t="inlineStr">
+        <is>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+        </is>
+      </c>
       <c r="M187" s="26" t="n"/>
       <c r="N187" s="26" t="n"/>
       <c r="O187" s="26" t="n"/>
       <c r="P187" s="26" t="n"/>
     </row>
     <row r="188" ht="16.5" customHeight="1" s="13">
-      <c r="A188" s="22" t="n"/>
-      <c r="B188" s="22" t="n"/>
-      <c r="C188" s="22" t="n"/>
+      <c r="A188" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B188" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C188" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
+        </is>
+      </c>
       <c r="D188" s="22" t="n"/>
-      <c r="E188" s="22" t="n"/>
+      <c r="E188" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G188" s="22" t="n"/>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+        </is>
+      </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
-      <c r="L188" s="26" t="n"/>
+      <c r="L188" s="26" t="inlineStr">
+        <is>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+        </is>
+      </c>
       <c r="M188" s="26" t="n"/>
       <c r="N188" s="26" t="n"/>
       <c r="O188" s="26" t="n"/>
       <c r="P188" s="26" t="n"/>
     </row>
     <row r="189" ht="16.5" customHeight="1" s="13">
-      <c r="A189" s="22" t="n"/>
-      <c r="B189" s="22" t="n"/>
-      <c r="C189" s="22" t="n"/>
+      <c r="A189" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B189" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C189" s="22" t="inlineStr">
+        <is>
+          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
+        </is>
+      </c>
       <c r="D189" s="22" t="n"/>
-      <c r="E189" s="22" t="n"/>
+      <c r="E189" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G189" s="22" t="n"/>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+        </is>
+      </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
-      <c r="L189" s="26" t="n"/>
+      <c r="L189" s="26" t="inlineStr">
+        <is>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+        </is>
+      </c>
       <c r="M189" s="26" t="n"/>
       <c r="N189" s="26" t="n"/>
       <c r="O189" s="26" t="n"/>
       <c r="P189" s="26" t="n"/>
     </row>
     <row r="190" ht="16.5" customHeight="1" s="13">
-      <c r="A190" s="22" t="n"/>
-      <c r="B190" s="22" t="n"/>
-      <c r="C190" s="22" t="n"/>
+      <c r="A190" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B190" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C190" s="22" t="inlineStr">
+        <is>
+          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
+        </is>
+      </c>
       <c r="D190" s="22" t="n"/>
-      <c r="E190" s="22" t="n"/>
+      <c r="E190" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G190" s="22" t="n"/>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+        </is>
+      </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
-      <c r="L190" s="26" t="n"/>
+      <c r="L190" s="26" t="inlineStr">
+        <is>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+        </is>
+      </c>
       <c r="M190" s="26" t="n"/>
       <c r="N190" s="26" t="n"/>
       <c r="O190" s="26" t="n"/>
       <c r="P190" s="26" t="n"/>
     </row>
     <row r="191" ht="16.5" customHeight="1" s="13">
-      <c r="A191" s="22" t="n"/>
-      <c r="B191" s="22" t="n"/>
-      <c r="C191" s="22" t="n"/>
+      <c r="A191" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B191" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C191" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
+        </is>
+      </c>
       <c r="D191" s="22" t="n"/>
-      <c r="E191" s="22" t="n"/>
+      <c r="E191" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G191" s="22" t="n"/>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+        </is>
+      </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
-      <c r="L191" s="26" t="n"/>
+      <c r="L191" s="26" t="inlineStr">
+        <is>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+        </is>
+      </c>
       <c r="M191" s="26" t="n"/>
       <c r="N191" s="26" t="n"/>
       <c r="O191" s="26" t="n"/>
       <c r="P191" s="26" t="n"/>
     </row>
     <row r="192" ht="16.5" customHeight="1" s="13">
-      <c r="A192" s="22" t="n"/>
-      <c r="B192" s="22" t="n"/>
-      <c r="C192" s="22" t="n"/>
+      <c r="A192" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B192" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C192" s="22" t="inlineStr">
+        <is>
+          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
+        </is>
+      </c>
       <c r="D192" s="22" t="n"/>
-      <c r="E192" s="22" t="n"/>
+      <c r="E192" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G192" s="22" t="n"/>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+        </is>
+      </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
-      <c r="L192" s="26" t="n"/>
+      <c r="L192" s="26" t="inlineStr">
+        <is>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+        </is>
+      </c>
       <c r="M192" s="26" t="n"/>
       <c r="N192" s="26" t="n"/>
       <c r="O192" s="26" t="n"/>
       <c r="P192" s="26" t="n"/>
     </row>
     <row r="193" ht="16.5" customHeight="1" s="13">
-      <c r="A193" s="22" t="n"/>
-      <c r="B193" s="22" t="n"/>
-      <c r="C193" s="22" t="n"/>
+      <c r="A193" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B193" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C193" s="22" t="inlineStr">
+        <is>
+          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
+        </is>
+      </c>
       <c r="D193" s="22" t="n"/>
-      <c r="E193" s="22" t="n"/>
+      <c r="E193" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G193" s="22" t="n"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+        </is>
+      </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
-      <c r="L193" s="26" t="n"/>
+      <c r="L193" s="26" t="inlineStr">
+        <is>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+        </is>
+      </c>
       <c r="M193" s="26" t="n"/>
       <c r="N193" s="26" t="n"/>
       <c r="O193" s="26" t="n"/>
       <c r="P193" s="26" t="n"/>
     </row>
     <row r="194" ht="16.5" customHeight="1" s="13">
-      <c r="A194" s="22" t="n"/>
-      <c r="B194" s="22" t="n"/>
-      <c r="C194" s="22" t="n"/>
+      <c r="A194" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B194" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C194" s="22" t="inlineStr">
+        <is>
+          <t>Add diagnostic settings to save your Azure Front Door WAF's logs. Regularly review the logs to check for attacks and for false positive detections.</t>
+        </is>
+      </c>
       <c r="D194" s="22" t="n"/>
-      <c r="E194" s="22" t="n"/>
+      <c r="E194" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G194" s="22" t="n"/>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
-      <c r="L194" s="26" t="n"/>
+      <c r="L194" s="26" t="inlineStr">
+        <is>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+        </is>
+      </c>
       <c r="M194" s="26" t="n"/>
       <c r="N194" s="26" t="n"/>
       <c r="O194" s="26" t="n"/>
       <c r="P194" s="26" t="n"/>
     </row>
     <row r="195" ht="16.5" customHeight="1" s="13">
-      <c r="A195" s="22" t="n"/>
-      <c r="B195" s="22" t="n"/>
-      <c r="C195" s="22" t="n"/>
+      <c r="A195" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B195" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C195" s="22" t="inlineStr">
+        <is>
+          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
+        </is>
+      </c>
       <c r="D195" s="22" t="n"/>
-      <c r="E195" s="22" t="n"/>
+      <c r="E195" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G195" s="22" t="n"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
-      <c r="L195" s="26" t="n"/>
+      <c r="L195" s="26" t="inlineStr">
+        <is>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+        </is>
+      </c>
       <c r="M195" s="26" t="n"/>
       <c r="N195" s="26" t="n"/>
       <c r="O195" s="26" t="n"/>
@@ -8166,7 +11510,31 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations count="9">
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
     <dataValidation sqref="F8:F87" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>

--- a/spreadsheet/aks_checklist.es.xlsx
+++ b/spreadsheet/aks_checklist.es.xlsx
@@ -1105,7 +1105,7 @@
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>Definir requisitos no funcionales como SLAs, RTO (Recovery Time Objective) y RPO (Recovery Point Objective).</t>
+          <t>Defina requisitos no funcionales como SLAs, RTO (Recovery Time Objective) y RPO (Recovery Point Objective).</t>
         </is>
       </c>
       <c r="D8" s="22" t="n"/>
@@ -1130,7 +1130,7 @@
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>bc14aea6-e65d-48d9-a3ad-c218e6436b06</t>
+          <t>BC14AEA6-E65D-48D9-A3AD-C218E6436B06</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Usar zonas de disponibilidad si se admiten en su región de Azure</t>
+          <t>Use zonas de disponibilidad si se admiten en su región de Azure</t>
         </is>
       </c>
       <c r="D11" s="22" t="n"/>
@@ -1289,7 +1289,7 @@
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>Utilice la oferta de AKS respaldada por SLA</t>
+          <t>Usar la oferta de AKS respaldada por SLA</t>
         </is>
       </c>
       <c r="D12" s="22" t="n"/>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>Usar presupuestos de interrupción en las definiciones de pod e implementación</t>
+          <t>Usar presupuestos de interrupción en el pod y las definiciones de implementación</t>
         </is>
       </c>
       <c r="D13" s="22" t="n"/>
@@ -1360,7 +1360,7 @@
       <c r="K13" s="23" t="n"/>
       <c r="L13" s="26" t="inlineStr">
         <is>
-          <t>c1288b3c-6a57-4cfc-9444-51e1a3d3453a</t>
+          <t>C1288B3C-6A57-4CFC-9444-51E1A3D3453A</t>
         </is>
       </c>
       <c r="M13" s="26" t="n"/>
@@ -1452,7 +1452,7 @@
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>ed127dd1-42b0-46b2-8c69-99a646f3389a</t>
+          <t>ED127DD1-42B0-46B2-8C69-99A646F3389A</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1544,7 +1544,7 @@
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>a2fe27b2-e287-401a-8352-beedf79b488d</t>
+          <t>A2FE27B2-E287-401A-8352-BEDF79B488D</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1590,7 +1590,7 @@
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>eec4962c-c3bd-421b-b77f-26e5e6b3bec3</t>
+          <t>EEC4962C-C3BD-421B-B77F-26E5E6B3BEC3</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t>Usar la identidad de Pod para identidades de carga de trabajo (addon v2 en versión preliminar hoy)</t>
+          <t>Para la administración de acceso de identidad POD, use Azure AD Workload Identity (versión preliminar)</t>
         </is>
       </c>
       <c r="D20" s="22" t="n"/>
@@ -1674,7 +1674,7 @@
       <c r="G20" s="22" t="n"/>
       <c r="H20" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-identity</t>
+          <t>https://learn.microsoft.com/azure/aks/workload-identity-migration-sidecar</t>
         </is>
       </c>
       <c r="I20" s="16" t="n"/>
@@ -1693,23 +1693,23 @@
     <row r="21" ht="16.5" customHeight="1" s="13">
       <c r="A21" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión de identidades y accesos</t>
         </is>
       </c>
       <c r="B21" s="22" t="inlineStr">
         <is>
-          <t>IPAM</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t>Elija el mejor complemento de red de CNI para sus requisitos (se recomienda Azure CNI)</t>
+          <t>Para inicios de sesión no interactivos de AKS, use kubelogin (vista previa)</t>
         </is>
       </c>
       <c r="D21" s="22" t="n"/>
       <c r="E21" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1720,7 +1720,7 @@
       <c r="G21" s="22" t="n"/>
       <c r="H21" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#non-interactive-sign-in-with-kubelogin</t>
         </is>
       </c>
       <c r="I21" s="16" t="n"/>
@@ -1728,7 +1728,7 @@
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>a0f61565-9de5-458f-a372-49c831112dbd</t>
+          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1739,23 +1739,23 @@
     <row r="22" ht="16.5" customHeight="1" s="13">
       <c r="A22" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión de identidades y accesos</t>
         </is>
       </c>
       <c r="B22" s="22" t="inlineStr">
         <is>
-          <t>IPAM</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>Si usa Azure CNI, dimensione la subred en consecuencia teniendo en cuenta el número máximo de pods por nodo</t>
+          <t>Deshabilitar cuentas locales de AKS</t>
         </is>
       </c>
       <c r="D22" s="22" t="n"/>
       <c r="E22" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1766,7 +1766,7 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#disable-local-accounts</t>
         </is>
       </c>
       <c r="I22" s="16" t="n"/>
@@ -1774,7 +1774,7 @@
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>7faf12e7-0943-4f63-8472-2da29c2b1cd6</t>
+          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1785,23 +1785,23 @@
     <row r="23" ht="16.5" customHeight="1" s="13">
       <c r="A23" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión de identidades y accesos</t>
         </is>
       </c>
       <c r="B23" s="22" t="inlineStr">
         <is>
-          <t>IPAM</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>Si usa Azure CNI, compruebe el máximo de pods/nodo (predeterminado 30)</t>
+          <t>Configurar si es necesario Acceso al clúster Just-in-time</t>
         </is>
       </c>
       <c r="D23" s="22" t="n"/>
       <c r="E23" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1812,7 +1812,7 @@
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#configure-just-in-time-cluster-access-with-azure-ad-and-aks</t>
         </is>
       </c>
       <c r="I23" s="16" t="n"/>
@@ -1820,7 +1820,7 @@
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>22f54b29-bade-43aa-b1e8-c38ec9366673</t>
+          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1831,24 +1831,20 @@
     <row r="24" ht="16.5" customHeight="1" s="13">
       <c r="A24" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión de identidades y accesos</t>
         </is>
       </c>
       <c r="B24" s="22" t="inlineStr">
         <is>
-          <t>IPAM</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>Si utiliza servicios LoadBalancer de IP privada, utilice una subred dedicada (no la subred AKS)</t>
-        </is>
-      </c>
-      <c r="D24" s="22" t="inlineStr">
-        <is>
-          <t>Para las aplicaciones internas, las organizaciones suelen abrir toda la subred de AKS en sus firewalls. Esto también abre el acceso de red a los nodos y, potencialmente, también a los pods (si usa Azure CNI). Si las direcciones IP de LoadBalancer están en una subred diferente, solo esta debe estar disponible para los clientes de la aplicación. Otra razón es que si las direcciones IP de la subred AKS son un recurso escaso, consumir sus direcciones IP para servicios reducirá la escalabilidad máxima del clúster.</t>
-        </is>
-      </c>
+          <t>Configurar, si es necesario, el acceso condicional de AAD para AKS</t>
+        </is>
+      </c>
+      <c r="D24" s="22" t="n"/>
       <c r="E24" s="22" t="inlineStr">
         <is>
           <t>Bajo</t>
@@ -1862,7 +1858,7 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/internal-lb</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#use-conditional-access-with-azure-ad-and-aks</t>
         </is>
       </c>
       <c r="I24" s="16" t="n"/>
@@ -1870,7 +1866,7 @@
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>13c00567-4b1e-4945-a459-c373e7ed6162</t>
+          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1881,23 +1877,23 @@
     <row r="25" ht="16.5" customHeight="1" s="13">
       <c r="A25" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión de identidades y accesos</t>
         </is>
       </c>
       <c r="B25" s="22" t="inlineStr">
         <is>
-          <t>IPAM</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>Dimensione el rango de direcciones IP del servicio en consecuencia (limitará la escalabilidad del clúster)</t>
+          <t xml:space="preserve">Si es necesario para cargas de trabajo de Windows AKS, configure gMSA </t>
         </is>
       </c>
       <c r="D25" s="22" t="n"/>
       <c r="E25" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1908,7 +1904,7 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
+          <t>https://learn.microsoft.com/azure/aks/use-group-managed-service-accounts</t>
         </is>
       </c>
       <c r="I25" s="16" t="n"/>
@@ -1916,7 +1912,7 @@
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>43f63047-22d9-429c-8b1c-d622f54b29ba</t>
+          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -1927,23 +1923,23 @@
     <row r="26" ht="16.5" customHeight="1" s="13">
       <c r="A26" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión de identidades y accesos</t>
         </is>
       </c>
       <c r="B26" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>Filtre el tráfico de salida con AzFW/NVA si sus requisitos de seguridad lo exigen</t>
+          <t>Para un control más preciso, considere usar una identidad Kubelet administrada</t>
         </is>
       </c>
       <c r="D26" s="22" t="n"/>
       <c r="E26" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1954,7 +1950,7 @@
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/limit-egress-traffic</t>
+          <t>https://learn.microsoft.com/azure/aks/use-managed-identity#use-a-pre-created-kubelet-managed-identity</t>
         </is>
       </c>
       <c r="I26" s="16" t="n"/>
@@ -1962,7 +1958,7 @@
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>3b365a91-7ecb-4e48-bbe5-4cd7df2e8bba</t>
+          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -1978,18 +1974,18 @@
       </c>
       <c r="B27" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>IPAM (en inglés)</t>
         </is>
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>Si usa un extremo de API público, restrinja las direcciones IP que pueden acceder a él</t>
+          <t>Elija el mejor complemento de red CNI para sus necesidades (se recomienda Azure CNI)</t>
         </is>
       </c>
       <c r="D27" s="22" t="n"/>
       <c r="E27" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2000,14 +1996,14 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/api-server-authorized-ip-ranges</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>c4581559-bb91-463e-a908-aed8c44ce3b2</t>
+          <t>a0f61565-9de5-458f-a372-49c831112dbd</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2023,18 +2019,18 @@
       </c>
       <c r="B28" s="22" t="inlineStr">
         <is>
-          <t>Escalabilidad</t>
+          <t>IPAM (en inglés)</t>
         </is>
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>Usar un controlador de entrada para exponer aplicaciones basadas en web en lugar de exponerlas con servicios de tipo LoadBalancer</t>
+          <t>Si usa Azure CNI, ajuste el tamaño de la subred en consecuencia teniendo en cuenta el número máximo de pods por nodo</t>
         </is>
       </c>
       <c r="D28" s="22" t="n"/>
       <c r="E28" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2045,14 +2041,14 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/concepts-network</t>
+          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
+          <t>7faf12e7-0943-4f63-8472-2da29c2b1cd6</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2068,18 +2064,18 @@
       </c>
       <c r="B29" s="22" t="inlineStr">
         <is>
-          <t>Prácticas recomendadas</t>
+          <t>IPAM (en inglés)</t>
         </is>
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>Si usa AGIC, no comparta una AppGW entre clústeres</t>
+          <t>Si usa Azure CNI, compruebe el número máximo de pods/nodo (predeterminado 30)</t>
         </is>
       </c>
       <c r="D29" s="22" t="n"/>
       <c r="E29" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2090,14 +2086,14 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://azure.github.io/application-gateway-kubernetes-ingress/setup/install-existing/</t>
+          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>CBD8AC2A-AEBC-4A2A-94Da-1DBF3DC99248</t>
+          <t>22f54b29-bade-43aa-b1e8-c38ec9366673</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2113,18 +2109,22 @@
       </c>
       <c r="B30" s="22" t="inlineStr">
         <is>
-          <t>Costar</t>
+          <t>IPAM (en inglés)</t>
         </is>
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>Usar puntos de conexión privados (preferidos) o extremos de servicio de red virtual para acceder a los servicios PaaS desde el clúster</t>
-        </is>
-      </c>
-      <c r="D30" s="22" t="n"/>
+          <t>Si utiliza servicios de equilibrador de carga de IP privada, use una subred dedicada (no la subred AKS)</t>
+        </is>
+      </c>
+      <c r="D30" s="22" t="inlineStr">
+        <is>
+          <t>Para las aplicaciones internas, las organizaciones suelen abrir toda la subred de AKS en sus firewalls. Esto abre el acceso de red también a los nodos y, potencialmente, también a los pods (si usa Azure CNI). Si las direcciones IP de LoadBalancer están en una subred diferente, solo esta debe estar disponible para los clientes de la aplicación. Otra razón es que si las direcciones IP de la subred AKS son un recurso escaso, consumir sus direcciones IP para servicios reducirá la escalabilidad máxima del clúster.</t>
+        </is>
+      </c>
       <c r="E30" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2135,14 +2135,14 @@
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/private-link/private-link-overview</t>
+          <t>https://docs.microsoft.com/azure/aks/internal-lb</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>c3c39c98-6bb2-4c12-859a-114b5e3df584</t>
+          <t>13c00567-4b1e-4945-a459-c373e7ed6162</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2158,12 +2158,12 @@
       </c>
       <c r="B31" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>IPAM (en inglés)</t>
         </is>
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>Usar clústeres privados si sus requisitos lo exigen</t>
+          <t>Dimensione el intervalo de direcciones IP de servicio en consecuencia (limitará la escalabilidad del clúster)</t>
         </is>
       </c>
       <c r="D31" s="22" t="n"/>
@@ -2180,14 +2180,14 @@
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/private-clusters</t>
+          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>ecccd979-3b6b-4cda-9b50-eb2eb03dda6d</t>
+          <t>43f63047-22d9-429c-8b1c-d622f54b29ba</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2208,7 +2208,7 @@
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Habilitar una opción de directiva de red de Kubernetes (Calico/Azure)</t>
+          <t>Filtre el tráfico de salida con AzFW/NVA si sus requisitos de seguridad lo exigen</t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
@@ -2225,7 +2225,7 @@
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/use-network-policies</t>
+          <t>https://docs.microsoft.com/azure/aks/limit-egress-traffic</t>
         </is>
       </c>
       <c r="I32" s="16" t="n"/>
@@ -2233,7 +2233,7 @@
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>58d7c892-ddb1-407d-9769-ae669ca48e4a</t>
+          <t>3b365a91-7ecb-4e48-bbe5-4cd7df2e8bba</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2254,13 +2254,13 @@
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>Usar políticas de red de Kubernetes para aumentar la seguridad dentro del clúster</t>
+          <t>Si utiliza un punto de enlace de API público, restrinja las direcciones IP que pueden acceder a él</t>
         </is>
       </c>
       <c r="D33" s="22" t="n"/>
       <c r="E33" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2271,7 +2271,7 @@
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
+          <t>https://docs.microsoft.com/azure/aks/api-server-authorized-ip-ranges</t>
         </is>
       </c>
       <c r="I33" s="16" t="n"/>
@@ -2279,7 +2279,7 @@
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>85e2223e-ce8b-4b12-907c-a5f16f158e3e</t>
+          <t>C4581559-BB91-463E-A908-AED8C44CE3B2</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2295,18 +2295,18 @@
       </c>
       <c r="B34" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Escalabilidad</t>
         </is>
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>Usar un WAF para cargas de trabajo web (UI o API)</t>
+          <t>Usar un controlador de entrada para exponer aplicaciones basadas en web en lugar de exponerlas con servicios de tipo LoadBalancer</t>
         </is>
       </c>
       <c r="D34" s="22" t="n"/>
       <c r="E34" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2317,7 +2317,7 @@
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
+          <t>https://docs.microsoft.com/azure/aks/concepts-network</t>
         </is>
       </c>
       <c r="I34" s="16" t="n"/>
@@ -2325,7 +2325,7 @@
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>a3a92c2d-e7e2-4165-a3a8-7af4a7a1f893</t>
+          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2341,18 +2341,18 @@
       </c>
       <c r="B35" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Escalabilidad</t>
         </is>
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>Usar el estándar DDoS en la red virtual de AKS</t>
+          <t>Usar Azue NAT Gateway como outboundType para escalar el tráfico de salida</t>
         </is>
       </c>
       <c r="D35" s="22" t="n"/>
       <c r="E35" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2363,7 +2363,7 @@
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/aks/nat-gateway</t>
         </is>
       </c>
       <c r="I35" s="16" t="n"/>
@@ -2371,7 +2371,7 @@
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>9bda4776-8f24-4c11-9775-c2ea55b46a94</t>
+          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2387,18 +2387,18 @@
       </c>
       <c r="B36" s="22" t="inlineStr">
         <is>
-          <t>Prácticas recomendadas</t>
+          <t>Escalabilidad</t>
         </is>
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>No utilice el complemento aks application routing</t>
+          <t>Uso de asignaciones dinámicas de direcciones IP para evitar el agotamiento de IP de CNI de Azure</t>
         </is>
       </c>
       <c r="D36" s="22" t="n"/>
       <c r="E36" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2409,7 +2409,7 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/http-application-routing</t>
+          <t>https://learn.microsoft.com/azure/aks/configure-azure-cni#dynamic-allocation-of-ips-and-enhanced-subnet-support</t>
         </is>
       </c>
       <c r="I36" s="16" t="n"/>
@@ -2417,7 +2417,7 @@
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>8008ae7d-7e4b-4475-a6c8-bdbf59bce65d</t>
+          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2438,13 +2438,13 @@
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>Utilice el ALB estándar (a diferencia del básico)</t>
+          <t>Si usa AGIC, no comparta un AppGW entre clústeres</t>
         </is>
       </c>
       <c r="D37" s="22" t="n"/>
       <c r="E37" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2455,7 +2455,7 @@
       <c r="G37" s="22" t="n"/>
       <c r="H37" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/load-balancer-standard</t>
+          <t>https://azure.github.io/application-gateway-kubernetes-ingress/setup/install-existing/</t>
         </is>
       </c>
       <c r="I37" s="16" t="n"/>
@@ -2463,7 +2463,7 @@
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>ba7da7be-9952-4914-a384-5d997cb39132</t>
+          <t>CBD8AC2A-AEBC-4A2A-94Da-1DBF3DC99248</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2479,12 +2479,12 @@
       </c>
       <c r="B38" s="22" t="inlineStr">
         <is>
-          <t>Tiene</t>
+          <t>Costar</t>
         </is>
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>Si se requiere conectividad híbrida, use 2xER o ER+VPN para una mejor disponibilidad</t>
+          <t>Usar extremos privados (preferidos) o extremos de servicio de red virtual para acceder a los servicios PaaS desde el clúster</t>
         </is>
       </c>
       <c r="D38" s="22" t="n"/>
@@ -2501,7 +2501,7 @@
       <c r="G38" s="22" t="n"/>
       <c r="H38" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering</t>
+          <t>https://docs.microsoft.com/azure/private-link/private-link-overview</t>
         </is>
       </c>
       <c r="I38" s="16" t="n"/>
@@ -2509,7 +2509,7 @@
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>e8a03f97-8794-468d-96a7-86d60f96c97b</t>
+          <t>c3c39c98-6bb2-4c12-859a-114b5e3df584</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2530,13 +2530,13 @@
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de utilizar una malla de servicios para la administración avanzada de comunicaciones de microservicios</t>
+          <t>Utilice clústeres privados si sus requisitos lo exigen</t>
         </is>
       </c>
       <c r="D39" s="22" t="n"/>
       <c r="E39" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2547,7 +2547,7 @@
       <c r="G39" s="22" t="n"/>
       <c r="H39" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/servicemesh-about</t>
+          <t>https://docs.microsoft.com/azure/aks/private-clusters</t>
         </is>
       </c>
       <c r="I39" s="16" t="n"/>
@@ -2555,7 +2555,7 @@
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
+          <t>ECCCD979-3B6B-4CDA-9B50-EB2EB03DDA6D</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2566,17 +2566,17 @@
     <row r="40" ht="16.5" customHeight="1" s="13">
       <c r="A40" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza y seguridad</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B40" s="22" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>Almacene sus secretos en el Almacén de claves de Azure con el controlador del Almacén de secretos de CSI</t>
+          <t xml:space="preserve">Para los nodos AKS de Windows 2019 y 2022, se pueden usar las directivas de red de Calico </t>
         </is>
       </c>
       <c r="D40" s="22" t="n"/>
@@ -2593,7 +2593,7 @@
       <c r="G40" s="22" t="n"/>
       <c r="H40" s="16" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/secrets-store-csi-driver-provider-azure</t>
+          <t>https://learn.microsoft.com/azure/aks/use-network-policies</t>
         </is>
       </c>
       <c r="I40" s="16" t="n"/>
@@ -2601,7 +2601,7 @@
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>5e3df584-eccc-4d97-a3b6-bcda3b50eb2e</t>
+          <t>ECCCD979-3B6B-4CDA-9B50-EB2EB03DDA6D</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2612,17 +2612,17 @@
     <row r="41" ht="16.5" customHeight="1" s="13">
       <c r="A41" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza y seguridad</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B41" s="22" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>Si el usuario entidades de servicio para el clúster, actualice las credenciales periódicamente (como trimestralmente)</t>
+          <t>Habilitar una opción de directiva de red de Kubernetes (Calico/Azure)</t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
@@ -2639,7 +2639,7 @@
       <c r="G41" s="22" t="n"/>
       <c r="H41" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/update-credentials</t>
+          <t>https://docs.microsoft.com/azure/aks/use-network-policies</t>
         </is>
       </c>
       <c r="I41" s="16" t="n"/>
@@ -2647,7 +2647,7 @@
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>b03dda6d-58d7-4c89-8ddb-107d5769ae66</t>
+          <t>58d7c892-ddb1-407d-9769-ae669ca48e4a</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2658,23 +2658,23 @@
     <row r="42" ht="16.5" customHeight="1" s="13">
       <c r="A42" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza y seguridad</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B42" s="22" t="inlineStr">
         <is>
-          <t>Conformidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>Usar Azure Policy for Kubernetes para garantizar el cumplimiento del clúster</t>
+          <t>Usar políticas de red de Kubernetes para aumentar la seguridad dentro del clúster</t>
         </is>
       </c>
       <c r="D42" s="22" t="n"/>
       <c r="E42" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2685,7 +2685,7 @@
       <c r="G42" s="22" t="n"/>
       <c r="H42" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/concepts/policy-for-kubernetes</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
         </is>
       </c>
       <c r="I42" s="16" t="n"/>
@@ -2693,7 +2693,7 @@
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>9ca48e4a-85e2-4223-bce8-bb12307ca5f1</t>
+          <t>85e2223e-ce8b-4b12-907c-a5f16f158e3e</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2704,23 +2704,23 @@
     <row r="43" ht="16.5" customHeight="1" s="13">
       <c r="A43" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza y seguridad</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B43" s="22" t="inlineStr">
         <is>
-          <t>Conformidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>Separe las aplicaciones del plano de control con grupos de nodos de usuario/sistema</t>
+          <t>Usar un WAF para cargas de trabajo web (interfaces de usuario o API)</t>
         </is>
       </c>
       <c r="D43" s="22" t="n"/>
       <c r="E43" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2731,7 +2731,7 @@
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/use-system-pools</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
         </is>
       </c>
       <c r="I43" s="16" t="n"/>
@@ -2739,7 +2739,7 @@
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>6f158e3e-a3a9-42c2-be7e-2165c3a87af4</t>
+          <t>a3a92c2d-e7e2-4165-a3a8-7af4a7a1f893</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2750,23 +2750,23 @@
     <row r="44" ht="16.5" customHeight="1" s="13">
       <c r="A44" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza y seguridad</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B44" s="22" t="inlineStr">
         <is>
-          <t>Conformidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>Agregue mancha a su nodepool del sistema para que esté dedicado</t>
+          <t>Usar DDoS Standard en la red virtual de AKS</t>
         </is>
       </c>
       <c r="D44" s="22" t="n"/>
       <c r="E44" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2777,7 +2777,7 @@
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/use-system-pools</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I44" s="16" t="n"/>
@@ -2785,7 +2785,7 @@
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>a7a1f893-9bda-4477-98f2-4c116775c2ea</t>
+          <t>9bda4776-8f24-4c11-9775-c2ea55b46a94</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2796,23 +2796,23 @@
     <row r="45" ht="16.5" customHeight="1" s="13">
       <c r="A45" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza y seguridad</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B45" s="22" t="inlineStr">
         <is>
-          <t>Conformidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>Utilice un registro privado para sus imágenes, como ACR</t>
+          <t>Si es necesario, agregue el proxy HTTP de la empresa</t>
         </is>
       </c>
       <c r="D45" s="22" t="n"/>
       <c r="E45" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2823,14 +2823,14 @@
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/container-registry/</t>
+          <t>https://learn.microsoft.com/azure/aks/http-proxy</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>55b46a94-8008-4ae7-b7e4-b475b6c8bdbf</t>
+          <t>9bda4776-8f24-4c11-9775-c2ea55b46a94</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2841,23 +2841,23 @@
     <row r="46" ht="16.5" customHeight="1" s="13">
       <c r="A46" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza y seguridad</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B46" s="22" t="inlineStr">
         <is>
-          <t>Conformidad</t>
+          <t>Prácticas recomendadas</t>
         </is>
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t>Escanee sus imágenes en busca de vulnerabilidades</t>
+          <t>No utilice el complemento de enrutamiento de aplicaciones de AKS</t>
         </is>
       </c>
       <c r="D46" s="22" t="n"/>
       <c r="E46" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2868,7 +2868,7 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/container-security</t>
+          <t>https://docs.microsoft.com/azure/aks/http-application-routing</t>
         </is>
       </c>
       <c r="I46" s="16" t="n"/>
@@ -2876,7 +2876,7 @@
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>59bce65d-e8a0-43f9-9879-468d66a786d6</t>
+          <t>8008ae7d-7e4b-4475-a6c8-bdbf59bce65d</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -2887,17 +2887,17 @@
     <row r="47" ht="16.5" customHeight="1" s="13">
       <c r="A47" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza y seguridad</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B47" s="22" t="inlineStr">
         <is>
-          <t>Conformidad</t>
+          <t>Prácticas recomendadas</t>
         </is>
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>Uso de Azure Security Center para detectar vulnerabilidades de la postura de seguridad</t>
+          <t>Para cargas de trabajo de Windows, use Redes aceleradas</t>
         </is>
       </c>
       <c r="D47" s="22" t="n"/>
@@ -2914,7 +2914,7 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/container-security</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview</t>
         </is>
       </c>
       <c r="I47" s="16" t="n"/>
@@ -2922,7 +2922,7 @@
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
+          <t>8008ae7d-7e4b-4475-a6c8-bdbf59bce65d</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -2933,17 +2933,17 @@
     <row r="48" ht="16.5" customHeight="1" s="13">
       <c r="A48" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza y seguridad</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B48" s="22" t="inlineStr">
         <is>
-          <t>Conformidad</t>
+          <t>Prácticas recomendadas</t>
         </is>
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>Definir los requisitos de separación de aplicaciones (espacio de nombres/nodepool/clúster)</t>
+          <t>Utilice el ALB estándar (en lugar del básico)</t>
         </is>
       </c>
       <c r="D48" s="22" t="n"/>
@@ -2960,14 +2960,14 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-cluster-isolation</t>
+          <t>https://docs.microsoft.com/azure/aks/load-balancer-standard</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>d167dd18-2b0a-4c24-8b99-9a646f8389a7</t>
+          <t>ba7da7be-9952-4914-a384-5d997cb39132</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -2978,23 +2978,23 @@
     <row r="49" ht="16.5" customHeight="1" s="13">
       <c r="A49" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza de costos</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B49" s="22" t="inlineStr">
         <is>
-          <t>Costar</t>
+          <t>Tiene</t>
         </is>
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>Utilice una aplicación externa como kubecost para asignar custs a diferentes usuarios</t>
+          <t>Si se requiere conectividad híbrida, use 2xER o ER+VPN para una mejor disponibilidad</t>
         </is>
       </c>
       <c r="D49" s="22" t="n"/>
       <c r="E49" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3005,14 +3005,14 @@
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/scenarios/aks/eslz-cost-governance-with-kubecost</t>
+          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
+          <t>E8A03F97-8794-468D-96A7-86D60F96C97B</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3023,23 +3023,23 @@
     <row r="50" ht="16.5" customHeight="1" s="13">
       <c r="A50" s="22" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B50" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>Usar discos efímeros del sistema operativo</t>
+          <t>Considere la posibilidad de usar una malla de servicios para la administración avanzada de comunicaciones de microservicios</t>
         </is>
       </c>
       <c r="D50" s="22" t="n"/>
       <c r="E50" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3050,7 +3050,7 @@
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/cluster-configuration</t>
+          <t>https://docs.microsoft.com/azure/aks/servicemesh-about</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3058,7 +3058,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>24367b33-6971-45b1-952b-eee0b9b588de</t>
+          <t>E9855D04-C3C3-49C9-A6BB-2C12159A114B</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3069,23 +3069,23 @@
     <row r="51" ht="16.5" customHeight="1" s="13">
       <c r="A51" s="22" t="inlineStr">
         <is>
+          <t>Topología y conectividad de red</t>
+        </is>
+      </c>
+      <c r="B51" s="22" t="inlineStr">
+        <is>
           <t>Operaciones</t>
         </is>
       </c>
-      <c r="B51" s="22" t="inlineStr">
-        <is>
-          <t>Almacenamiento</t>
-        </is>
-      </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>Para discos no efímeros, use IOPS altas y discos de sistema operativo más grandes para los nodos cuando ejecute muchos pods/nodos, ya que requiere un alto rendimiento para ejecutar múltiples pods y generará registros enormes con umbrales de rotación de registros AKS predeterminados</t>
+          <t>Si es necesario, agregue su propio complemento CNI</t>
         </is>
       </c>
       <c r="D51" s="22" t="n"/>
       <c r="E51" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3096,7 +3096,7 @@
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/disks-types</t>
+          <t>https://learn.microsoft.com/azure/aks/use-byo-cni</t>
         </is>
       </c>
       <c r="I51" s="16" t="n"/>
@@ -3104,7 +3104,7 @@
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
+          <t>E9855D04-C3C3-49C9-A6BB-2C12159A114B</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3115,23 +3115,23 @@
     <row r="52" ht="16.5" customHeight="1" s="13">
       <c r="A52" s="22" t="inlineStr">
         <is>
+          <t>Topología y conectividad de red</t>
+        </is>
+      </c>
+      <c r="B52" s="22" t="inlineStr">
+        <is>
           <t>Operaciones</t>
         </is>
       </c>
-      <c r="B52" s="22" t="inlineStr">
-        <is>
-          <t>Almacenamiento</t>
-        </is>
-      </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>Evite mantener el estado en el clúster y almacene datos fuera (AzStorage, AzSQL, Cosmos, etc.)</t>
+          <t>Si es necesario, configure IP pública por nodo en AKS</t>
         </is>
       </c>
       <c r="D52" s="22" t="n"/>
       <c r="E52" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3142,7 +3142,7 @@
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-multi-region</t>
+          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#assign-a-public-ip-per-node-for-your-node-pools</t>
         </is>
       </c>
       <c r="I52" s="16" t="n"/>
@@ -3150,7 +3150,7 @@
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>9f7547c1-747d-4c56-868a-714435bd19dd</t>
+          <t>E9855D04-C3C3-49C9-A6BB-2C12159A114B</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3161,17 +3161,17 @@
     <row r="53" ht="16.5" customHeight="1" s="13">
       <c r="A53" s="22" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B53" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Prácticas recomendadas</t>
         </is>
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>Si utiliza AzFiles Standard, considere AzFiles Premium y/o ANF por razones de rendimiento</t>
+          <t>Si usa CNI de Azure, considere la posibilidad de usar diferentes subredes para NodePools</t>
         </is>
       </c>
       <c r="D53" s="22" t="n"/>
@@ -3188,14 +3188,14 @@
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-storage</t>
+          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#add-a-node-pool-with-a-unique-subnet</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>24429eb7-2281-4376-85cc-57b4a4b18142</t>
+          <t>E9855D04-C3C3-49C9-A6BB-2C12159A114B</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3206,17 +3206,17 @@
     <row r="54" ht="16.5" customHeight="1" s="13">
       <c r="A54" s="22" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Gobernanza y seguridad</t>
         </is>
       </c>
       <c r="B54" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>Si usa Discos y zonas de disponibilidad de Azure, considere la posibilidad de tener grupos de nodos dentro de una zona para discos LRS con VolumeBindingMode:WaitForFirstConsumer para aprovisionar almacenamiento en la zona derecha o usar discos ZRS para grupos de nodos que abarquen varias zonas</t>
+          <t>Almacene sus secretos en Azure Key Vault con el controlador CSI Secrets Store</t>
         </is>
       </c>
       <c r="D54" s="22" t="n"/>
@@ -3233,7 +3233,7 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/availability-zones#azure-disk-availability-zone-support</t>
+          <t>https://github.com/Azure/secrets-store-csi-driver-provider-azure</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3241,7 +3241,7 @@
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>83958a8c-2689-4b32-ab57-cfc64546135a</t>
+          <t>5e3df584-eccc-4d97-a3b6-bcda3b50eb2e</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3252,23 +3252,23 @@
     <row r="55" ht="16.5" customHeight="1" s="13">
       <c r="A55" s="22" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Gobernanza y seguridad</t>
         </is>
       </c>
       <c r="B55" s="22" t="inlineStr">
         <is>
-          <t>Conformidad</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>Consulte periódicamente Azure Advisor para obtener recomendaciones sobre el clúster</t>
+          <t>Si el usuario es Entidades de servicio para el clúster, actualice las credenciales periódicamente (como trimestralmente)</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
       <c r="E55" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3279,14 +3279,14 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/advisor/advisor-get-started</t>
+          <t>https://docs.microsoft.com/azure/aks/update-credentials</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>337453a3-cc63-4963-9a65-22ac19e80696</t>
+          <t>b03dda6d-58d7-4c89-8ddb-107d5769ae66</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3297,7 +3297,7 @@
     <row r="56" ht="16.5" customHeight="1" s="13">
       <c r="A56" s="22" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Gobernanza y seguridad</t>
         </is>
       </c>
       <c r="B56" s="22" t="inlineStr">
@@ -3307,13 +3307,13 @@
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>Desarrolle sus manifiestos YAML con editores de texto inteligentes como vscode+kubeadvisor</t>
+          <t>Uso de Azure Policy for Kubernetes para garantizar el cumplimiento del clúster</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
       <c r="E56" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3324,14 +3324,14 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/policy-for-kubernetes</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>5388e9de-d167-4dd1-a2b0-ac241b999a64</t>
+          <t>9ca48e4a-85e2-4223-bce8-bb12307ca5f1</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3342,23 +3342,23 @@
     <row r="57" ht="16.5" customHeight="1" s="13">
       <c r="A57" s="22" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Gobernanza y seguridad</t>
         </is>
       </c>
       <c r="B57" s="22" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Conformidad</t>
         </is>
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>Supervise las métricas de su clúster con Container Insights (u otras herramientas como Prometheus)</t>
+          <t>Separar las aplicaciones del plano de control con grupos de nodos de usuario/sistema</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
       <c r="E57" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3369,14 +3369,14 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-overview</t>
+          <t>https://docs.microsoft.com/azure/aks/use-system-pools</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>6f8389a7-f82c-4b8e-a8c0-aa63a25a4956</t>
+          <t>6f158e3e-a3a9-42c2-be7e-2165c3a87af4</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3387,23 +3387,23 @@
     <row r="58" ht="16.5" customHeight="1" s="13">
       <c r="A58" s="22" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Gobernanza y seguridad</t>
         </is>
       </c>
       <c r="B58" s="22" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Conformidad</t>
         </is>
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>Almacene y analice los registros de su clúster con Container Insights (u otras herramientas como Telegraf/ElasticSearch)</t>
+          <t>Agregue mancha a su nodepool del sistema para que sea dedicado</t>
         </is>
       </c>
       <c r="D58" s="22" t="n"/>
       <c r="E58" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3414,14 +3414,14 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-overview</t>
+          <t>https://docs.microsoft.com/azure/aks/use-system-pools</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>eaa8dc4a-2436-47b3-9697-15b1752beee0</t>
+          <t>A7A1F893-9BDA-4477-98F2-4C116775C2EA</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3432,23 +3432,23 @@
     <row r="59" ht="16.5" customHeight="1" s="13">
       <c r="A59" s="22" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Gobernanza y seguridad</t>
         </is>
       </c>
       <c r="B59" s="22" t="inlineStr">
         <is>
-          <t>Alertas</t>
+          <t>Conformidad</t>
         </is>
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>Configurar alertas en las métricas más críticas (consulte Container Insights para obtener recomendaciones)</t>
+          <t>Usar un registro privado para las imágenes, como ACR</t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
       <c r="E59" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3459,14 +3459,14 @@
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-metric-alerts</t>
+          <t>https://docs.microsoft.com/azure/container-registry/</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>67f7a9ed-5b31-4f38-a3f3-9812b2463cff</t>
+          <t>55b46a94-8008-4ae7-b7e4-b475b6c8bdbf</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3477,7 +3477,7 @@
     <row r="60" ht="16.5" customHeight="1" s="13">
       <c r="A60" s="22" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Gobernanza y seguridad</t>
         </is>
       </c>
       <c r="B60" s="22" t="inlineStr">
@@ -3487,13 +3487,13 @@
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>Tenga un proceso regular para actualizar su versión de kubernetes periódicamente (trimestralmente, por ejemplo), o use la función de actualización automática de AKS</t>
+          <t>Escanea tus imágenes en busca de vulnerabilidades</t>
         </is>
       </c>
       <c r="D60" s="22" t="n"/>
       <c r="E60" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3504,14 +3504,14 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/supported-kubernetes-versions</t>
+          <t>https://docs.microsoft.com/azure/security-center/container-security</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>e189c599-df0d-45a7-9dd4-ce32c1881370</t>
+          <t>59bce65d-e8a0-43f9-9879-468d66a786d6</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3522,7 +3522,7 @@
     <row r="61" ht="16.5" customHeight="1" s="13">
       <c r="A61" s="22" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Gobernanza y seguridad</t>
         </is>
       </c>
       <c r="B61" s="22" t="inlineStr">
@@ -3532,13 +3532,13 @@
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>Use kured para actualizaciones de nodos Linux en caso de que no esté utilizando la actualización de imagen de nodo</t>
+          <t>Uso de Azure Security Center para detectar vulnerabilidades de postura de seguridad</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
       <c r="E61" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3549,14 +3549,14 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/node-updates-kured</t>
+          <t>https://docs.microsoft.com/azure/security-center/container-security</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>6f7c4c0d-4e51-4464-ad24-57ed67138b82</t>
+          <t>CC639637-A652-42AC-89E8-06965388E9DE</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3567,7 +3567,7 @@
     <row r="62" ht="16.5" customHeight="1" s="13">
       <c r="A62" s="22" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Gobernanza y seguridad</t>
         </is>
       </c>
       <c r="B62" s="22" t="inlineStr">
@@ -3577,13 +3577,13 @@
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>Tener un proceso regular para actualizar las imágenes del nodo del clúster periódicamente (semanalmente, por ejemplo)</t>
+          <t>Si es necesario, configure FIPS</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
       <c r="E62" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3594,14 +3594,14 @@
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/node-image-upgrade</t>
+          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#add-a-fips-enabled-node-pool</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>139c9580-ade3-426a-ba09-cf157d9f6477</t>
+          <t>CC639637-A652-42AC-89E8-06965388E9DE</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3612,23 +3612,23 @@
     <row r="63" ht="16.5" customHeight="1" s="13">
       <c r="A63" s="22" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Gobernanza y seguridad</t>
         </is>
       </c>
       <c r="B63" s="22" t="inlineStr">
         <is>
-          <t>Conformidad</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>Considere gitops para implementar aplicaciones o configuración de clúster en varios clústeres</t>
+          <t>Si es necesario, agregue el cifrado etcd del Servicio de administración de claves</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
       <c r="E63" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3639,7 +3639,7 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/bedrock/bedrock-automated-deployments</t>
+          <t>https://learn.microsoft.com/azure/aks/use-kms-etcd-encryption</t>
         </is>
       </c>
       <c r="I63" s="16" t="n"/>
@@ -3647,7 +3647,7 @@
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>0102ce16-ee30-41e6-b882-e52e4621dd68</t>
+          <t>CC639637-A652-42AC-89E8-06965388E9DE</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3658,17 +3658,17 @@
     <row r="64" ht="16.5" customHeight="1" s="13">
       <c r="A64" s="22" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Gobernanza y seguridad</t>
         </is>
       </c>
       <c r="B64" s="22" t="inlineStr">
         <is>
-          <t>Costar</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>Considere los grupos de nodos puntuales para cargas de trabajo no sensibles al tiempo</t>
+          <t>Si es necesario, considere la posibilidad de usar Proceso confidencial para AKS</t>
         </is>
       </c>
       <c r="D64" s="22" t="n"/>
@@ -3685,7 +3685,7 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/spot-node-pool</t>
+          <t>https://learn.microsoft.com/azure/confidential-computing/confidential-nodes-aks-overview</t>
         </is>
       </c>
       <c r="I64" s="16" t="n"/>
@@ -3693,7 +3693,7 @@
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>c5a5b252-1e44-4a59-a9d2-399c4d7b68d0</t>
+          <t>CC639637-A652-42AC-89E8-06965388E9DE</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3704,23 +3704,23 @@
     <row r="65" ht="16.5" customHeight="1" s="13">
       <c r="A65" s="22" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Gobernanza y seguridad</t>
         </is>
       </c>
       <c r="B65" s="22" t="inlineStr">
         <is>
-          <t>Costar</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>Considere el nodo virtual AKS para ráfagas rápidas</t>
+          <t>Considere la posibilidad de usar Defender para contenedores</t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
       <c r="E65" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3731,7 +3731,7 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/concepts-scale</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-enable</t>
         </is>
       </c>
       <c r="I65" s="16" t="n"/>
@@ -3739,7 +3739,7 @@
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>c755562f-2b4e-4456-9b4d-874a748b662e</t>
+          <t>CC639637-A652-42AC-89E8-06965388E9DE</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3750,7 +3750,7 @@
     <row r="66" ht="16.5" customHeight="1" s="13">
       <c r="A66" s="22" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Gobernanza y seguridad</t>
         </is>
       </c>
       <c r="B66" s="22" t="inlineStr">
@@ -3760,7 +3760,7 @@
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>Desarrollar prácticas de gobierno propias para asegurarse de que los operadores en el nodo RG no realicen cambios (también conocido como 'infra RG')</t>
+          <t>Definir los requisitos de separación de aplicaciones (espacio de nombres/grupo de nodos/clúster)</t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3777,14 +3777,14 @@
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/faq</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-cluster-isolation</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>31d7aaab-7571-4449-ab80-53d89e89d17b</t>
+          <t>D167DD18-2B0A-4C24-8B99-9A646F8389A7</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3795,17 +3795,17 @@
     <row r="67" ht="16.5" customHeight="1" s="13">
       <c r="A67" s="22" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Gobernanza de costos</t>
         </is>
       </c>
       <c r="B67" s="22" t="inlineStr">
         <is>
-          <t>Conformidad</t>
+          <t>Costar</t>
         </is>
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>Usar el nombre personalizado de Node RG (también conocido como 'Infra RG')</t>
+          <t>Usar una aplicación externa como kubecost para asignar clientes a diferentes usuarios</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
@@ -3822,7 +3822,7 @@
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/cluster-configuration</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/scenarios/aks/eslz-cost-governance-with-kubecost</t>
         </is>
       </c>
       <c r="I67" s="16" t="n"/>
@@ -3830,7 +3830,7 @@
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>73b32a5a-67f7-4a9e-b5b3-1f38c3f39812</t>
+          <t>F82CB8EB-8C0A-4A63-A25A-4956EAA8DC4A</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -3841,23 +3841,23 @@
     <row r="68" ht="16.5" customHeight="1" s="13">
       <c r="A68" s="22" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Gobernanza de costos</t>
         </is>
       </c>
       <c r="B68" s="22" t="inlineStr">
         <is>
-          <t>Conformidad</t>
+          <t>Costar</t>
         </is>
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>No utilice API de Kubernetes obsoletas en los manifiestos de YAML</t>
+          <t>Si es necesario, escale las instantáneas de NodePool</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
       <c r="E68" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3868,7 +3868,7 @@
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://kubernetes.io/docs/setup/release/notes/</t>
+          <t>https://learn.microsoft.com/azure/aks/node-pool-snapshot</t>
         </is>
       </c>
       <c r="I68" s="16" t="n"/>
@@ -3876,7 +3876,7 @@
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>b2463cff-e189-4c59-adf0-d5a73dd4ce32</t>
+          <t>F82CB8EB-8C0A-4A63-A25A-4956EAA8DC4A</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -3887,17 +3887,17 @@
     <row r="69" ht="16.5" customHeight="1" s="13">
       <c r="A69" s="22" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Gobernanza de costos</t>
         </is>
       </c>
       <c r="B69" s="22" t="inlineStr">
         <is>
-          <t>Conformidad</t>
+          <t>Costar</t>
         </is>
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>Nodos de Windows contaminados</t>
+          <t>Usar el modo de reducción vertical para eliminar/eliminar nodos</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
@@ -3914,7 +3914,7 @@
       <c r="G69" s="22" t="n"/>
       <c r="H69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure-stack/aks-hci/adapt-apps-mixed-os-clusters</t>
+          <t>https://learn.microsoft.com/azure/aks/scale-down-mode</t>
         </is>
       </c>
       <c r="I69" s="16" t="n"/>
@@ -3922,7 +3922,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>c1881370-6f7c-44c0-b4e5-14648d2457ed</t>
+          <t>F82CB8EB-8C0A-4A63-A25A-4956EAA8DC4A</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -3933,23 +3933,23 @@
     <row r="70" ht="16.5" customHeight="1" s="13">
       <c r="A70" s="22" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Gobernanza de costos</t>
         </is>
       </c>
       <c r="B70" s="22" t="inlineStr">
         <is>
-          <t>Conformidad</t>
+          <t>Costar</t>
         </is>
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>Mantenga sincronizado el nivel de revisión de contenedores de Windows con el nivel de revisión de host</t>
+          <t>Cuando sea necesario, use la GPU de partioning de varias instancias en clústeres de AKS</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
       <c r="E70" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3960,7 +3960,7 @@
       <c r="G70" s="22" t="n"/>
       <c r="H70" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/virtualization/windowscontainers/deploy-containers/version-compatibility?tabs=windows-server-20H2%2Cwindows-10-20H2</t>
+          <t>https://learn.microsoft.com/azure/aks/gpu-multi-instance</t>
         </is>
       </c>
       <c r="I70" s="16" t="n"/>
@@ -3968,7 +3968,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>67138b82-0102-4ce1-9ee3-01e6e882e52e</t>
+          <t>F82CB8EB-8C0A-4A63-A25A-4956EAA8DC4A</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -3979,23 +3979,23 @@
     <row r="71" ht="16.5" customHeight="1" s="13">
       <c r="A71" s="22" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Gobernanza de costos</t>
         </is>
       </c>
       <c r="B71" s="22" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Costar</t>
         </is>
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>Supervisar la utilización de la CPU y la memoria de los nodos</t>
+          <t>Si ejecuta un clúster de desarrollo y pruebas, utilice NodePool Start/Stop</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
       <c r="E71" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4006,7 +4006,7 @@
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/containers/container-insights-analyze</t>
+          <t>https://learn.microsoft.com/azure/aks/start-stop-nodepools</t>
         </is>
       </c>
       <c r="I71" s="16" t="n"/>
@@ -4014,7 +4014,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>4621dd68-c5a5-4be2-bdb1-1726769ef669</t>
+          <t>F82CB8EB-8C0A-4A63-A25A-4956EAA8DC4A</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4030,18 +4030,18 @@
       </c>
       <c r="B72" s="22" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>Si usa Azure CNI, supervise % de ip de pod consumidas por nodo</t>
+          <t>Usar discos de SO efímeros</t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
       <c r="E72" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4052,7 +4052,7 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
+          <t>https://docs.microsoft.com/azure/aks/cluster-configuration</t>
         </is>
       </c>
       <c r="I72" s="16" t="n"/>
@@ -4060,7 +4060,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>1a4835ac-9422-423e-ae80-b123081a5417</t>
+          <t>24367b33-6971-45b1-952b-eee0b9b588de</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4076,22 +4076,18 @@
       </c>
       <c r="B73" s="22" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>Supervisar la profundidad de la cola de disco del sistema operativo en los nodos</t>
-        </is>
-      </c>
-      <c r="D73" s="22" t="inlineStr">
-        <is>
-          <t>La E/S en el disco del sistema operativo es un recurso crítico. Si el sistema operativo de los nodos se limita en E/S, esto podría conducir a un comportamiento impredecible, que normalmente termina en el nodo declarado NotReady</t>
-        </is>
-      </c>
+          <t>Para discos no efímeros, use IOPS altas y discos de sistema operativo más grandes para los nodos cuando ejecute muchos pods / nodos, ya que requiere un alto rendimiento para ejecutar varios pods y generará registros enormes con umbrales de rotación de registros de AKS predeterminados</t>
+        </is>
+      </c>
+      <c r="D73" s="22" t="n"/>
       <c r="E73" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4102,7 +4098,7 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/premium-storage-performance</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/disks-types</t>
         </is>
       </c>
       <c r="I73" s="16" t="n"/>
@@ -4110,7 +4106,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>415833ea-3ad3-4c2d-b733-165c3acbe04b</t>
+          <t>FC4972CC-3CD2-45BF-A707-6E9EAB4BED32</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4126,18 +4122,18 @@
       </c>
       <c r="B74" s="22" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Si no utiliza el filtrado de salida con AzFW/NVA, supervise los puertos SNAT alB estándar asignados</t>
+          <t>Para la opción de almacenamiento de hiperrendimiento, use Ultra Disks en AKS</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
       <c r="E74" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4148,7 +4144,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/load-balancer-standard</t>
+          <t>https://learn.microsoft.com/azure/aks/use-ultra-disks</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4156,7 +4152,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>be209d39-fda4-4777-a424-d116785c2fa5</t>
+          <t>FC4972CC-3CD2-45BF-A707-6E9EAB4BED32</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4172,12 +4168,12 @@
       </c>
       <c r="B75" s="22" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Suscribirse a las notificaciones de estado de los recursos para su clúster de AKS</t>
+          <t>Evite mantener el estado en el clúster y almacene datos fuera (AzStorage, AzSQL, Cosmos, etc.)</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
@@ -4194,7 +4190,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/aks-resource-health</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-multi-region</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4202,7 +4198,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>74c2ee76-569b-4a79-a57e-dedf91b022c9</t>
+          <t>9f7547c1-747d-4c56-868a-714435bd19dd</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4218,22 +4214,18 @@
       </c>
       <c r="B76" s="22" t="inlineStr">
         <is>
-          <t>Conformidad</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Enviar registros maestros (también conocidos como registros de API) a Azure Monitor o a su solución de administración de registros preferida</t>
-        </is>
-      </c>
-      <c r="D76" s="22" t="inlineStr">
-        <is>
-          <t>A través de la configuración de diagnóstico a nivel de clúster</t>
-        </is>
-      </c>
+          <t>Si utiliza AzFiles Standard, considere AzFiles Premium y/o ANF por razones de rendimiento</t>
+        </is>
+      </c>
+      <c r="D76" s="22" t="n"/>
       <c r="E76" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4244,7 +4236,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/monitor-aks</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-storage</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4252,7 +4244,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>5b56ad48-408f-4e72-934c-476ba280dcf5</t>
+          <t>24429eb7-2281-4376-85cc-57b4a4b18142</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4268,12 +4260,12 @@
       </c>
       <c r="B77" s="22" t="inlineStr">
         <is>
-          <t>Escalabilidad</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Usar el escalador automático de clústeres</t>
+          <t>Si usa discos y zonas de disponibilidad de Azure, considere la posibilidad de tener grupos de nodos dentro de una zona para el disco LRS con VolumeBindingMode:WaitForFirstConsumer para aprovisionar almacenamiento en la zona correcta o use el disco ZRS para grupos de nodos que abarcan varias zonas</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
@@ -4290,7 +4282,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/concepts-scale</t>
+          <t>https://docs.microsoft.com/azure/aks/availability-zones#azure-disk-availability-zone-support</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4298,7 +4290,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>90ce65de-8e13-4f9c-abd4-69266abca264</t>
+          <t>83958a8c-2689-4b32-ab57-cfc64546135a</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4314,18 +4306,18 @@
       </c>
       <c r="B78" s="22" t="inlineStr">
         <is>
-          <t>Escalabilidad</t>
+          <t>Conformidad</t>
         </is>
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Utilice el escalador automático de pod horizontal cuando sea necesario</t>
+          <t>Consulte periódicamente Azure Advisor para obtener recomendaciones sobre el clúster</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
       <c r="E78" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4336,7 +4328,7 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/concepts-scale</t>
+          <t>https://docs.microsoft.com/azure/advisor/advisor-get-started</t>
         </is>
       </c>
       <c r="I78" s="16" t="n"/>
@@ -4344,7 +4336,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>faa19bfe-9d55-4d04-a3c4-919ca1b2d121</t>
+          <t>337453a3-cc63-4963-9a65-22ac19e80696</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4360,22 +4352,18 @@
       </c>
       <c r="B79" s="22" t="inlineStr">
         <is>
-          <t>Escalabilidad</t>
+          <t>Conformidad</t>
         </is>
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>Considere un tamaño de nodo apropiado, no demasiado grande o demasiado pequeño</t>
-        </is>
-      </c>
-      <c r="D79" s="22" t="inlineStr">
-        <is>
-          <t>Los nodos más grandes traerán un mayor rendimiento y características como discos efímeros y redes aceleradas, pero aumentarán el radio de explosión y disminuirán la granularidad de escalado.</t>
-        </is>
-      </c>
+          <t>Desarrolle sus manifiestos YAML con editores de texto inteligentes como vscode+kubeadvisor</t>
+        </is>
+      </c>
+      <c r="D79" s="22" t="n"/>
       <c r="E79" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4386,7 +4374,7 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://blog.cloudtrooper.net/2020/10/23/which-vm-size-should-i-choose-as-aks-node/</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
         </is>
       </c>
       <c r="I79" s="16" t="n"/>
@@ -4394,7 +4382,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>5388e9de-d167-4dd1-a2b0-ac241b999a64</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4410,18 +4398,18 @@
       </c>
       <c r="B80" s="22" t="inlineStr">
         <is>
-          <t>Recursos</t>
+          <t>Conformidad</t>
         </is>
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>Configurar solicitudes y límites en las especificaciones del pod</t>
+          <t>Habilitar la rotación automática de certificados de AKS</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
       <c r="E80" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4432,7 +4420,7 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
+          <t>https://learn.microsoft.com/azure/aks/certificate-rotation</t>
         </is>
       </c>
       <c r="I80" s="16" t="n"/>
@@ -4440,7 +4428,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>b54eb2eb-03dd-4aa3-9927-18e2edb11726</t>
+          <t>5388e9de-d167-4dd1-a2b0-ac241b999a64</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4456,18 +4444,18 @@
       </c>
       <c r="B81" s="22" t="inlineStr">
         <is>
-          <t>Recursos</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>Aplicar cuotas de recursos para espacios de nombres</t>
+          <t>Supervise las métricas de su clúster con Container Insights (u otras herramientas como Prometheus)</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
       <c r="E81" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4478,7 +4466,7 @@
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-overview</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4486,7 +4474,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>769ef669-1a48-435a-a942-223ece80b123</t>
+          <t>6f8389a7-f82c-4b8e-a8c0-aa63a25a4956</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4502,12 +4490,12 @@
       </c>
       <c r="B82" s="22" t="inlineStr">
         <is>
-          <t>Recursos</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que su suscripción tenga suficiente cuota para escalar horizontalmente sus grupos de nodos</t>
+          <t>Almacene y analice sus registros de clúster con Container Insights (u otras herramientas como Telegraf/ElasticSearch)</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
@@ -4524,7 +4512,7 @@
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-overview</t>
         </is>
       </c>
       <c r="I82" s="16" t="n"/>
@@ -4532,7 +4520,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>081a5417-4158-433e-a3ad-3c2de733165c</t>
+          <t>EAA8DC4A-2436-47B3-9697-15B1752BEE0</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4543,23 +4531,23 @@
     <row r="83" ht="15.75" customHeight="1" s="13">
       <c r="A83" s="22" t="inlineStr">
         <is>
-          <t>Implementación de aplicaciones</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B83" s="22" t="inlineStr">
         <is>
-          <t>Infraestructura como código</t>
+          <t>Alertas</t>
         </is>
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>Uso de la automatización a través de ARM/TF para crear los recursos de Azure</t>
+          <t>Configurar alertas sobre las métricas más críticas (consulte Container Insights para obtener recomendaciones)</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
       <c r="E83" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4570,7 +4558,7 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/developer/terraform/create-k8s-cluster-with-tf-and-aks</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-metric-alerts</t>
         </is>
       </c>
       <c r="I83" s="16" t="n"/>
@@ -4578,7 +4566,7 @@
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>3acbe04b-be20-49d3-afda-47778424d116</t>
+          <t>67f7a9ed-5b31-4f38-a3f3-9812b2463cff</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4589,23 +4577,23 @@
     <row r="84" ht="16.5" customHeight="1" s="13">
       <c r="A84" s="22" t="inlineStr">
         <is>
-          <t>Implementación de aplicaciones</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B84" s="22" t="inlineStr">
         <is>
-          <t>Desarrollo</t>
+          <t>Conformidad</t>
         </is>
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>Usar implementaciones canarias o azules/verdes</t>
+          <t>Tenga un proceso regular para actualizar su versión de kubernetes periódicamente (trimestralmente, por ejemplo) o use la función de actualización automática de AKS</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
       <c r="E84" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4616,7 +4604,7 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/containers/aks/secure-baseline-aks</t>
+          <t>https://docs.microsoft.com/azure/aks/supported-kubernetes-versions</t>
         </is>
       </c>
       <c r="I84" s="16" t="n"/>
@@ -4624,7 +4612,7 @@
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>785c2fa5-5b56-4ad4-a408-fe72734c476b</t>
+          <t>E189C599-DF0D-45A7-9DD4-CE32C1881370</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4635,23 +4623,23 @@
     <row r="85" ht="16.5" customHeight="1" s="13">
       <c r="A85" s="22" t="inlineStr">
         <is>
-          <t>Implementación de aplicaciones</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B85" s="22" t="inlineStr">
         <is>
-          <t>Desarrollo</t>
+          <t>Conformidad</t>
         </is>
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t>Usar KEDA si se ejecutan cargas de trabajo controladas por eventos</t>
+          <t>Utilice kured para actualizaciones de nodos de Linux en caso de que no esté utilizando la actualización de imagen de nodo</t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
       <c r="E85" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4662,7 +4650,7 @@
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-functions/functions-kubernetes-keda</t>
+          <t>https://docs.microsoft.com/azure/aks/node-updates-kured</t>
         </is>
       </c>
       <c r="I85" s="16" t="n"/>
@@ -4670,7 +4658,7 @@
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>a280dcf5-90ce-465d-b8e1-3f9ccbd46926</t>
+          <t>6f7c4c0d-4e51-4464-ad24-57ed67138b82</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4681,23 +4669,23 @@
     <row r="86" ht="16.5" customHeight="1" s="13">
       <c r="A86" s="22" t="inlineStr">
         <is>
-          <t>Implementación de aplicaciones</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B86" s="22" t="inlineStr">
         <is>
-          <t>Desarrollo</t>
+          <t>Conformidad</t>
         </is>
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>Utilice Dapr para facilitar el desarrollo de microservicios</t>
+          <t>Tener un proceso regular para actualizar las imágenes del nodo del clúster periódicamente (semanalmente, por ejemplo)</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
       <c r="E86" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4708,7 +4696,7 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://dapr.io/</t>
+          <t>https://docs.microsoft.com/azure/aks/node-image-upgrade</t>
         </is>
       </c>
       <c r="I86" s="16" t="n"/>
@@ -4716,7 +4704,7 @@
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>26886d20-b66c-457b-a591-19bf8e8f5c58</t>
+          <t>139c9580-ade3-426a-ba09-cf157d9f6477</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4727,46 +4715,42 @@
     <row r="87" ht="16.5" customHeight="1" s="13">
       <c r="A87" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B87" s="22" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Conformidad</t>
         </is>
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>Don't use virtual network service endpoints when there are data exfiltration concerns, unless you use NVA filtering.</t>
+          <t>Considere gitops para implementar aplicaciones o configuración de clústeres en varios clústeres</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
       <c r="E87" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>No verificado</t>
         </is>
       </c>
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I87" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/bedrock/bedrock-automated-deployments</t>
+        </is>
+      </c>
+      <c r="I87" s="16" t="n"/>
       <c r="J87" s="23" t="n"/>
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>0102CE16-EE30-41E6-B882-E52E4621DD68</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -4777,46 +4761,42 @@
     <row r="88" ht="16.5" customHeight="1" s="13">
       <c r="A88" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B88" s="22" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Conformidad</t>
         </is>
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>Don't implement forced tunneling to enable communication from Azure to Azure resources.</t>
+          <t>Considere la posibilidad de usar la invocación del comando AKS en clústeres privados</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
       <c r="E88" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>No verificado</t>
         </is>
       </c>
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I88" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/aks/command-invoke</t>
+        </is>
+      </c>
+      <c r="I88" s="16" t="n"/>
       <c r="J88" s="23" t="n"/>
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
+          <t>0102CE16-EE30-41E6-B882-E52E4621DD68</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -4827,46 +4807,42 @@
     <row r="89" ht="16.5" customHeight="1" s="13">
       <c r="A89" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B89" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Costar</t>
         </is>
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
+          <t>Considere la posibilidad de agrupar de nodos puntuales para cargas de trabajo que no sean urgentes</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
       <c r="E89" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>No verificado</t>
         </is>
       </c>
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I89" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/aks/spot-node-pool</t>
+        </is>
+      </c>
+      <c r="I89" s="16" t="n"/>
       <c r="J89" s="23" t="n"/>
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>c5a5b252-1e44-4a59-a9d2-399c4d7b68d0</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -4877,46 +4853,42 @@
     <row r="90" ht="16.5" customHeight="1" s="13">
       <c r="A90" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B90" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Costar</t>
         </is>
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Use Firewall Manager with Virtual WAN to deploy and manage Azure firewalls across Virtual WAN hubs or in hub virtual networks. Firewall Manager is now in general availability for both Virtual WAN and regular virtual networks.</t>
+          <t>Considere el nodo virtual AKS para una ráfaga rápida</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
       <c r="E90" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>No verificado</t>
         </is>
       </c>
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I90" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/aks/concepts-scale</t>
+        </is>
+      </c>
+      <c r="I90" s="16" t="n"/>
       <c r="J90" s="23" t="n"/>
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
+          <t>C755562F-2B4E-4456-9B4D-874A748B662E</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -4927,46 +4899,42 @@
     <row r="91" ht="16.5" customHeight="1" s="13">
       <c r="A91" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B91" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Conformidad</t>
         </is>
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
+          <t>Para eventos planificados, considere la posibilidad de utilizar Node Auto Drain</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
       <c r="E91" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>No verificado</t>
         </is>
       </c>
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I91" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/aks/node-auto-repair#node-autodrain</t>
+        </is>
+      </c>
+      <c r="I91" s="16" t="n"/>
       <c r="J91" s="23" t="n"/>
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>31d7aaab-7571-4449-ab80-53d89e89d17b</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -4977,46 +4945,42 @@
     <row r="92" ht="16.5" customHeight="1" s="13">
       <c r="A92" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B92" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Conformidad</t>
         </is>
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
+          <t>Desarrollar prácticas gubernamentales propias para asegurarse de que los operadores no realicen cambios en el nodo RG (también conocido como 'infra RG')</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
       <c r="E92" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>No verificado</t>
         </is>
       </c>
       <c r="G92" s="22" t="n"/>
       <c r="H92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I92" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/aks/faq</t>
+        </is>
+      </c>
+      <c r="I92" s="16" t="n"/>
       <c r="J92" s="23" t="n"/>
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>31d7aaab-7571-4449-ab80-53d89e89d17b</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5027,46 +4991,42 @@
     <row r="93" ht="16.5" customHeight="1" s="13">
       <c r="A93" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B93" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Conformidad</t>
         </is>
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Use WAF within a landing-zone virtual network for protecting inbound HTTP/S traffic from the internet.</t>
+          <t>Usar el nombre RG de nodo personalizado (también conocido como 'Infra RG')</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
       <c r="E93" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>No verificado</t>
         </is>
       </c>
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I93" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/aks/cluster-configuration</t>
+        </is>
+      </c>
+      <c r="I93" s="16" t="n"/>
       <c r="J93" s="23" t="n"/>
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+          <t>73b32a5a-67f7-4a9e-b5b3-1f38c3f39812</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5077,46 +5037,42 @@
     <row r="94" ht="16.5" customHeight="1" s="13">
       <c r="A94" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B94" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Conformidad</t>
         </is>
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
+          <t>No use API de Kubernetes obsoletas en sus manifiestos YAML</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
       <c r="E94" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>No verificado</t>
         </is>
       </c>
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
-        </is>
-      </c>
-      <c r="I94" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://kubernetes.io/docs/setup/release/notes/</t>
+        </is>
+      </c>
+      <c r="I94" s="16" t="n"/>
       <c r="J94" s="23" t="n"/>
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>b2463cff-e189-4c59-adf0-d5a73dd4ce32</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5127,46 +5083,42 @@
     <row r="95" ht="16.5" customHeight="1" s="13">
       <c r="A95" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B95" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Conformidad</t>
         </is>
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
+          <t>Nodos de Windows</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
       <c r="E95" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>No verificado</t>
         </is>
       </c>
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I95" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure-stack/aks-hci/adapt-apps-mixed-os-clusters</t>
+        </is>
+      </c>
+      <c r="I95" s="16" t="n"/>
       <c r="J95" s="23" t="n"/>
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>c1881370-6f7c-44c0-b4e5-14648d2457ed</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5177,46 +5129,42 @@
     <row r="96" ht="16.5" customHeight="1" s="13">
       <c r="A96" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B96" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Conformidad</t>
         </is>
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>If partner NVAs are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
+          <t>Mantenga el nivel de revisión de los contenedores de Windows sincronizado con el nivel de revisión del host</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
       <c r="E96" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>No verificado</t>
         </is>
       </c>
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I96" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/virtualization/windowscontainers/deploy-containers/version-compatibility?tabs=windows-server-20H2%2Cwindows-10-20H2</t>
+        </is>
+      </c>
+      <c r="I96" s="16" t="n"/>
       <c r="J96" s="23" t="n"/>
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>67138B82-0102-4CE1-9EE3-01E6E882E52E</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5227,46 +5175,42 @@
     <row r="97" ht="16.5" customHeight="1" s="13">
       <c r="A97" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B97" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Use Azure DDoS Protection Standard protection plans to help protect all public endpoints hosted within the virtual networks.</t>
+          <t>Supervisar la utilización de CPU y memoria de los nodos</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
       <c r="E97" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>No verificado</t>
         </is>
       </c>
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
-        </is>
-      </c>
-      <c r="I97" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/azure-monitor/containers/container-insights-analyze</t>
+        </is>
+      </c>
+      <c r="I97" s="16" t="n"/>
       <c r="J97" s="23" t="n"/>
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>4621dd68-c5a5-4be2-bdb1-1726769ef669</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5277,46 +5221,42 @@
     <row r="98" ht="16.5" customHeight="1" s="13">
       <c r="A98" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B98" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>Perform app delivery within landing zones for both internal-facing (corp) and external-facing apps (online).</t>
+          <t>Si usa CNI de Azure, supervise el % de direcciones IP de pod consumidas por nodo</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
       <c r="E98" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>No verificado</t>
         </is>
       </c>
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
-        </is>
-      </c>
-      <c r="I98" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
+        </is>
+      </c>
+      <c r="I98" s="16" t="n"/>
       <c r="J98" s="23" t="n"/>
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>1A4835AC-9422-423E-AE80-B123081A5417</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5327,46 +5267,46 @@
     <row r="99" ht="16.5" customHeight="1" s="13">
       <c r="A99" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B99" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>For secure delivery of HTTP/S apps, use Application Gateway v2 and ensure that WAF protection and policies are enabled.</t>
-        </is>
-      </c>
-      <c r="D99" s="22" t="n"/>
+          <t>Supervisar la profundidad de la cola de disco del sistema operativo en los nodos</t>
+        </is>
+      </c>
+      <c r="D99" s="22" t="inlineStr">
+        <is>
+          <t>La E/S en el disco del sistema operativo es un recurso crítico. Si el sistema operativo en los nodos se limita en E/S, esto podría conducir a un comportamiento impredecible, que normalmente termina en un nodo que se declara NotReady</t>
+        </is>
+      </c>
       <c r="E99" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>No verificado</t>
         </is>
       </c>
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
-        </is>
-      </c>
-      <c r="I99" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/virtual-machines/premium-storage-performance</t>
+        </is>
+      </c>
+      <c r="I99" s="16" t="n"/>
       <c r="J99" s="23" t="n"/>
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
+          <t>415833ea-3ad3-4c2d-b733-165c3acbe04b</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5377,46 +5317,42 @@
     <row r="100" ht="16.5" customHeight="1" s="13">
       <c r="A100" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B100" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>Use a partner NVA if you can't use Application Gateway v2 for the security of HTTP/S apps.</t>
+          <t>Si no utiliza el filtrado de salida con AzFW/NVA, supervise los puertos SNAT asignados ALB estándar</t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
       <c r="E100" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>No verificado</t>
         </is>
       </c>
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
-        </is>
-      </c>
-      <c r="I100" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/aks/load-balancer-standard</t>
+        </is>
+      </c>
+      <c r="I100" s="16" t="n"/>
       <c r="J100" s="23" t="n"/>
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
+          <t>BE209D39-FDA4-4777-A424-D116785C2FA5</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5427,46 +5363,42 @@
     <row r="101" ht="16.5" customHeight="1" s="13">
       <c r="A101" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B101" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>Deploy Azure Application Gateway v2 or partner NVAs used for inbound HTTP/S connections within the landing-zone virtual network and with the apps that they're securing.</t>
+          <t>Suscribirse a las notificaciones de estado de recursos para el clúster de AKS</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
       <c r="E101" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>No verificado</t>
         </is>
       </c>
       <c r="G101" s="22" t="n"/>
       <c r="H101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I101" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/aks/aks-resource-health</t>
+        </is>
+      </c>
+      <c r="I101" s="16" t="n"/>
       <c r="J101" s="23" t="n"/>
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>74c2ee76-569b-4a79-a57e-dedf91b022c9</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5477,46 +5409,46 @@
     <row r="102" ht="16.5" customHeight="1" s="13">
       <c r="A102" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B102" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Conformidad</t>
         </is>
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Use a DDoS standard protection plan for all public IP addresses in a landing zone.</t>
-        </is>
-      </c>
-      <c r="D102" s="22" t="n"/>
+          <t>Enviar registros maestros (también conocidos como registros de API) a Azure Monitor o a su solución de administración de registros preferida</t>
+        </is>
+      </c>
+      <c r="D102" s="22" t="inlineStr">
+        <is>
+          <t>Mediante la configuración de diagnóstico en el nivel de clúster</t>
+        </is>
+      </c>
       <c r="E102" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>No verificado</t>
         </is>
       </c>
       <c r="G102" s="22" t="n"/>
       <c r="H102" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I102" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/aks/monitor-aks</t>
+        </is>
+      </c>
+      <c r="I102" s="16" t="n"/>
       <c r="J102" s="23" t="n"/>
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>5B56AD48-408F-4E72-934C-476BA280DCF5</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5527,46 +5459,42 @@
     <row r="103" ht="16.5" customHeight="1" s="13">
       <c r="A103" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B103" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Escalabilidad</t>
         </is>
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Front Door with WAF policies to deliver and help protect global HTTP/S apps that span Azure regions.</t>
+          <t>Usar el escalador automático de clúster</t>
         </is>
       </c>
       <c r="D103" s="22" t="n"/>
       <c r="E103" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>No verificado</t>
         </is>
       </c>
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I103" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/aks/concepts-scale</t>
+        </is>
+      </c>
+      <c r="I103" s="16" t="n"/>
       <c r="J103" s="23" t="n"/>
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>90ce65de-8e13-4f9c-abd4-69266abca264</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5577,46 +5505,42 @@
     <row r="104" ht="16.5" customHeight="1" s="13">
       <c r="A104" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B104" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Escalabilidad</t>
         </is>
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>When using Front Door and Application Gateway to help protect HTTP/S apps, use WAF policies in Front Door. Lock down Application Gateway to receive traffic only from Front Door.</t>
+          <t>Personalizar la configuración de nodos para grupos de nodos AKS</t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
       <c r="E104" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>No verificado</t>
         </is>
       </c>
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
-        </is>
-      </c>
-      <c r="I104" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/aks/custom-node-configuration</t>
+        </is>
+      </c>
+      <c r="I104" s="16" t="n"/>
       <c r="J104" s="23" t="n"/>
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>90ce65de-8e13-4f9c-abd4-69266abca264</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5627,46 +5551,42 @@
     <row r="105" ht="16.5" customHeight="1" s="13">
       <c r="A105" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B105" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Escalabilidad</t>
         </is>
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>Use Traffic Manager to deliver global apps that span protocols other than HTTP/S.</t>
+          <t>Utilice el escalador automático de pod horizontal cuando sea necesario</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
       <c r="E105" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>No verificado</t>
         </is>
       </c>
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I105" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/aks/concepts-scale</t>
+        </is>
+      </c>
+      <c r="I105" s="16" t="n"/>
       <c r="J105" s="23" t="n"/>
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>FAA19BFE-9D55-4D04-A3C4-919CA1B2D121</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5677,46 +5597,46 @@
     <row r="106" ht="16.5" customHeight="1" s="13">
       <c r="A106" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Escalabilidad</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>If users only need access to internal applications, has Azure AD Application Proxy been considered as an alternative to Azure Virtual Desktop (AVD)?</t>
-        </is>
-      </c>
-      <c r="D106" s="22" t="n"/>
+          <t>Considere un tamaño de nodo apropiado, ni demasiado grande ni demasiado pequeño</t>
+        </is>
+      </c>
+      <c r="D106" s="22" t="inlineStr">
+        <is>
+          <t>Los nodos más grandes traerán un mayor rendimiento y características como discos efímeros y redes aceleradas, pero aumentarán el radio de explosión y disminuirán la granularidad de escalado.</t>
+        </is>
+      </c>
       <c r="E106" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>No verificado</t>
         </is>
       </c>
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
-        </is>
-      </c>
-      <c r="I106" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
-        </is>
-      </c>
+          <t>https://blog.cloudtrooper.net/2020/10/23/which-vm-size-should-i-choose-as-aks-node/</t>
+        </is>
+      </c>
+      <c r="I106" s="16" t="n"/>
       <c r="J106" s="23" t="n"/>
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5727,46 +5647,46 @@
     <row r="107" ht="16.5" customHeight="1" s="13">
       <c r="A107" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B107" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Escalabilidad</t>
         </is>
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
-        </is>
-      </c>
-      <c r="D107" s="22" t="n"/>
+          <t>Si es necesario para la escalabilidad, considere agregar más de 5000 nodos</t>
+        </is>
+      </c>
+      <c r="D107" s="22" t="inlineStr">
+        <is>
+          <t>Los nodos más grandes traerán un mayor rendimiento y características como discos efímeros y redes aceleradas, pero aumentarán el radio de explosión y disminuirán la granularidad de escalado.</t>
+        </is>
+      </c>
       <c r="E107" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>No verificado</t>
         </is>
       </c>
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I107" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/aks/quotas-skus-regions#service-quotas-and-limits</t>
+        </is>
+      </c>
+      <c r="I107" s="16" t="n"/>
       <c r="J107" s="23" t="n"/>
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -5777,46 +5697,46 @@
     <row r="108" ht="16.5" customHeight="1" s="13">
       <c r="A108" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B108" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Escalabilidad</t>
         </is>
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>To reduce the number of firewall ports open for incoming connections in your network, consider using Azure AD Application Proxy to give remote users secure and authenticated access to internal applications.</t>
-        </is>
-      </c>
-      <c r="D108" s="22" t="n"/>
+          <t>Considere la posibilidad de suscribirse a EventGrid Events para la automatización de AKS</t>
+        </is>
+      </c>
+      <c r="D108" s="22" t="inlineStr">
+        <is>
+          <t>Los nodos más grandes traerán un mayor rendimiento y características como discos efímeros y redes aceleradas, pero aumentarán el radio de explosión y disminuirán la granularidad de escalado.</t>
+        </is>
+      </c>
       <c r="E108" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>No verificado</t>
         </is>
       </c>
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
-        </is>
-      </c>
-      <c r="I108" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/event-grid/event-schema-aks</t>
+        </is>
+      </c>
+      <c r="I108" s="16" t="n"/>
       <c r="J108" s="23" t="n"/>
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -5827,46 +5747,46 @@
     <row r="109" ht="16.5" customHeight="1" s="13">
       <c r="A109" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B109" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Escalabilidad</t>
         </is>
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
-        </is>
-      </c>
-      <c r="D109" s="22" t="n"/>
+          <t>Para una operación de ejecución prolongada en un clúster de AKS, considere la finalización de eventos</t>
+        </is>
+      </c>
+      <c r="D109" s="22" t="inlineStr">
+        <is>
+          <t>Los nodos más grandes traerán un mayor rendimiento y características como discos efímeros y redes aceleradas, pero aumentarán el radio de explosión y disminuirán la granularidad de escalado.</t>
+        </is>
+      </c>
       <c r="E109" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>No verificado</t>
         </is>
       </c>
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I109" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/aks/manage-abort-operations</t>
+        </is>
+      </c>
+      <c r="I109" s="16" t="n"/>
       <c r="J109" s="23" t="n"/>
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -5877,46 +5797,46 @@
     <row r="110" ht="16.5" customHeight="1" s="13">
       <c r="A110" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B110" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Escalabilidad</t>
         </is>
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
-        </is>
-      </c>
-      <c r="D110" s="22" t="n"/>
+          <t>Si es necesario, considere la posibilidad de usar Azure Dedicated Hosts para nodos AKS</t>
+        </is>
+      </c>
+      <c r="D110" s="22" t="inlineStr">
+        <is>
+          <t>Los nodos más grandes traerán un mayor rendimiento y características como discos efímeros y redes aceleradas, pero aumentarán el radio de explosión y disminuirán la granularidad de escalado.</t>
+        </is>
+      </c>
       <c r="E110" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>No verificado</t>
         </is>
       </c>
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
-        </is>
-      </c>
-      <c r="I110" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/aks/use-azure-dedicated-hosts</t>
+        </is>
+      </c>
+      <c r="I110" s="16" t="n"/>
       <c r="J110" s="23" t="n"/>
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -5927,46 +5847,41 @@
     <row r="111" ht="16.5" customHeight="1" s="13">
       <c r="A111" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B111" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Recursos</t>
         </is>
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
+          <t>Configurar solicitudes y límites en las especificaciones de tu pod</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
       <c r="E111" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>No verificado</t>
         </is>
       </c>
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>b54eb2eb-03dd-4aa3-9927-18e2edb11726</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -5977,46 +5892,42 @@
     <row r="112" ht="16.5" customHeight="1" s="13">
       <c r="A112" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B112" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Recursos</t>
         </is>
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
+          <t>Aplicar cuotas de recursos para espacios de nombres</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
       <c r="E112" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>No verificado</t>
         </is>
       </c>
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I112" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
+        </is>
+      </c>
+      <c r="I112" s="16" t="n"/>
       <c r="J112" s="23" t="n"/>
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>769EF669-1A48-435A-A942-223ECE80B123</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6027,46 +5938,42 @@
     <row r="113" ht="16.5" customHeight="1" s="13">
       <c r="A113" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B113" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Recursos</t>
         </is>
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs to selectively allow connectivity between landing zones.</t>
+          <t>Asegúrese de que su suscripción tenga suficiente cuota para escalar horizontalmente sus grupos de nodos</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
       <c r="E113" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>No verificado</t>
         </is>
       </c>
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I113" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+        </is>
+      </c>
+      <c r="I113" s="16" t="n"/>
       <c r="J113" s="23" t="n"/>
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>081A5417-4158-433E-A3AD-3C2DE733165C</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6077,46 +5984,42 @@
     <row r="114" ht="16.5" customHeight="1" s="13">
       <c r="A114" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Implementación de aplicaciones</t>
         </is>
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Infraestructura como código</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>For Virtual WAN topologies, route traffic across landing zones via Azure Firewall if the organization requires filtering and logging capabilities for traffic flowing across landing zones.</t>
+          <t>Uso de la automatización a través de ARM/TF para crear los recursos de Azure</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
       <c r="E114" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>No verificado</t>
         </is>
       </c>
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I114" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/developer/terraform/create-k8s-cluster-with-tf-and-aks</t>
+        </is>
+      </c>
+      <c r="I114" s="16" t="n"/>
       <c r="J114" s="23" t="n"/>
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>3acbe04b-be20-49d3-afda-47778424d116</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6127,41 +6030,41 @@
     <row r="115" ht="16.5" customHeight="1" s="13">
       <c r="A115" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Implementación de aplicaciones</t>
         </is>
       </c>
       <c r="B115" s="22" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>Desarrollo</t>
         </is>
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>When you're using ExpressRoute Direct, configure MACsec in order to encrypt traffic at the layer-two level between the organization's routers and MSEE. The diagram shows this encryption in flow.</t>
+          <t>Usar implementaciones canarias o azules/verdes</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
       <c r="E115" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>No verificado</t>
         </is>
       </c>
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/containers/aks/secure-baseline-aks</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>785c2fa5-5b56-4ad4-a408-fe72734c476b</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6172,46 +6075,41 @@
     <row r="116" ht="16.5" customHeight="1" s="13">
       <c r="A116" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Implementación de aplicaciones</t>
         </is>
       </c>
       <c r="B116" s="22" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>Desarrollo</t>
         </is>
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>If traffic between Azure regions must be encrypted, use global VNet peering to connect virtual networks across regions.</t>
+          <t>Si se requiere para cargas de trabajo de Windows de AKS, se pueden usar contenedores de HostProcess</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
       <c r="E116" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>No verificado</t>
         </is>
       </c>
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/aks/use-windows-hpc</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
+          <t>785c2fa5-5b56-4ad4-a408-fe72734c476b</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6222,46 +6120,41 @@
     <row r="117" ht="16.5" customHeight="1" s="13">
       <c r="A117" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Implementación de aplicaciones</t>
         </is>
       </c>
       <c r="B117" s="22" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>Desarrollo</t>
         </is>
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">For Virtual WAN scenarios where MACsec isn't an option (for example, not using ExpressRoute Direct), use a Virtual WAN VPN gateway to establish IPsec tunnels over ExpressRoute private peering. </t>
+          <t>Usar KEDA si ejecuta cargas de trabajo controladas por eventos</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
       <c r="E117" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>No verificado</t>
         </is>
       </c>
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/azure/azure-functions/functions-kubernetes-keda</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>A280DCF5-90CE-465D-B8E1-3F9CCBD46926</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6272,46 +6165,42 @@
     <row r="118" ht="16.5" customHeight="1" s="13">
       <c r="A118" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Implementación de aplicaciones</t>
         </is>
       </c>
       <c r="B118" s="22" t="inlineStr">
         <is>
-          <t>Inspection</t>
+          <t>Desarrollo</t>
         </is>
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Use Network Watcher packets to capture despite the limited capture window.</t>
+          <t>Usar Dapr para facilitar el desarrollo de microservicios</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
       <c r="E118" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>No verificado</t>
         </is>
       </c>
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
-        </is>
-      </c>
-      <c r="I118" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
+          <t>https://dapr.io/</t>
+        </is>
+      </c>
+      <c r="I118" s="16" t="n"/>
       <c r="J118" s="23" t="n"/>
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+          <t>26886D20-B66C-457B-A591-19BF8E8F5C58</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -11535,7 +11424,7 @@
     <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F87" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F119" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -11646,7 +11535,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Esta comprobación aún no se ha analizado</t>
+          <t>Esta comprobación aún no se ha examinado</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -11720,7 +11609,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Esta comprobación se ha verificado y no hay más elementos de acción asociados a ella</t>
+          <t>Esta comprobación se ha comprobado y no hay más elementos de acción asociados a ella</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">

--- a/spreadsheet/aks_checklist.es.xlsx
+++ b/spreadsheet/aks_checklist.es.xlsx
@@ -977,7 +977,7 @@
     <row r="4" ht="17.25" customFormat="1" customHeight="1" s="5">
       <c r="A4" s="14" t="inlineStr">
         <is>
-          <t>Revisión de Azure AKS</t>
+          <t>Azure AKS Review</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>
@@ -1130,7 +1130,7 @@
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>BC14AEA6-E65D-48D9-A3AD-C218E6436B06</t>
+          <t>bc14aea6-e65d-48d9-a3ad-c218e6436b06</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1360,7 +1360,7 @@
       <c r="K13" s="23" t="n"/>
       <c r="L13" s="26" t="inlineStr">
         <is>
-          <t>C1288B3C-6A57-4CFC-9444-51E1A3D3453A</t>
+          <t>c1288b3c-6a57-4cfc-9444-51e1a3d3453a</t>
         </is>
       </c>
       <c r="M13" s="26" t="n"/>
@@ -1452,7 +1452,7 @@
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>ED127DD1-42B0-46B2-8C69-99A646F3389A</t>
+          <t>ed127dd1-42b0-46b2-8c69-99a646f3389a</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1544,7 +1544,7 @@
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>A2FE27B2-E287-401A-8352-BEDF79B488D</t>
+          <t>a2fe27b2-e287-401a-8352-beedf79b488d</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1590,7 +1590,7 @@
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>EEC4962C-C3BD-421B-B77F-26E5E6B3BEC3</t>
+          <t>eec4962c-c3bd-421b-b77f-26e5e6b3bec3</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -2279,7 +2279,7 @@
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>C4581559-BB91-463E-A908-AED8C44CE3B2</t>
+          <t>c4581559-bb91-463e-a908-aed8c44ce3b2</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2463,7 +2463,7 @@
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>CBD8AC2A-AEBC-4A2A-94Da-1DBF3DC99248</t>
+          <t>cbd8ac2a-aebc-4a2a-94da-1dbf3dc99248</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2555,7 +2555,7 @@
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>ECCCD979-3B6B-4CDA-9B50-EB2EB03DDA6D</t>
+          <t>ecccd979-3b6b-4cda-9b50-eb2eb03dda6d</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2601,7 +2601,7 @@
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>ECCCD979-3B6B-4CDA-9B50-EB2EB03DDA6D</t>
+          <t>ecccd979-3b6b-4cda-9b50-eb2eb03dda6d</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2983,7 +2983,7 @@
       </c>
       <c r="B49" s="22" t="inlineStr">
         <is>
-          <t>Tiene</t>
+          <t>JA</t>
         </is>
       </c>
       <c r="C49" s="22" t="inlineStr">
@@ -3012,7 +3012,7 @@
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>E8A03F97-8794-468D-96A7-86D60F96C97B</t>
+          <t>e8a03f97-8794-468d-96a7-86d60f96c97b</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3058,7 +3058,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>E9855D04-C3C3-49C9-A6BB-2C12159A114B</t>
+          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3104,7 +3104,7 @@
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>E9855D04-C3C3-49C9-A6BB-2C12159A114B</t>
+          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3150,7 +3150,7 @@
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>E9855D04-C3C3-49C9-A6BB-2C12159A114B</t>
+          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3195,7 +3195,7 @@
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>E9855D04-C3C3-49C9-A6BB-2C12159A114B</t>
+          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3421,7 +3421,7 @@
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>A7A1F893-9BDA-4477-98F2-4C116775C2EA</t>
+          <t>a7a1f893-9bda-4477-98f2-4c116775c2ea</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3556,7 +3556,7 @@
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>CC639637-A652-42AC-89E8-06965388E9DE</t>
+          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3601,7 +3601,7 @@
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>CC639637-A652-42AC-89E8-06965388E9DE</t>
+          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3647,7 +3647,7 @@
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>CC639637-A652-42AC-89E8-06965388E9DE</t>
+          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3693,7 +3693,7 @@
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>CC639637-A652-42AC-89E8-06965388E9DE</t>
+          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3739,7 +3739,7 @@
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>CC639637-A652-42AC-89E8-06965388E9DE</t>
+          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3784,7 +3784,7 @@
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>D167DD18-2B0A-4C24-8B99-9A646F8389A7</t>
+          <t>d167dd18-2b0a-4c24-8b99-9a646f8389a7</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3830,7 +3830,7 @@
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>F82CB8EB-8C0A-4A63-A25A-4956EAA8DC4A</t>
+          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -3876,7 +3876,7 @@
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>F82CB8EB-8C0A-4A63-A25A-4956EAA8DC4A</t>
+          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -3922,7 +3922,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>F82CB8EB-8C0A-4A63-A25A-4956EAA8DC4A</t>
+          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -3968,7 +3968,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>F82CB8EB-8C0A-4A63-A25A-4956EAA8DC4A</t>
+          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4014,7 +4014,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>F82CB8EB-8C0A-4A63-A25A-4956EAA8DC4A</t>
+          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4106,7 +4106,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>FC4972CC-3CD2-45BF-A707-6E9EAB4BED32</t>
+          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4152,7 +4152,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>FC4972CC-3CD2-45BF-A707-6E9EAB4BED32</t>
+          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4520,7 +4520,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>EAA8DC4A-2436-47B3-9697-15B1752BEE0</t>
+          <t>eaa8dc4a-2436-47b3-9697-15b1752beee0</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4612,7 +4612,7 @@
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>E189C599-DF0D-45A7-9DD4-CE32C1881370</t>
+          <t>e189c599-df0d-45a7-9dd4-ce32c1881370</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4750,7 +4750,7 @@
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>0102CE16-EE30-41E6-B882-E52E4621DD68</t>
+          <t>0102ce16-ee30-41e6-b882-e52e4621dd68</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -4796,7 +4796,7 @@
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>0102CE16-EE30-41E6-B882-E52E4621DD68</t>
+          <t>0102ce16-ee30-41e6-b882-e52e4621dd68</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -4888,7 +4888,7 @@
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>C755562F-2B4E-4456-9B4D-874A748B662E</t>
+          <t>c755562f-2b4e-4456-9b4d-874a748b662e</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -5164,7 +5164,7 @@
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>67138B82-0102-4CE1-9EE3-01E6E882E52E</t>
+          <t>67138b82-0102-4ce1-9ee3-01e6e882e52e</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5256,7 +5256,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>1A4835AC-9422-423E-AE80-B123081A5417</t>
+          <t>1a4835ac-9422-423e-ae80-b123081a5417</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5352,7 +5352,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>BE209D39-FDA4-4777-A424-D116785C2FA5</t>
+          <t>be209d39-fda4-4777-a424-d116785c2fa5</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5448,7 +5448,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>5B56AD48-408F-4E72-934C-476BA280DCF5</t>
+          <t>5b56ad48-408f-4e72-934c-476ba280dcf5</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5586,7 +5586,7 @@
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>FAA19BFE-9D55-4D04-A3C4-919CA1B2D121</t>
+          <t>faa19bfe-9d55-4d04-a3c4-919ca1b2d121</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5927,7 +5927,7 @@
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>769EF669-1A48-435A-A942-223ECE80B123</t>
+          <t>769ef669-1a48-435a-a942-223ece80b123</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -5973,7 +5973,7 @@
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>081A5417-4158-433E-A3AD-3C2DE733165C</t>
+          <t>081a5417-4158-433e-a3ad-3c2de733165c</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6154,7 +6154,7 @@
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>A280DCF5-90CE-465D-B8E1-3F9CCBD46926</t>
+          <t>a280dcf5-90ce-465d-b8e1-3f9ccbd46926</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6200,7 +6200,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>26886D20-B66C-457B-A591-19BF8E8F5C58</t>
+          <t>26886d20-b66c-457b-a591-19bf8e8f5c58</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -7110,7 +7110,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Employ Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
+          <t>Use Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -11399,7 +11399,7 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="9">
+  <dataValidations count="13">
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
@@ -11416,6 +11416,18 @@
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
     <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">

--- a/spreadsheet/aks_checklist.es.xlsx
+++ b/spreadsheet/aks_checklist.es.xlsx
@@ -1243,7 +1243,7 @@
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Use zonas de disponibilidad si se admiten en su región de Azure</t>
+          <t>Use zonas de disponibilidad si son compatibles en su región de Azure</t>
         </is>
       </c>
       <c r="D11" s="22" t="n"/>

--- a/spreadsheet/aks_checklist.es.xlsx
+++ b/spreadsheet/aks_checklist.es.xlsx
@@ -1095,23 +1095,23 @@
     <row r="8" ht="16.5" customHeight="1" s="13">
       <c r="A8" s="22" t="inlineStr">
         <is>
-          <t>BC y DR</t>
+          <t>Implementación de aplicaciones</t>
         </is>
       </c>
       <c r="B8" s="22" t="inlineStr">
         <is>
-          <t>Requisitos</t>
+          <t>Desarrollo</t>
         </is>
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>Defina requisitos no funcionales como SLAs, RTO (Recovery Time Objective) y RPO (Recovery Point Objective).</t>
+          <t>Usar implementaciones canarias o azules/verdes</t>
         </is>
       </c>
       <c r="D8" s="22" t="n"/>
       <c r="E8" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1122,7 +1122,7 @@
       <c r="G8" s="22" t="n"/>
       <c r="H8" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/business-continuity-and-disaster-recovery</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/containers/aks/secure-baseline-aks</t>
         </is>
       </c>
       <c r="I8" s="16" t="n"/>
@@ -1130,7 +1130,7 @@
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>bc14aea6-e65d-48d9-a3ad-c218e6436b06</t>
+          <t>785c2fa5-5b56-4ad4-a408-fe72734c476b</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1141,23 +1141,23 @@
     <row r="9" ht="16.5" customHeight="1" s="13">
       <c r="A9" s="22" t="inlineStr">
         <is>
-          <t>BC y DR</t>
+          <t>Implementación de aplicaciones</t>
         </is>
       </c>
       <c r="B9" s="22" t="inlineStr">
         <is>
-          <t>Recuperación ante desastres</t>
+          <t>Desarrollo</t>
         </is>
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>Programe y realice pruebas de DR regularmente</t>
+          <t>Si se requiere para cargas de trabajo de Windows de AKS, se pueden usar contenedores de HostProcess</t>
         </is>
       </c>
       <c r="D9" s="22" t="n"/>
       <c r="E9" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1168,7 +1168,7 @@
       <c r="G9" s="22" t="n"/>
       <c r="H9" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/business-continuity-and-disaster-recovery</t>
+          <t>https://learn.microsoft.com/azure/aks/use-windows-hpc</t>
         </is>
       </c>
       <c r="I9" s="16" t="n"/>
@@ -1176,7 +1176,7 @@
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>36cb45e5-7960-4332-9bdf-8cc23318da61</t>
+          <t>ab5351f6-383a-45ed-9c5e-b143b16db40a</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1187,23 +1187,23 @@
     <row r="10" ht="16.5" customHeight="1" s="13">
       <c r="A10" s="22" t="inlineStr">
         <is>
-          <t>BC y DR</t>
+          <t>Implementación de aplicaciones</t>
         </is>
       </c>
       <c r="B10" s="22" t="inlineStr">
         <is>
-          <t>Alta disponibilidad</t>
+          <t>Desarrollo</t>
         </is>
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>Usar Azure Traffic Manager o Azure Front Door como equilibrador de carga global para la conmutación por error de región</t>
+          <t>Usar KEDA si ejecuta cargas de trabajo controladas por eventos</t>
         </is>
       </c>
       <c r="D10" s="22" t="n"/>
       <c r="E10" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1214,7 +1214,7 @@
       <c r="G10" s="22" t="n"/>
       <c r="H10" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-multi-region</t>
+          <t>https://docs.microsoft.com/azure/azure-functions/functions-kubernetes-keda</t>
         </is>
       </c>
       <c r="I10" s="16" t="n"/>
@@ -1222,7 +1222,7 @@
       <c r="K10" s="24" t="n"/>
       <c r="L10" s="26" t="inlineStr">
         <is>
-          <t>170265f4-bb46-4a39-9af7-f317284797b1</t>
+          <t>a280dcf5-90ce-465d-b8e1-3f9ccbd46926</t>
         </is>
       </c>
       <c r="M10" s="26" t="n"/>
@@ -1233,23 +1233,23 @@
     <row r="11" ht="16.5" customHeight="1" s="13">
       <c r="A11" s="22" t="inlineStr">
         <is>
-          <t>BC y DR</t>
+          <t>Implementación de aplicaciones</t>
         </is>
       </c>
       <c r="B11" s="22" t="inlineStr">
         <is>
-          <t>Alta disponibilidad</t>
+          <t>Desarrollo</t>
         </is>
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Use zonas de disponibilidad si son compatibles en su región de Azure</t>
+          <t>Usar Dapr para facilitar el desarrollo de microservicios</t>
         </is>
       </c>
       <c r="D11" s="22" t="n"/>
       <c r="E11" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1260,7 +1260,7 @@
       <c r="G11" s="22" t="n"/>
       <c r="H11" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/availability-zones</t>
+          <t>https://dapr.io/</t>
         </is>
       </c>
       <c r="I11" s="16" t="n"/>
@@ -1268,7 +1268,7 @@
       <c r="K11" s="23" t="n"/>
       <c r="L11" s="26" t="inlineStr">
         <is>
-          <t>578a219a-46be-4b54-9350-24922634292b</t>
+          <t>26886d20-b66c-457b-a591-19bf8e8f5c58</t>
         </is>
       </c>
       <c r="M11" s="26" t="n"/>
@@ -1279,23 +1279,23 @@
     <row r="12" ht="16.5" customHeight="1" s="13">
       <c r="A12" s="22" t="inlineStr">
         <is>
-          <t>BC y DR</t>
+          <t>Implementación de aplicaciones</t>
         </is>
       </c>
       <c r="B12" s="22" t="inlineStr">
         <is>
-          <t>Alta disponibilidad</t>
+          <t>Infraestructura como código</t>
         </is>
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>Usar la oferta de AKS respaldada por SLA</t>
+          <t>Uso de la automatización a través de ARM/TF para crear los recursos de Azure</t>
         </is>
       </c>
       <c r="D12" s="22" t="n"/>
       <c r="E12" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1306,7 +1306,7 @@
       <c r="G12" s="22" t="n"/>
       <c r="H12" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/uptime-sla</t>
+          <t>https://docs.microsoft.com/azure/developer/terraform/create-k8s-cluster-with-tf-and-aks</t>
         </is>
       </c>
       <c r="I12" s="16" t="n"/>
@@ -1314,7 +1314,7 @@
       <c r="K12" s="23" t="n"/>
       <c r="L12" s="26" t="inlineStr">
         <is>
-          <t>71d41e36-10cc-457b-9a4b-1410d4395898</t>
+          <t>3acbe04b-be20-49d3-afda-47778424d116</t>
         </is>
       </c>
       <c r="M12" s="26" t="n"/>
@@ -1330,18 +1330,18 @@
       </c>
       <c r="B13" s="22" t="inlineStr">
         <is>
-          <t>Alta disponibilidad</t>
+          <t>Recuperación ante desastres</t>
         </is>
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>Usar presupuestos de interrupción en el pod y las definiciones de implementación</t>
+          <t>Programe y realice pruebas de DR regularmente</t>
         </is>
       </c>
       <c r="D13" s="22" t="n"/>
       <c r="E13" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1352,7 +1352,7 @@
       <c r="G13" s="22" t="n"/>
       <c r="H13" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/business-continuity-and-disaster-recovery</t>
         </is>
       </c>
       <c r="I13" s="16" t="n"/>
@@ -1360,7 +1360,7 @@
       <c r="K13" s="23" t="n"/>
       <c r="L13" s="26" t="inlineStr">
         <is>
-          <t>c1288b3c-6a57-4cfc-9444-51e1a3d3453a</t>
+          <t>36cb45e5-7960-4332-9bdf-8cc23318da61</t>
         </is>
       </c>
       <c r="M13" s="26" t="n"/>
@@ -1381,13 +1381,13 @@
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t>Si utiliza un registro privado, configure la replicación de regiones para almacenar imágenes en varias regiones</t>
+          <t>Usar Azure Traffic Manager o Azure Front Door como equilibrador de carga global para la conmutación por error de región</t>
         </is>
       </c>
       <c r="D14" s="22" t="n"/>
       <c r="E14" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1398,7 +1398,7 @@
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/container-registry/container-registry-geo-replication</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-multi-region</t>
         </is>
       </c>
       <c r="I14" s="16" t="n"/>
@@ -1406,7 +1406,7 @@
       <c r="K14" s="23" t="n"/>
       <c r="L14" s="26" t="inlineStr">
         <is>
-          <t>3c763963-7a55-42d5-a15e-401955387e5c</t>
+          <t>170265f4-bb46-4a39-9af7-f317284797b1</t>
         </is>
       </c>
       <c r="M14" s="26" t="n"/>
@@ -1417,23 +1417,23 @@
     <row r="15" ht="16.5" customHeight="1" s="13">
       <c r="A15" s="22" t="inlineStr">
         <is>
-          <t>Gestión de identidades y accesos</t>
+          <t>BC y DR</t>
         </is>
       </c>
       <c r="B15" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Alta disponibilidad</t>
         </is>
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>Usar identidades administradas en lugar de entidades de servicio</t>
+          <t>Use zonas de disponibilidad si son compatibles en su región de Azure</t>
         </is>
       </c>
       <c r="D15" s="22" t="n"/>
       <c r="E15" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1444,7 +1444,7 @@
       <c r="G15" s="22" t="n"/>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/use-managed-identity</t>
+          <t>https://docs.microsoft.com/azure/aks/availability-zones</t>
         </is>
       </c>
       <c r="I15" s="16" t="n"/>
@@ -1452,7 +1452,7 @@
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>ed127dd1-42b0-46b2-8c69-99a646f3389a</t>
+          <t>578a219a-46be-4b54-9350-24922634292b</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1463,23 +1463,23 @@
     <row r="16" ht="16.5" customHeight="1" s="13">
       <c r="A16" s="22" t="inlineStr">
         <is>
-          <t>Gestión de identidades y accesos</t>
+          <t>BC y DR</t>
         </is>
       </c>
       <c r="B16" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Alta disponibilidad</t>
         </is>
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>Integrar la autenticación con AAD (mediante la integración administrada)</t>
+          <t>Usar la oferta de AKS respaldada por SLA</t>
         </is>
       </c>
       <c r="D16" s="22" t="n"/>
       <c r="E16" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1490,7 +1490,7 @@
       <c r="G16" s="22" t="n"/>
       <c r="H16" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/managed-aad</t>
+          <t>https://docs.microsoft.com/azure/aks/uptime-sla</t>
         </is>
       </c>
       <c r="I16" s="16" t="n"/>
@@ -1498,7 +1498,7 @@
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>7e42c78e-78c0-46a6-8a21-94956e698dc4</t>
+          <t>71d41e36-10cc-457b-9a4b-1410d4395898</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1509,23 +1509,23 @@
     <row r="17" ht="16.5" customHeight="1" s="13">
       <c r="A17" s="22" t="inlineStr">
         <is>
-          <t>Gestión de identidades y accesos</t>
+          <t>BC y DR</t>
         </is>
       </c>
       <c r="B17" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Alta disponibilidad</t>
         </is>
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>Limitar el acceso a admin kubeconfig (get-credentials --admin)</t>
+          <t>Usar presupuestos de interrupción en el pod y las definiciones de implementación</t>
         </is>
       </c>
       <c r="D17" s="22" t="n"/>
       <c r="E17" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1536,7 +1536,7 @@
       <c r="G17" s="22" t="n"/>
       <c r="H17" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/control-kubeconfig-access</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
         </is>
       </c>
       <c r="I17" s="16" t="n"/>
@@ -1544,7 +1544,7 @@
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>a2fe27b2-e287-401a-8352-beedf79b488d</t>
+          <t>c1288b3c-6a57-4cfc-9444-51e1a3d3453a</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1555,23 +1555,23 @@
     <row r="18" ht="16.5" customHeight="1" s="13">
       <c r="A18" s="22" t="inlineStr">
         <is>
-          <t>Gestión de identidades y accesos</t>
+          <t>BC y DR</t>
         </is>
       </c>
       <c r="B18" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Alta disponibilidad</t>
         </is>
       </c>
       <c r="C18" s="22" t="inlineStr">
         <is>
-          <t>Integrar la autorización con AAD RBAC</t>
+          <t>Si utiliza un registro privado, configure la replicación de regiones para almacenar imágenes en varias regiones</t>
         </is>
       </c>
       <c r="D18" s="22" t="n"/>
       <c r="E18" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1582,7 +1582,7 @@
       <c r="G18" s="22" t="n"/>
       <c r="H18" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/manage-azure-rbac</t>
+          <t>https://docs.microsoft.com/azure/container-registry/container-registry-geo-replication</t>
         </is>
       </c>
       <c r="I18" s="16" t="n"/>
@@ -1590,7 +1590,7 @@
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>eec4962c-c3bd-421b-b77f-26e5e6b3bec3</t>
+          <t>3c763963-7a55-42d5-a15e-401955387e5c</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1601,17 +1601,17 @@
     <row r="19" ht="16.5" customHeight="1" s="13">
       <c r="A19" s="22" t="inlineStr">
         <is>
-          <t>Gestión de identidades y accesos</t>
+          <t>BC y DR</t>
         </is>
       </c>
       <c r="B19" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Requisitos</t>
         </is>
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t>Usar espacios de nombres para restringir los privilegios RBAC en Kubernetes</t>
+          <t>Defina requisitos no funcionales como SLAs, RTO (Recovery Time Objective) y RPO (Recovery Point Objective).</t>
         </is>
       </c>
       <c r="D19" s="22" t="n"/>
@@ -1628,7 +1628,7 @@
       <c r="G19" s="22" t="n"/>
       <c r="H19" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-identity</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/business-continuity-and-disaster-recovery</t>
         </is>
       </c>
       <c r="I19" s="16" t="n"/>
@@ -1636,7 +1636,7 @@
       <c r="K19" s="23" t="n"/>
       <c r="L19" s="26" t="inlineStr">
         <is>
-          <t>d4f3537c-1346-4dc5-9027-a71ffe1bd05d</t>
+          <t>bc14aea6-e65d-48d9-a3ad-c218e6436b06</t>
         </is>
       </c>
       <c r="M19" s="26" t="n"/>
@@ -1647,23 +1647,23 @@
     <row r="20" ht="16.5" customHeight="1" s="13">
       <c r="A20" s="22" t="inlineStr">
         <is>
-          <t>Gestión de identidades y accesos</t>
+          <t>Gobernanza de costos</t>
         </is>
       </c>
       <c r="B20" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Costar</t>
         </is>
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t>Para la administración de acceso de identidad POD, use Azure AD Workload Identity (versión preliminar)</t>
+          <t>Usar una aplicación externa como kubecost para asignar costos a diferentes usuarios</t>
         </is>
       </c>
       <c r="D20" s="22" t="n"/>
       <c r="E20" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1674,7 +1674,7 @@
       <c r="G20" s="22" t="n"/>
       <c r="H20" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/workload-identity-migration-sidecar</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/scenarios/aks/eslz-cost-governance-with-kubecost</t>
         </is>
       </c>
       <c r="I20" s="16" t="n"/>
@@ -1682,7 +1682,7 @@
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
+          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1693,23 +1693,23 @@
     <row r="21" ht="16.5" customHeight="1" s="13">
       <c r="A21" s="22" t="inlineStr">
         <is>
-          <t>Gestión de identidades y accesos</t>
+          <t>Gobernanza de costos</t>
         </is>
       </c>
       <c r="B21" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Costar</t>
         </is>
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t>Para inicios de sesión no interactivos de AKS, use kubelogin (vista previa)</t>
+          <t>Si es necesario, escale las instantáneas de NodePool</t>
         </is>
       </c>
       <c r="D21" s="22" t="n"/>
       <c r="E21" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1720,7 +1720,7 @@
       <c r="G21" s="22" t="n"/>
       <c r="H21" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/managed-aad#non-interactive-sign-in-with-kubelogin</t>
+          <t>https://learn.microsoft.com/azure/aks/node-pool-snapshot</t>
         </is>
       </c>
       <c r="I21" s="16" t="n"/>
@@ -1728,7 +1728,7 @@
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
+          <t>64d1a846-e28a-4b6b-9a33-22a635c15a21</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1739,23 +1739,23 @@
     <row r="22" ht="16.5" customHeight="1" s="13">
       <c r="A22" s="22" t="inlineStr">
         <is>
-          <t>Gestión de identidades y accesos</t>
+          <t>Gobernanza de costos</t>
         </is>
       </c>
       <c r="B22" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Costar</t>
         </is>
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>Deshabilitar cuentas locales de AKS</t>
+          <t>Usar el modo de reducción vertical para eliminar/eliminar nodos</t>
         </is>
       </c>
       <c r="D22" s="22" t="n"/>
       <c r="E22" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1766,7 +1766,7 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/managed-aad#disable-local-accounts</t>
+          <t>https://learn.microsoft.com/azure/aks/scale-down-mode</t>
         </is>
       </c>
       <c r="I22" s="16" t="n"/>
@@ -1774,7 +1774,7 @@
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
+          <t>4d3dfbab-9924-4831-a68d-fdf0d72f462c</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1785,23 +1785,23 @@
     <row r="23" ht="16.5" customHeight="1" s="13">
       <c r="A23" s="22" t="inlineStr">
         <is>
-          <t>Gestión de identidades y accesos</t>
+          <t>Gobernanza de costos</t>
         </is>
       </c>
       <c r="B23" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Costar</t>
         </is>
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>Configurar si es necesario Acceso al clúster Just-in-time</t>
+          <t>Cuando sea necesario, use la GPU de partioning de varias instancias en clústeres de AKS</t>
         </is>
       </c>
       <c r="D23" s="22" t="n"/>
       <c r="E23" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1812,7 +1812,7 @@
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/managed-aad#configure-just-in-time-cluster-access-with-azure-ad-and-aks</t>
+          <t>https://learn.microsoft.com/azure/aks/gpu-multi-instance</t>
         </is>
       </c>
       <c r="I23" s="16" t="n"/>
@@ -1820,7 +1820,7 @@
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
+          <t>87e651ea-bc4a-4a87-a6df-c06a4b570ebc</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1831,17 +1831,17 @@
     <row r="24" ht="16.5" customHeight="1" s="13">
       <c r="A24" s="22" t="inlineStr">
         <is>
-          <t>Gestión de identidades y accesos</t>
+          <t>Gobernanza de costos</t>
         </is>
       </c>
       <c r="B24" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Costar</t>
         </is>
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>Configurar, si es necesario, el acceso condicional de AAD para AKS</t>
+          <t>Si ejecuta un clúster de desarrollo y pruebas, utilice NodePool Start/Stop</t>
         </is>
       </c>
       <c r="D24" s="22" t="n"/>
@@ -1858,7 +1858,7 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/managed-aad#use-conditional-access-with-azure-ad-and-aks</t>
+          <t>https://learn.microsoft.com/azure/aks/start-stop-nodepools</t>
         </is>
       </c>
       <c r="I24" s="16" t="n"/>
@@ -1866,7 +1866,7 @@
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
+          <t>2b72a08b-0410-4cd6-9093-e068a5cf27e8</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1877,23 +1877,23 @@
     <row r="25" ht="16.5" customHeight="1" s="13">
       <c r="A25" s="22" t="inlineStr">
         <is>
-          <t>Gestión de identidades y accesos</t>
+          <t>Gobernanza y seguridad</t>
         </is>
       </c>
       <c r="B25" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Conformidad</t>
         </is>
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Si es necesario para cargas de trabajo de Windows AKS, configure gMSA </t>
+          <t>Uso de Azure Policy for Kubernetes para garantizar el cumplimiento del clúster</t>
         </is>
       </c>
       <c r="D25" s="22" t="n"/>
       <c r="E25" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1904,7 +1904,7 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-group-managed-service-accounts</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/policy-for-kubernetes</t>
         </is>
       </c>
       <c r="I25" s="16" t="n"/>
@@ -1912,7 +1912,7 @@
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
+          <t>9ca48e4a-85e2-4223-bce8-bb12307ca5f1</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -1923,17 +1923,17 @@
     <row r="26" ht="16.5" customHeight="1" s="13">
       <c r="A26" s="22" t="inlineStr">
         <is>
-          <t>Gestión de identidades y accesos</t>
+          <t>Gobernanza y seguridad</t>
         </is>
       </c>
       <c r="B26" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Conformidad</t>
         </is>
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>Para un control más preciso, considere usar una identidad Kubelet administrada</t>
+          <t>Separar las aplicaciones del plano de control con grupos de nodos de usuario/sistema</t>
         </is>
       </c>
       <c r="D26" s="22" t="n"/>
@@ -1950,7 +1950,7 @@
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-managed-identity#use-a-pre-created-kubelet-managed-identity</t>
+          <t>https://docs.microsoft.com/azure/aks/use-system-pools</t>
         </is>
       </c>
       <c r="I26" s="16" t="n"/>
@@ -1958,7 +1958,7 @@
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
+          <t>6f158e3e-a3a9-42c2-be7e-2165c3a87af4</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -1969,23 +1969,23 @@
     <row r="27" ht="16.5" customHeight="1" s="13">
       <c r="A27" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gobernanza y seguridad</t>
         </is>
       </c>
       <c r="B27" s="22" t="inlineStr">
         <is>
-          <t>IPAM (en inglés)</t>
+          <t>Conformidad</t>
         </is>
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>Elija el mejor complemento de red CNI para sus necesidades (se recomienda Azure CNI)</t>
+          <t>Agregue mancha a su nodepool del sistema para que sea dedicado</t>
         </is>
       </c>
       <c r="D27" s="22" t="n"/>
       <c r="E27" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1996,14 +1996,14 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
+          <t>https://docs.microsoft.com/azure/aks/use-system-pools</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>a0f61565-9de5-458f-a372-49c831112dbd</t>
+          <t>a7a1f893-9bda-4477-98f2-4c116775c2ea</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2014,23 +2014,23 @@
     <row r="28" ht="16.5" customHeight="1" s="13">
       <c r="A28" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gobernanza y seguridad</t>
         </is>
       </c>
       <c r="B28" s="22" t="inlineStr">
         <is>
-          <t>IPAM (en inglés)</t>
+          <t>Conformidad</t>
         </is>
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>Si usa Azure CNI, ajuste el tamaño de la subred en consecuencia teniendo en cuenta el número máximo de pods por nodo</t>
+          <t>Usar un registro privado para las imágenes, como ACR</t>
         </is>
       </c>
       <c r="D28" s="22" t="n"/>
       <c r="E28" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2041,14 +2041,14 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
+          <t>https://docs.microsoft.com/azure/container-registry/</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>7faf12e7-0943-4f63-8472-2da29c2b1cd6</t>
+          <t>55b46a94-8008-4ae7-b7e4-b475b6c8bdbf</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2059,23 +2059,23 @@
     <row r="29" ht="16.5" customHeight="1" s="13">
       <c r="A29" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gobernanza y seguridad</t>
         </is>
       </c>
       <c r="B29" s="22" t="inlineStr">
         <is>
-          <t>IPAM (en inglés)</t>
+          <t>Conformidad</t>
         </is>
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>Si usa Azure CNI, compruebe el número máximo de pods/nodo (predeterminado 30)</t>
+          <t>Escanea tus imágenes en busca de vulnerabilidades</t>
         </is>
       </c>
       <c r="D29" s="22" t="n"/>
       <c r="E29" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2086,14 +2086,14 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
+          <t>https://docs.microsoft.com/azure/security-center/container-security</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>22f54b29-bade-43aa-b1e8-c38ec9366673</t>
+          <t>59bce65d-e8a0-43f9-9879-468d66a786d6</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2104,27 +2104,23 @@
     <row r="30" ht="16.5" customHeight="1" s="13">
       <c r="A30" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gobernanza y seguridad</t>
         </is>
       </c>
       <c r="B30" s="22" t="inlineStr">
         <is>
-          <t>IPAM (en inglés)</t>
+          <t>Conformidad</t>
         </is>
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>Si utiliza servicios de equilibrador de carga de IP privada, use una subred dedicada (no la subred AKS)</t>
-        </is>
-      </c>
-      <c r="D30" s="22" t="inlineStr">
-        <is>
-          <t>Para las aplicaciones internas, las organizaciones suelen abrir toda la subred de AKS en sus firewalls. Esto abre el acceso de red también a los nodos y, potencialmente, también a los pods (si usa Azure CNI). Si las direcciones IP de LoadBalancer están en una subred diferente, solo esta debe estar disponible para los clientes de la aplicación. Otra razón es que si las direcciones IP de la subred AKS son un recurso escaso, consumir sus direcciones IP para servicios reducirá la escalabilidad máxima del clúster.</t>
-        </is>
-      </c>
+          <t>Uso de Azure Security Center para detectar vulnerabilidades de postura de seguridad</t>
+        </is>
+      </c>
+      <c r="D30" s="22" t="n"/>
       <c r="E30" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2135,14 +2131,14 @@
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/internal-lb</t>
+          <t>https://docs.microsoft.com/azure/security-center/container-security</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>13c00567-4b1e-4945-a459-c373e7ed6162</t>
+          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2153,23 +2149,23 @@
     <row r="31" ht="16.5" customHeight="1" s="13">
       <c r="A31" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gobernanza y seguridad</t>
         </is>
       </c>
       <c r="B31" s="22" t="inlineStr">
         <is>
-          <t>IPAM (en inglés)</t>
+          <t>Conformidad</t>
         </is>
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>Dimensione el intervalo de direcciones IP de servicio en consecuencia (limitará la escalabilidad del clúster)</t>
+          <t>Si es necesario, configure FIPS</t>
         </is>
       </c>
       <c r="D31" s="22" t="n"/>
       <c r="E31" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2180,14 +2176,14 @@
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
+          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#add-a-fips-enabled-node-pool</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>43f63047-22d9-429c-8b1c-d622f54b29ba</t>
+          <t>42d4aefe-2383-470e-b019-c30df24996b2</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2198,17 +2194,17 @@
     <row r="32" ht="16.5" customHeight="1" s="13">
       <c r="A32" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gobernanza y seguridad</t>
         </is>
       </c>
       <c r="B32" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Conformidad</t>
         </is>
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Filtre el tráfico de salida con AzFW/NVA si sus requisitos de seguridad lo exigen</t>
+          <t>Definir los requisitos de separación de aplicaciones (espacio de nombres/grupo de nodos/clúster)</t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
@@ -2225,7 +2221,7 @@
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/limit-egress-traffic</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-cluster-isolation</t>
         </is>
       </c>
       <c r="I32" s="16" t="n"/>
@@ -2233,7 +2229,7 @@
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>3b365a91-7ecb-4e48-bbe5-4cd7df2e8bba</t>
+          <t>d167dd18-2b0a-4c24-8b99-9a646f8389a7</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2244,17 +2240,17 @@
     <row r="33" ht="16.5" customHeight="1" s="13">
       <c r="A33" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gobernanza y seguridad</t>
         </is>
       </c>
       <c r="B33" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>Si utiliza un punto de enlace de API público, restrinja las direcciones IP que pueden acceder a él</t>
+          <t>Almacene sus secretos en Azure Key Vault con el controlador CSI Secrets Store</t>
         </is>
       </c>
       <c r="D33" s="22" t="n"/>
@@ -2271,7 +2267,7 @@
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/api-server-authorized-ip-ranges</t>
+          <t>https://github.com/Azure/secrets-store-csi-driver-provider-azure</t>
         </is>
       </c>
       <c r="I33" s="16" t="n"/>
@@ -2279,7 +2275,7 @@
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>c4581559-bb91-463e-a908-aed8c44ce3b2</t>
+          <t>5e3df584-eccc-4d97-a3b6-bcda3b50eb2e</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2290,23 +2286,23 @@
     <row r="34" ht="16.5" customHeight="1" s="13">
       <c r="A34" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gobernanza y seguridad</t>
         </is>
       </c>
       <c r="B34" s="22" t="inlineStr">
         <is>
-          <t>Escalabilidad</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>Usar un controlador de entrada para exponer aplicaciones basadas en web en lugar de exponerlas con servicios de tipo LoadBalancer</t>
+          <t>Si usa entidades de servicio para el clúster, actualice las credenciales periódicamente (como trimestralmente)</t>
         </is>
       </c>
       <c r="D34" s="22" t="n"/>
       <c r="E34" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2317,7 +2313,7 @@
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/concepts-network</t>
+          <t>https://docs.microsoft.com/azure/aks/update-credentials</t>
         </is>
       </c>
       <c r="I34" s="16" t="n"/>
@@ -2325,7 +2321,7 @@
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
+          <t>b03dda6d-58d7-4c89-8ddb-107d5769ae66</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2336,23 +2332,23 @@
     <row r="35" ht="16.5" customHeight="1" s="13">
       <c r="A35" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gobernanza y seguridad</t>
         </is>
       </c>
       <c r="B35" s="22" t="inlineStr">
         <is>
-          <t>Escalabilidad</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>Usar Azue NAT Gateway como outboundType para escalar el tráfico de salida</t>
+          <t>Si es necesario, agregue el cifrado etcd del Servicio de administración de claves</t>
         </is>
       </c>
       <c r="D35" s="22" t="n"/>
       <c r="E35" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2363,7 +2359,7 @@
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/nat-gateway</t>
+          <t>https://learn.microsoft.com/azure/aks/use-kms-etcd-encryption</t>
         </is>
       </c>
       <c r="I35" s="16" t="n"/>
@@ -2371,7 +2367,7 @@
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
+          <t>e7ba73a3-0508-4f80-806f-527db30cee96</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2382,23 +2378,23 @@
     <row r="36" ht="16.5" customHeight="1" s="13">
       <c r="A36" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gobernanza y seguridad</t>
         </is>
       </c>
       <c r="B36" s="22" t="inlineStr">
         <is>
-          <t>Escalabilidad</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>Uso de asignaciones dinámicas de direcciones IP para evitar el agotamiento de IP de CNI de Azure</t>
+          <t>Si es necesario, considere la posibilidad de usar Proceso confidencial para AKS</t>
         </is>
       </c>
       <c r="D36" s="22" t="n"/>
       <c r="E36" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2409,7 +2405,7 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/configure-azure-cni#dynamic-allocation-of-ips-and-enhanced-subnet-support</t>
+          <t>https://learn.microsoft.com/azure/confidential-computing/confidential-nodes-aks-overview</t>
         </is>
       </c>
       <c r="I36" s="16" t="n"/>
@@ -2417,7 +2413,7 @@
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
+          <t>ec8e4e42-0344-41b0-b865-9123e8956d31</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2428,17 +2424,17 @@
     <row r="37" ht="16.5" customHeight="1" s="13">
       <c r="A37" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gobernanza y seguridad</t>
         </is>
       </c>
       <c r="B37" s="22" t="inlineStr">
         <is>
-          <t>Prácticas recomendadas</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>Si usa AGIC, no comparta un AppGW entre clústeres</t>
+          <t>Considere la posibilidad de usar Defender para contenedores</t>
         </is>
       </c>
       <c r="D37" s="22" t="n"/>
@@ -2455,7 +2451,7 @@
       <c r="G37" s="22" t="n"/>
       <c r="H37" s="16" t="inlineStr">
         <is>
-          <t>https://azure.github.io/application-gateway-kubernetes-ingress/setup/install-existing/</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-enable</t>
         </is>
       </c>
       <c r="I37" s="16" t="n"/>
@@ -2463,7 +2459,7 @@
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>cbd8ac2a-aebc-4a2a-94da-1dbf3dc99248</t>
+          <t>c9e95ffe-6dd1-4a17-8c5f-110389ca9b21</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2474,23 +2470,23 @@
     <row r="38" ht="16.5" customHeight="1" s="13">
       <c r="A38" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión de identidades y accesos</t>
         </is>
       </c>
       <c r="B38" s="22" t="inlineStr">
         <is>
-          <t>Costar</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>Usar extremos privados (preferidos) o extremos de servicio de red virtual para acceder a los servicios PaaS desde el clúster</t>
+          <t>Usar identidades administradas en lugar de entidades de servicio</t>
         </is>
       </c>
       <c r="D38" s="22" t="n"/>
       <c r="E38" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2501,7 +2497,7 @@
       <c r="G38" s="22" t="n"/>
       <c r="H38" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/private-link/private-link-overview</t>
+          <t>https://docs.microsoft.com/azure/aks/use-managed-identity</t>
         </is>
       </c>
       <c r="I38" s="16" t="n"/>
@@ -2509,7 +2505,7 @@
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>c3c39c98-6bb2-4c12-859a-114b5e3df584</t>
+          <t>ed127dd1-42b0-46b2-8c69-99a646f3389a</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2520,23 +2516,23 @@
     <row r="39" ht="16.5" customHeight="1" s="13">
       <c r="A39" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión de identidades y accesos</t>
         </is>
       </c>
       <c r="B39" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>Utilice clústeres privados si sus requisitos lo exigen</t>
+          <t>Integrar la autenticación con AAD (mediante la integración administrada)</t>
         </is>
       </c>
       <c r="D39" s="22" t="n"/>
       <c r="E39" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2547,7 +2543,7 @@
       <c r="G39" s="22" t="n"/>
       <c r="H39" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/private-clusters</t>
+          <t>https://docs.microsoft.com/azure/aks/managed-aad</t>
         </is>
       </c>
       <c r="I39" s="16" t="n"/>
@@ -2555,7 +2551,7 @@
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>ecccd979-3b6b-4cda-9b50-eb2eb03dda6d</t>
+          <t>7e42c78e-78c0-46a6-8a21-94956e698dc4</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2566,17 +2562,17 @@
     <row r="40" ht="16.5" customHeight="1" s="13">
       <c r="A40" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión de identidades y accesos</t>
         </is>
       </c>
       <c r="B40" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para los nodos AKS de Windows 2019 y 2022, se pueden usar las directivas de red de Calico </t>
+          <t>Limitar el acceso a admin kubeconfig (get-credentials --admin)</t>
         </is>
       </c>
       <c r="D40" s="22" t="n"/>
@@ -2593,7 +2589,7 @@
       <c r="G40" s="22" t="n"/>
       <c r="H40" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-network-policies</t>
+          <t>https://docs.microsoft.com/azure/aks/control-kubeconfig-access</t>
         </is>
       </c>
       <c r="I40" s="16" t="n"/>
@@ -2601,7 +2597,7 @@
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>ecccd979-3b6b-4cda-9b50-eb2eb03dda6d</t>
+          <t>a2fe27b2-e287-401a-8352-beedf79b488d</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2612,23 +2608,23 @@
     <row r="41" ht="16.5" customHeight="1" s="13">
       <c r="A41" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión de identidades y accesos</t>
         </is>
       </c>
       <c r="B41" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>Habilitar una opción de directiva de red de Kubernetes (Calico/Azure)</t>
+          <t>Integrar la autorización con AAD RBAC</t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
       <c r="E41" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2639,7 +2635,7 @@
       <c r="G41" s="22" t="n"/>
       <c r="H41" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/use-network-policies</t>
+          <t>https://docs.microsoft.com/azure/aks/manage-azure-rbac</t>
         </is>
       </c>
       <c r="I41" s="16" t="n"/>
@@ -2647,7 +2643,7 @@
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>58d7c892-ddb1-407d-9769-ae669ca48e4a</t>
+          <t>eec4962c-c3bd-421b-b77f-26e5e6b3bec3</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2658,17 +2654,17 @@
     <row r="42" ht="16.5" customHeight="1" s="13">
       <c r="A42" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión de identidades y accesos</t>
         </is>
       </c>
       <c r="B42" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>Usar políticas de red de Kubernetes para aumentar la seguridad dentro del clúster</t>
+          <t>Usar espacios de nombres para restringir los privilegios RBAC en Kubernetes</t>
         </is>
       </c>
       <c r="D42" s="22" t="n"/>
@@ -2685,7 +2681,7 @@
       <c r="G42" s="22" t="n"/>
       <c r="H42" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-identity</t>
         </is>
       </c>
       <c r="I42" s="16" t="n"/>
@@ -2693,7 +2689,7 @@
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>85e2223e-ce8b-4b12-907c-a5f16f158e3e</t>
+          <t>d4f3537c-1346-4dc5-9027-a71ffe1bd05d</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2704,23 +2700,23 @@
     <row r="43" ht="16.5" customHeight="1" s="13">
       <c r="A43" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión de identidades y accesos</t>
         </is>
       </c>
       <c r="B43" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>Usar un WAF para cargas de trabajo web (interfaces de usuario o API)</t>
+          <t>Para la administración de acceso de identidad POD, use Azure AD Workload Identity (versión preliminar)</t>
         </is>
       </c>
       <c r="D43" s="22" t="n"/>
       <c r="E43" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2731,7 +2727,7 @@
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
+          <t>https://learn.microsoft.com/azure/aks/workload-identity-migration-sidecar</t>
         </is>
       </c>
       <c r="I43" s="16" t="n"/>
@@ -2739,7 +2735,7 @@
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>a3a92c2d-e7e2-4165-a3a8-7af4a7a1f893</t>
+          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2750,17 +2746,17 @@
     <row r="44" ht="16.5" customHeight="1" s="13">
       <c r="A44" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión de identidades y accesos</t>
         </is>
       </c>
       <c r="B44" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>Usar DDoS Standard en la red virtual de AKS</t>
+          <t>Para inicios de sesión no interactivos de AKS, use kubelogin (vista previa)</t>
         </is>
       </c>
       <c r="D44" s="22" t="n"/>
@@ -2777,7 +2773,7 @@
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#non-interactive-sign-in-with-kubelogin</t>
         </is>
       </c>
       <c r="I44" s="16" t="n"/>
@@ -2785,7 +2781,7 @@
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>9bda4776-8f24-4c11-9775-c2ea55b46a94</t>
+          <t>f4dcf690-1b30-407d-abab-6f8aa780d3a3</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2796,23 +2792,23 @@
     <row r="45" ht="16.5" customHeight="1" s="13">
       <c r="A45" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión de identidades y accesos</t>
         </is>
       </c>
       <c r="B45" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>Si es necesario, agregue el proxy HTTP de la empresa</t>
+          <t>Deshabilitar cuentas locales de AKS</t>
         </is>
       </c>
       <c r="D45" s="22" t="n"/>
       <c r="E45" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2823,14 +2819,14 @@
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/http-proxy</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#disable-local-accounts</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>9bda4776-8f24-4c11-9775-c2ea55b46a94</t>
+          <t>b085b1f2-3119-4771-8c9a-bbf4411810ec</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2841,23 +2837,23 @@
     <row r="46" ht="16.5" customHeight="1" s="13">
       <c r="A46" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión de identidades y accesos</t>
         </is>
       </c>
       <c r="B46" s="22" t="inlineStr">
         <is>
-          <t>Prácticas recomendadas</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t>No utilice el complemento de enrutamiento de aplicaciones de AKS</t>
+          <t>Configurar si es necesario Acceso al clúster Just-in-time</t>
         </is>
       </c>
       <c r="D46" s="22" t="n"/>
       <c r="E46" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2868,7 +2864,7 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/http-application-routing</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#configure-just-in-time-cluster-access-with-azure-ad-and-aks</t>
         </is>
       </c>
       <c r="I46" s="16" t="n"/>
@@ -2876,7 +2872,7 @@
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>8008ae7d-7e4b-4475-a6c8-bdbf59bce65d</t>
+          <t>36abb0db-c118-4f4c-9880-3f30f9a2deb6</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -2887,23 +2883,23 @@
     <row r="47" ht="16.5" customHeight="1" s="13">
       <c r="A47" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión de identidades y accesos</t>
         </is>
       </c>
       <c r="B47" s="22" t="inlineStr">
         <is>
-          <t>Prácticas recomendadas</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>Para cargas de trabajo de Windows, use Redes aceleradas</t>
+          <t>Configurar, si es necesario, el acceso condicional de AAD para AKS</t>
         </is>
       </c>
       <c r="D47" s="22" t="n"/>
       <c r="E47" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2914,7 +2910,7 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#use-conditional-access-with-azure-ad-and-aks</t>
         </is>
       </c>
       <c r="I47" s="16" t="n"/>
@@ -2922,7 +2918,7 @@
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>8008ae7d-7e4b-4475-a6c8-bdbf59bce65d</t>
+          <t>c4d7f4c6-79bf-45d0-aa05-ce8fc717e150</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -2933,23 +2929,23 @@
     <row r="48" ht="16.5" customHeight="1" s="13">
       <c r="A48" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión de identidades y accesos</t>
         </is>
       </c>
       <c r="B48" s="22" t="inlineStr">
         <is>
-          <t>Prácticas recomendadas</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>Utilice el ALB estándar (en lugar del básico)</t>
+          <t xml:space="preserve">Si es necesario para cargas de trabajo de Windows AKS, configure gMSA </t>
         </is>
       </c>
       <c r="D48" s="22" t="n"/>
       <c r="E48" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2960,14 +2956,14 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/load-balancer-standard</t>
+          <t>https://learn.microsoft.com/azure/aks/use-group-managed-service-accounts</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>ba7da7be-9952-4914-a384-5d997cb39132</t>
+          <t>e1123a7c-a333-4eb4-a120-4ee3f293c9f3</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -2978,17 +2974,17 @@
     <row r="49" ht="16.5" customHeight="1" s="13">
       <c r="A49" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión de identidades y accesos</t>
         </is>
       </c>
       <c r="B49" s="22" t="inlineStr">
         <is>
-          <t>JA</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>Si se requiere conectividad híbrida, use 2xER o ER+VPN para una mejor disponibilidad</t>
+          <t>Para un control más preciso, considere usar una identidad Kubelet administrada</t>
         </is>
       </c>
       <c r="D49" s="22" t="n"/>
@@ -3005,14 +3001,14 @@
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering</t>
+          <t>https://learn.microsoft.com/azure/aks/use-managed-identity#use-a-pre-created-kubelet-managed-identity</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>e8a03f97-8794-468d-96a7-86d60f96c97b</t>
+          <t>1f711a74-3672-470b-b8b8-a2148d640d79</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3028,12 +3024,12 @@
       </c>
       <c r="B50" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Prácticas recomendadas</t>
         </is>
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar una malla de servicios para la administración avanzada de comunicaciones de microservicios</t>
+          <t>Si usa AGIC, no comparta un AppGW entre clústeres</t>
         </is>
       </c>
       <c r="D50" s="22" t="n"/>
@@ -3050,7 +3046,7 @@
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/servicemesh-about</t>
+          <t>https://azure.github.io/application-gateway-kubernetes-ingress/setup/install-existing/</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3058,7 +3054,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
+          <t>cbd8ac2a-aebc-4a2a-94da-1dbf3dc99248</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3074,18 +3070,18 @@
       </c>
       <c r="B51" s="22" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Prácticas recomendadas</t>
         </is>
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>Si es necesario, agregue su propio complemento CNI</t>
+          <t>No utilice el complemento de enrutamiento de aplicaciones de AKS</t>
         </is>
       </c>
       <c r="D51" s="22" t="n"/>
       <c r="E51" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3096,7 +3092,7 @@
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-byo-cni</t>
+          <t>https://docs.microsoft.com/azure/aks/http-application-routing</t>
         </is>
       </c>
       <c r="I51" s="16" t="n"/>
@@ -3104,7 +3100,7 @@
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
+          <t>8008ae7d-7e4b-4475-a6c8-bdbf59bce65d</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3120,18 +3116,18 @@
       </c>
       <c r="B52" s="22" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Prácticas recomendadas</t>
         </is>
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>Si es necesario, configure IP pública por nodo en AKS</t>
+          <t>Para cargas de trabajo de Windows, use Redes aceleradas</t>
         </is>
       </c>
       <c r="D52" s="22" t="n"/>
       <c r="E52" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3142,7 +3138,7 @@
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#assign-a-public-ip-per-node-for-your-node-pools</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview</t>
         </is>
       </c>
       <c r="I52" s="16" t="n"/>
@@ -3150,7 +3146,7 @@
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
+          <t>7bacd7b9-c025-4a9d-a5d2-25d6bc5439d9</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3171,13 +3167,13 @@
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>Si usa CNI de Azure, considere la posibilidad de usar diferentes subredes para NodePools</t>
+          <t>Utilice el ALB estándar (en lugar del básico)</t>
         </is>
       </c>
       <c r="D53" s="22" t="n"/>
       <c r="E53" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3188,14 +3184,14 @@
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#add-a-node-pool-with-a-unique-subnet</t>
+          <t>https://docs.microsoft.com/azure/aks/load-balancer-standard</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
+          <t>ba7da7be-9952-4914-a384-5d997cb39132</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3206,17 +3202,17 @@
     <row r="54" ht="16.5" customHeight="1" s="13">
       <c r="A54" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza y seguridad</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B54" s="22" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Prácticas recomendadas</t>
         </is>
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>Almacene sus secretos en Azure Key Vault con el controlador CSI Secrets Store</t>
+          <t>Si usa CNI de Azure, considere la posibilidad de usar diferentes subredes para NodePools</t>
         </is>
       </c>
       <c r="D54" s="22" t="n"/>
@@ -3233,7 +3229,7 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/secrets-store-csi-driver-provider-azure</t>
+          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#add-a-node-pool-with-a-unique-subnet</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3241,7 +3237,7 @@
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>5e3df584-eccc-4d97-a3b6-bcda3b50eb2e</t>
+          <t>22fbe8d6-9b40-47ef-9011-25bb1a555a6b</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3252,23 +3248,23 @@
     <row r="55" ht="16.5" customHeight="1" s="13">
       <c r="A55" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza y seguridad</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B55" s="22" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Costar</t>
         </is>
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>Si el usuario es Entidades de servicio para el clúster, actualice las credenciales periódicamente (como trimestralmente)</t>
+          <t>Usar extremos privados (preferidos) o extremos de servicio de red virtual para acceder a los servicios PaaS desde el clúster</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
       <c r="E55" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3279,14 +3275,14 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/update-credentials</t>
+          <t>https://docs.microsoft.com/azure/private-link/private-link-overview</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>b03dda6d-58d7-4c89-8ddb-107d5769ae66</t>
+          <t>c3c39c98-6bb2-4c12-859a-114b5e3df584</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3297,17 +3293,17 @@
     <row r="56" ht="16.5" customHeight="1" s="13">
       <c r="A56" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza y seguridad</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B56" s="22" t="inlineStr">
         <is>
-          <t>Conformidad</t>
+          <t>JA</t>
         </is>
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>Uso de Azure Policy for Kubernetes para garantizar el cumplimiento del clúster</t>
+          <t>Si se requiere conectividad híbrida, use 2xER o ER+VPN para una mejor disponibilidad</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
@@ -3324,14 +3320,14 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/concepts/policy-for-kubernetes</t>
+          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>9ca48e4a-85e2-4223-bce8-bb12307ca5f1</t>
+          <t>e8a03f97-8794-468d-96a7-86d60f96c97b</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3342,23 +3338,23 @@
     <row r="57" ht="16.5" customHeight="1" s="13">
       <c r="A57" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza y seguridad</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B57" s="22" t="inlineStr">
         <is>
-          <t>Conformidad</t>
+          <t>IPAM (en inglés)</t>
         </is>
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>Separar las aplicaciones del plano de control con grupos de nodos de usuario/sistema</t>
+          <t>Elija el mejor complemento de red CNI para sus necesidades (se recomienda Azure CNI)</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
       <c r="E57" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3369,14 +3365,14 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/use-system-pools</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>6f158e3e-a3a9-42c2-be7e-2165c3a87af4</t>
+          <t>a0f61565-9de5-458f-a372-49c831112dbd</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3387,23 +3383,23 @@
     <row r="58" ht="16.5" customHeight="1" s="13">
       <c r="A58" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza y seguridad</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B58" s="22" t="inlineStr">
         <is>
-          <t>Conformidad</t>
+          <t>IPAM (en inglés)</t>
         </is>
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>Agregue mancha a su nodepool del sistema para que sea dedicado</t>
+          <t>Si usa Azure CNI, ajuste el tamaño de la subred en consecuencia teniendo en cuenta el número máximo de pods por nodo</t>
         </is>
       </c>
       <c r="D58" s="22" t="n"/>
       <c r="E58" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3414,14 +3410,14 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/use-system-pools</t>
+          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>a7a1f893-9bda-4477-98f2-4c116775c2ea</t>
+          <t>7faf12e7-0943-4f63-8472-2da29c2b1cd6</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3432,23 +3428,23 @@
     <row r="59" ht="16.5" customHeight="1" s="13">
       <c r="A59" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza y seguridad</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B59" s="22" t="inlineStr">
         <is>
-          <t>Conformidad</t>
+          <t>IPAM (en inglés)</t>
         </is>
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>Usar un registro privado para las imágenes, como ACR</t>
+          <t>Si usa Azure CNI, compruebe el número máximo de pods/nodo (predeterminado 30)</t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
       <c r="E59" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3459,14 +3455,14 @@
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/container-registry/</t>
+          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>55b46a94-8008-4ae7-b7e4-b475b6c8bdbf</t>
+          <t>22f54b29-bade-43aa-b1e8-c38ec9366673</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3477,23 +3473,27 @@
     <row r="60" ht="16.5" customHeight="1" s="13">
       <c r="A60" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza y seguridad</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B60" s="22" t="inlineStr">
         <is>
-          <t>Conformidad</t>
+          <t>IPAM (en inglés)</t>
         </is>
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>Escanea tus imágenes en busca de vulnerabilidades</t>
-        </is>
-      </c>
-      <c r="D60" s="22" t="n"/>
+          <t>Si utiliza servicios de equilibrador de carga de IP privada, use una subred dedicada (no la subred AKS)</t>
+        </is>
+      </c>
+      <c r="D60" s="22" t="inlineStr">
+        <is>
+          <t>Para las aplicaciones internas, las organizaciones suelen abrir toda la subred de AKS en sus firewalls. Esto abre el acceso de red también a los nodos y, potencialmente, también a los pods (si usa Azure CNI). Si las direcciones IP de LoadBalancer están en una subred diferente, solo esta debe estar disponible para los clientes de la aplicación. Otra razón es que si las direcciones IP de la subred AKS son un recurso escaso, consumir sus direcciones IP para servicios reducirá la escalabilidad máxima del clúster.</t>
+        </is>
+      </c>
       <c r="E60" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3504,14 +3504,14 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/container-security</t>
+          <t>https://docs.microsoft.com/azure/aks/internal-lb</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>59bce65d-e8a0-43f9-9879-468d66a786d6</t>
+          <t>13c00567-4b1e-4945-a459-c373e7ed6162</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3522,23 +3522,23 @@
     <row r="61" ht="16.5" customHeight="1" s="13">
       <c r="A61" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza y seguridad</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>Conformidad</t>
+          <t>IPAM (en inglés)</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>Uso de Azure Security Center para detectar vulnerabilidades de postura de seguridad</t>
+          <t>Dimensione el intervalo de direcciones IP de servicio en consecuencia (limitará la escalabilidad del clúster)</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
       <c r="E61" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3549,14 +3549,14 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/container-security</t>
+          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
+          <t>43f63047-22d9-429c-8b1c-d622f54b29ba</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3567,17 +3567,17 @@
     <row r="62" ht="16.5" customHeight="1" s="13">
       <c r="A62" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza y seguridad</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B62" s="22" t="inlineStr">
         <is>
-          <t>Conformidad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>Si es necesario, configure FIPS</t>
+          <t>Si es necesario, agregue su propio complemento CNI</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3594,14 +3594,14 @@
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#add-a-fips-enabled-node-pool</t>
+          <t>https://learn.microsoft.com/azure/aks/use-byo-cni</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
+          <t>57bf217f-6dc8-481c-81e2-785773e9c00f</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3612,23 +3612,23 @@
     <row r="63" ht="16.5" customHeight="1" s="13">
       <c r="A63" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza y seguridad</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B63" s="22" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>Si es necesario, agregue el cifrado etcd del Servicio de administración de claves</t>
+          <t>Si es necesario, configure IP pública por nodo en AKS</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
       <c r="E63" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3639,7 +3639,7 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-kms-etcd-encryption</t>
+          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#assign-a-public-ip-per-node-for-your-node-pools</t>
         </is>
       </c>
       <c r="I63" s="16" t="n"/>
@@ -3647,7 +3647,7 @@
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
+          <t>4b3bb365-9458-44d9-9ed1-5c8f52890364</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3658,23 +3658,23 @@
     <row r="64" ht="16.5" customHeight="1" s="13">
       <c r="A64" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza y seguridad</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B64" s="22" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Escalabilidad</t>
         </is>
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>Si es necesario, considere la posibilidad de usar Proceso confidencial para AKS</t>
+          <t>Usar un controlador de entrada para exponer aplicaciones basadas en web en lugar de exponerlas con servicios de tipo LoadBalancer</t>
         </is>
       </c>
       <c r="D64" s="22" t="n"/>
       <c r="E64" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3685,7 +3685,7 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/confidential-computing/confidential-nodes-aks-overview</t>
+          <t>https://docs.microsoft.com/azure/aks/concepts-network</t>
         </is>
       </c>
       <c r="I64" s="16" t="n"/>
@@ -3693,7 +3693,7 @@
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
+          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3704,23 +3704,23 @@
     <row r="65" ht="16.5" customHeight="1" s="13">
       <c r="A65" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza y seguridad</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B65" s="22" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Escalabilidad</t>
         </is>
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar Defender para contenedores</t>
+          <t>Usar Azue NAT Gateway como outboundType para escalar el tráfico de salida</t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
       <c r="E65" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3731,7 +3731,7 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-enable</t>
+          <t>https://learn.microsoft.com/azure/aks/nat-gateway</t>
         </is>
       </c>
       <c r="I65" s="16" t="n"/>
@@ -3739,7 +3739,7 @@
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
+          <t>ccb534e7-416e-4a1d-8e93-533b53199085</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3750,23 +3750,23 @@
     <row r="66" ht="16.5" customHeight="1" s="13">
       <c r="A66" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza y seguridad</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B66" s="22" t="inlineStr">
         <is>
-          <t>Conformidad</t>
+          <t>Escalabilidad</t>
         </is>
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>Definir los requisitos de separación de aplicaciones (espacio de nombres/grupo de nodos/clúster)</t>
+          <t>Uso de asignaciones dinámicas de direcciones IP para evitar el agotamiento de IP de CNI de Azure</t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
       <c r="E66" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3777,14 +3777,14 @@
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-cluster-isolation</t>
+          <t>https://learn.microsoft.com/azure/aks/configure-azure-cni#dynamic-allocation-of-ips-and-enhanced-subnet-support</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>d167dd18-2b0a-4c24-8b99-9a646f8389a7</t>
+          <t>8ee9a69a-1b58-4b1e-9c61-476e110a160b</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3795,23 +3795,23 @@
     <row r="67" ht="16.5" customHeight="1" s="13">
       <c r="A67" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza de costos</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B67" s="22" t="inlineStr">
         <is>
-          <t>Costar</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>Usar una aplicación externa como kubecost para asignar clientes a diferentes usuarios</t>
+          <t>Filtre el tráfico de salida con AzFW/NVA si sus requisitos de seguridad lo exigen</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
       <c r="E67" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3822,7 +3822,7 @@
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/scenarios/aks/eslz-cost-governance-with-kubecost</t>
+          <t>https://docs.microsoft.com/azure/aks/limit-egress-traffic</t>
         </is>
       </c>
       <c r="I67" s="16" t="n"/>
@@ -3830,7 +3830,7 @@
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
+          <t>3b365a91-7ecb-4e48-bbe5-4cd7df2e8bba</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -3841,23 +3841,23 @@
     <row r="68" ht="16.5" customHeight="1" s="13">
       <c r="A68" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza de costos</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B68" s="22" t="inlineStr">
         <is>
-          <t>Costar</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>Si es necesario, escale las instantáneas de NodePool</t>
+          <t>Si utiliza un punto de enlace de API público, restrinja las direcciones IP que pueden acceder a él</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
       <c r="E68" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3868,7 +3868,7 @@
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/node-pool-snapshot</t>
+          <t>https://docs.microsoft.com/azure/aks/api-server-authorized-ip-ranges</t>
         </is>
       </c>
       <c r="I68" s="16" t="n"/>
@@ -3876,7 +3876,7 @@
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
+          <t>c4581559-bb91-463e-a908-aed8c44ce3b2</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -3887,23 +3887,23 @@
     <row r="69" ht="16.5" customHeight="1" s="13">
       <c r="A69" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza de costos</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B69" s="22" t="inlineStr">
         <is>
-          <t>Costar</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>Usar el modo de reducción vertical para eliminar/eliminar nodos</t>
+          <t>Utilice clústeres privados si sus requisitos lo exigen</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
       <c r="E69" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3914,7 +3914,7 @@
       <c r="G69" s="22" t="n"/>
       <c r="H69" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/scale-down-mode</t>
+          <t>https://docs.microsoft.com/azure/aks/private-clusters</t>
         </is>
       </c>
       <c r="I69" s="16" t="n"/>
@@ -3922,7 +3922,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
+          <t>ecccd979-3b6b-4cda-9b50-eb2eb03dda6d</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -3933,17 +3933,17 @@
     <row r="70" ht="16.5" customHeight="1" s="13">
       <c r="A70" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza de costos</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B70" s="22" t="inlineStr">
         <is>
-          <t>Costar</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>Cuando sea necesario, use la GPU de partioning de varias instancias en clústeres de AKS</t>
+          <t xml:space="preserve">Para los nodos AKS de Windows 2019 y 2022, se pueden usar las directivas de red de Calico </t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
@@ -3960,7 +3960,7 @@
       <c r="G70" s="22" t="n"/>
       <c r="H70" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/gpu-multi-instance</t>
+          <t>https://learn.microsoft.com/azure/aks/use-network-policies</t>
         </is>
       </c>
       <c r="I70" s="16" t="n"/>
@@ -3968,7 +3968,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
+          <t>ce7f2a7c-297c-47c6-adea-a6ff838db665</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -3979,23 +3979,23 @@
     <row r="71" ht="16.5" customHeight="1" s="13">
       <c r="A71" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza de costos</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B71" s="22" t="inlineStr">
         <is>
-          <t>Costar</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>Si ejecuta un clúster de desarrollo y pruebas, utilice NodePool Start/Stop</t>
+          <t>Habilitar una opción de directiva de red de Kubernetes (Calico/Azure)</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
       <c r="E71" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4006,7 +4006,7 @@
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/start-stop-nodepools</t>
+          <t>https://docs.microsoft.com/azure/aks/use-network-policies</t>
         </is>
       </c>
       <c r="I71" s="16" t="n"/>
@@ -4014,7 +4014,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
+          <t>58d7c892-ddb1-407d-9769-ae669ca48e4a</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4025,17 +4025,17 @@
     <row r="72" ht="16.5" customHeight="1" s="13">
       <c r="A72" s="22" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B72" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>Usar discos de SO efímeros</t>
+          <t>Usar políticas de red de Kubernetes para aumentar la seguridad dentro del clúster</t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
@@ -4052,7 +4052,7 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/cluster-configuration</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
         </is>
       </c>
       <c r="I72" s="16" t="n"/>
@@ -4060,7 +4060,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>24367b33-6971-45b1-952b-eee0b9b588de</t>
+          <t>85e2223e-ce8b-4b12-907c-a5f16f158e3e</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4071,17 +4071,17 @@
     <row r="73" ht="16.5" customHeight="1" s="13">
       <c r="A73" s="22" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B73" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>Para discos no efímeros, use IOPS altas y discos de sistema operativo más grandes para los nodos cuando ejecute muchos pods / nodos, ya que requiere un alto rendimiento para ejecutar varios pods y generará registros enormes con umbrales de rotación de registros de AKS predeterminados</t>
+          <t>Usar un WAF para cargas de trabajo web (interfaces de usuario o API)</t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
@@ -4098,7 +4098,7 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/disks-types</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
         </is>
       </c>
       <c r="I73" s="16" t="n"/>
@@ -4106,7 +4106,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
+          <t>a3a92c2d-e7e2-4165-a3a8-7af4a7a1f893</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4117,23 +4117,23 @@
     <row r="74" ht="16.5" customHeight="1" s="13">
       <c r="A74" s="22" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B74" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Para la opción de almacenamiento de hiperrendimiento, use Ultra Disks en AKS</t>
+          <t>Usar DDoS Standard en la red virtual de AKS</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
       <c r="E74" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4144,7 +4144,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-ultra-disks</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4152,7 +4152,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
+          <t>9bda4776-8f24-4c11-9775-c2ea55b46a94</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4163,23 +4163,23 @@
     <row r="75" ht="16.5" customHeight="1" s="13">
       <c r="A75" s="22" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B75" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Evite mantener el estado en el clúster y almacene datos fuera (AzStorage, AzSQL, Cosmos, etc.)</t>
+          <t>Si es necesario, agregue el proxy HTTP de la empresa</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
       <c r="E75" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4190,7 +4190,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-multi-region</t>
+          <t>https://learn.microsoft.com/azure/aks/http-proxy</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4198,7 +4198,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>9f7547c1-747d-4c56-868a-714435bd19dd</t>
+          <t>6c46b91a-1107-4485-ad66-3183e2a8c266</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4209,17 +4209,17 @@
     <row r="76" ht="16.5" customHeight="1" s="13">
       <c r="A76" s="22" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B76" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Si utiliza AzFiles Standard, considere AzFiles Premium y/o ANF por razones de rendimiento</t>
+          <t>Considere la posibilidad de usar una malla de servicios para la administración avanzada de comunicaciones de microservicios</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
@@ -4236,7 +4236,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-storage</t>
+          <t>https://docs.microsoft.com/azure/aks/servicemesh-about</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4244,7 +4244,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>24429eb7-2281-4376-85cc-57b4a4b18142</t>
+          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4260,18 +4260,18 @@
       </c>
       <c r="B77" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Alertas</t>
         </is>
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Si usa discos y zonas de disponibilidad de Azure, considere la posibilidad de tener grupos de nodos dentro de una zona para el disco LRS con VolumeBindingMode:WaitForFirstConsumer para aprovisionar almacenamiento en la zona correcta o use el disco ZRS para grupos de nodos que abarcan varias zonas</t>
+          <t>Configurar alertas sobre las métricas más críticas (consulte Container Insights para obtener recomendaciones)</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
       <c r="E77" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4282,7 +4282,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/availability-zones#azure-disk-availability-zone-support</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-metric-alerts</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4290,7 +4290,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>83958a8c-2689-4b32-ab57-cfc64546135a</t>
+          <t>67f7a9ed-5b31-4f38-a3f3-9812b2463cff</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4428,7 +4428,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>5388e9de-d167-4dd1-a2b0-ac241b999a64</t>
+          <t>3aa70560-e7e7-4968-be3d-628af35b2ced</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4444,12 +4444,12 @@
       </c>
       <c r="B81" s="22" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Conformidad</t>
         </is>
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>Supervise las métricas de su clúster con Container Insights (u otras herramientas como Prometheus)</t>
+          <t>Tenga un proceso regular para actualizar su versión de kubernetes periódicamente (trimestralmente, por ejemplo) o use la función de actualización automática de AKS</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
@@ -4466,7 +4466,7 @@
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-overview</t>
+          <t>https://docs.microsoft.com/azure/aks/supported-kubernetes-versions</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4474,7 +4474,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>6f8389a7-f82c-4b8e-a8c0-aa63a25a4956</t>
+          <t>e189c599-df0d-45a7-9dd4-ce32c1881370</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4490,12 +4490,12 @@
       </c>
       <c r="B82" s="22" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Conformidad</t>
         </is>
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>Almacene y analice sus registros de clúster con Container Insights (u otras herramientas como Telegraf/ElasticSearch)</t>
+          <t>Utilice kured para actualizaciones de nodos de Linux en caso de que no esté utilizando la actualización de imagen de nodo</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
@@ -4512,7 +4512,7 @@
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-overview</t>
+          <t>https://docs.microsoft.com/azure/aks/node-updates-kured</t>
         </is>
       </c>
       <c r="I82" s="16" t="n"/>
@@ -4520,7 +4520,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>eaa8dc4a-2436-47b3-9697-15b1752beee0</t>
+          <t>6f7c4c0d-4e51-4464-ad24-57ed67138b82</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4536,12 +4536,12 @@
       </c>
       <c r="B83" s="22" t="inlineStr">
         <is>
-          <t>Alertas</t>
+          <t>Conformidad</t>
         </is>
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>Configurar alertas sobre las métricas más críticas (consulte Container Insights para obtener recomendaciones)</t>
+          <t>Tener un proceso regular para actualizar las imágenes del nodo del clúster periódicamente (semanalmente, por ejemplo)</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
@@ -4558,7 +4558,7 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-metric-alerts</t>
+          <t>https://docs.microsoft.com/azure/aks/node-image-upgrade</t>
         </is>
       </c>
       <c r="I83" s="16" t="n"/>
@@ -4566,7 +4566,7 @@
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>67f7a9ed-5b31-4f38-a3f3-9812b2463cff</t>
+          <t>139c9580-ade3-426a-ba09-cf157d9f6477</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4587,13 +4587,13 @@
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>Tenga un proceso regular para actualizar su versión de kubernetes periódicamente (trimestralmente, por ejemplo) o use la función de actualización automática de AKS</t>
+          <t>Considere gitops para implementar aplicaciones o configuración de clústeres en varios clústeres</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
       <c r="E84" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4604,7 +4604,7 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/supported-kubernetes-versions</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/bedrock/bedrock-automated-deployments</t>
         </is>
       </c>
       <c r="I84" s="16" t="n"/>
@@ -4612,7 +4612,7 @@
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>e189c599-df0d-45a7-9dd4-ce32c1881370</t>
+          <t>0102ce16-ee30-41e6-b882-e52e4621dd68</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4633,13 +4633,13 @@
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t>Utilice kured para actualizaciones de nodos de Linux en caso de que no esté utilizando la actualización de imagen de nodo</t>
+          <t>Considere la posibilidad de usar la invocación del comando AKS en clústeres privados</t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
       <c r="E85" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4650,7 +4650,7 @@
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/node-updates-kured</t>
+          <t>https://learn.microsoft.com/azure/aks/command-invoke</t>
         </is>
       </c>
       <c r="I85" s="16" t="n"/>
@@ -4658,7 +4658,7 @@
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>6f7c4c0d-4e51-4464-ad24-57ed67138b82</t>
+          <t>d7672c26-7602-4482-85a4-14527fbe855c</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4679,13 +4679,13 @@
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>Tener un proceso regular para actualizar las imágenes del nodo del clúster periódicamente (semanalmente, por ejemplo)</t>
+          <t>Para eventos planificados, considere la posibilidad de utilizar Node Auto Drain</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
       <c r="E86" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4696,7 +4696,7 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/node-image-upgrade</t>
+          <t>https://learn.microsoft.com/azure/aks/node-auto-repair#node-autodrain</t>
         </is>
       </c>
       <c r="I86" s="16" t="n"/>
@@ -4704,7 +4704,7 @@
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>139c9580-ade3-426a-ba09-cf157d9f6477</t>
+          <t>31d7aaab-7571-4449-ab80-53d89e89d17b</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4725,13 +4725,13 @@
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>Considere gitops para implementar aplicaciones o configuración de clústeres en varios clústeres</t>
+          <t>Desarrollar prácticas gubernamentales propias para asegurarse de que los operadores no realicen cambios en el nodo RG (también conocido como 'infra RG')</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
       <c r="E87" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4742,7 +4742,7 @@
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/bedrock/bedrock-automated-deployments</t>
+          <t>https://docs.microsoft.com/azure/aks/faq</t>
         </is>
       </c>
       <c r="I87" s="16" t="n"/>
@@ -4750,7 +4750,7 @@
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>0102ce16-ee30-41e6-b882-e52e4621dd68</t>
+          <t>ed0fda7f-211b-47c7-8b6e-c18873fb473c</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -4771,7 +4771,7 @@
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar la invocación del comando AKS en clústeres privados</t>
+          <t>Usar el nombre RG de nodo personalizado (también conocido como 'Infra RG')</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
@@ -4788,7 +4788,7 @@
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/command-invoke</t>
+          <t>https://docs.microsoft.com/azure/aks/cluster-configuration</t>
         </is>
       </c>
       <c r="I88" s="16" t="n"/>
@@ -4796,7 +4796,7 @@
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>0102ce16-ee30-41e6-b882-e52e4621dd68</t>
+          <t>73b32a5a-67f7-4a9e-b5b3-1f38c3f39812</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -4812,18 +4812,18 @@
       </c>
       <c r="B89" s="22" t="inlineStr">
         <is>
-          <t>Costar</t>
+          <t>Conformidad</t>
         </is>
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de agrupar de nodos puntuales para cargas de trabajo que no sean urgentes</t>
+          <t>No use API de Kubernetes obsoletas en sus manifiestos YAML</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
       <c r="E89" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4834,7 +4834,7 @@
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/spot-node-pool</t>
+          <t>https://kubernetes.io/docs/setup/release/notes/</t>
         </is>
       </c>
       <c r="I89" s="16" t="n"/>
@@ -4842,7 +4842,7 @@
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>c5a5b252-1e44-4a59-a9d2-399c4d7b68d0</t>
+          <t>b2463cff-e189-4c59-adf0-d5a73dd4ce32</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -4858,12 +4858,12 @@
       </c>
       <c r="B90" s="22" t="inlineStr">
         <is>
-          <t>Costar</t>
+          <t>Conformidad</t>
         </is>
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Considere el nodo virtual AKS para una ráfaga rápida</t>
+          <t>Nodos de Windows</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -4880,7 +4880,7 @@
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/concepts-scale</t>
+          <t>https://docs.microsoft.com/azure-stack/aks-hci/adapt-apps-mixed-os-clusters</t>
         </is>
       </c>
       <c r="I90" s="16" t="n"/>
@@ -4888,7 +4888,7 @@
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>c755562f-2b4e-4456-9b4d-874a748b662e</t>
+          <t>c1881370-6f7c-44c0-b4e5-14648d2457ed</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -4909,7 +4909,7 @@
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Para eventos planificados, considere la posibilidad de utilizar Node Auto Drain</t>
+          <t>Mantenga el nivel de revisión de los contenedores de Windows sincronizado con el nivel de revisión del host</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -4926,7 +4926,7 @@
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/node-auto-repair#node-autodrain</t>
+          <t>https://docs.microsoft.com/virtualization/windowscontainers/deploy-containers/version-compatibility?tabs=windows-server-20H2%2Cwindows-10-20H2</t>
         </is>
       </c>
       <c r="I91" s="16" t="n"/>
@@ -4934,7 +4934,7 @@
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>31d7aaab-7571-4449-ab80-53d89e89d17b</t>
+          <t>67138b82-0102-4ce1-9ee3-01e6e882e52e</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -4955,13 +4955,17 @@
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Desarrollar prácticas gubernamentales propias para asegurarse de que los operadores no realicen cambios en el nodo RG (también conocido como 'infra RG')</t>
-        </is>
-      </c>
-      <c r="D92" s="22" t="n"/>
+          <t>Enviar registros maestros (también conocidos como registros de API) a Azure Monitor o a su solución de administración de registros preferida</t>
+        </is>
+      </c>
+      <c r="D92" s="22" t="inlineStr">
+        <is>
+          <t>Mediante la configuración de diagnóstico en el nivel de clúster</t>
+        </is>
+      </c>
       <c r="E92" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -4972,7 +4976,7 @@
       <c r="G92" s="22" t="n"/>
       <c r="H92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/faq</t>
+          <t>https://docs.microsoft.com/azure/aks/monitor-aks</t>
         </is>
       </c>
       <c r="I92" s="16" t="n"/>
@@ -4980,7 +4984,7 @@
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>31d7aaab-7571-4449-ab80-53d89e89d17b</t>
+          <t>5b56ad48-408f-4e72-934c-476ba280dcf5</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -4996,12 +5000,12 @@
       </c>
       <c r="B93" s="22" t="inlineStr">
         <is>
-          <t>Conformidad</t>
+          <t>Costar</t>
         </is>
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Usar el nombre RG de nodo personalizado (también conocido como 'Infra RG')</t>
+          <t>Considere la posibilidad de agrupar de nodos puntuales para cargas de trabajo que no sean urgentes</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5018,7 +5022,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/cluster-configuration</t>
+          <t>https://docs.microsoft.com/azure/aks/spot-node-pool</t>
         </is>
       </c>
       <c r="I93" s="16" t="n"/>
@@ -5026,7 +5030,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>73b32a5a-67f7-4a9e-b5b3-1f38c3f39812</t>
+          <t>c5a5b252-1e44-4a59-a9d2-399c4d7b68d0</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5042,18 +5046,18 @@
       </c>
       <c r="B94" s="22" t="inlineStr">
         <is>
-          <t>Conformidad</t>
+          <t>Costar</t>
         </is>
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>No use API de Kubernetes obsoletas en sus manifiestos YAML</t>
+          <t>Considere el nodo virtual AKS para una ráfaga rápida</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
       <c r="E94" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -5064,7 +5068,7 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://kubernetes.io/docs/setup/release/notes/</t>
+          <t>https://docs.microsoft.com/azure/aks/concepts-scale</t>
         </is>
       </c>
       <c r="I94" s="16" t="n"/>
@@ -5072,7 +5076,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>b2463cff-e189-4c59-adf0-d5a73dd4ce32</t>
+          <t>c755562f-2b4e-4456-9b4d-874a748b662e</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5088,18 +5092,18 @@
       </c>
       <c r="B95" s="22" t="inlineStr">
         <is>
-          <t>Conformidad</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>Nodos de Windows</t>
+          <t>Supervise las métricas de su clúster con Container Insights (u otras herramientas como Prometheus)</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
       <c r="E95" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -5110,7 +5114,7 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure-stack/aks-hci/adapt-apps-mixed-os-clusters</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-overview</t>
         </is>
       </c>
       <c r="I95" s="16" t="n"/>
@@ -5118,7 +5122,7 @@
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>c1881370-6f7c-44c0-b4e5-14648d2457ed</t>
+          <t>6f8389a7-f82c-4b8e-a8c0-aa63a25a4956</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5134,18 +5138,18 @@
       </c>
       <c r="B96" s="22" t="inlineStr">
         <is>
-          <t>Conformidad</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>Mantenga el nivel de revisión de los contenedores de Windows sincronizado con el nivel de revisión del host</t>
+          <t>Almacene y analice sus registros de clúster con Container Insights (u otras herramientas como Telegraf/ElasticSearch)</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
       <c r="E96" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5156,7 +5160,7 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/virtualization/windowscontainers/deploy-containers/version-compatibility?tabs=windows-server-20H2%2Cwindows-10-20H2</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-overview</t>
         </is>
       </c>
       <c r="I96" s="16" t="n"/>
@@ -5164,7 +5168,7 @@
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>67138b82-0102-4ce1-9ee3-01e6e882e52e</t>
+          <t>eaa8dc4a-2436-47b3-9697-15b1752beee0</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5414,22 +5418,18 @@
       </c>
       <c r="B102" s="22" t="inlineStr">
         <is>
-          <t>Conformidad</t>
+          <t>Recursos</t>
         </is>
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Enviar registros maestros (también conocidos como registros de API) a Azure Monitor o a su solución de administración de registros preferida</t>
-        </is>
-      </c>
-      <c r="D102" s="22" t="inlineStr">
-        <is>
-          <t>Mediante la configuración de diagnóstico en el nivel de clúster</t>
-        </is>
-      </c>
+          <t>Configurar solicitudes y límites en las especificaciones de tu pod</t>
+        </is>
+      </c>
+      <c r="D102" s="22" t="n"/>
       <c r="E102" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5440,7 +5440,7 @@
       <c r="G102" s="22" t="n"/>
       <c r="H102" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/monitor-aks</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
         </is>
       </c>
       <c r="I102" s="16" t="n"/>
@@ -5448,7 +5448,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>5b56ad48-408f-4e72-934c-476ba280dcf5</t>
+          <t>b54eb2eb-03dd-4aa3-9927-18e2edb11726</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5464,12 +5464,12 @@
       </c>
       <c r="B103" s="22" t="inlineStr">
         <is>
-          <t>Escalabilidad</t>
+          <t>Recursos</t>
         </is>
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>Usar el escalador automático de clúster</t>
+          <t>Aplicar cuotas de recursos para espacios de nombres</t>
         </is>
       </c>
       <c r="D103" s="22" t="n"/>
@@ -5486,7 +5486,7 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/concepts-scale</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
         </is>
       </c>
       <c r="I103" s="16" t="n"/>
@@ -5494,7 +5494,7 @@
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>90ce65de-8e13-4f9c-abd4-69266abca264</t>
+          <t>769ef669-1a48-435a-a942-223ece80b123</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5510,18 +5510,18 @@
       </c>
       <c r="B104" s="22" t="inlineStr">
         <is>
-          <t>Escalabilidad</t>
+          <t>Recursos</t>
         </is>
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>Personalizar la configuración de nodos para grupos de nodos AKS</t>
+          <t>Asegúrese de que su suscripción tenga suficiente cuota para escalar horizontalmente sus grupos de nodos</t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
       <c r="E104" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5532,7 +5532,7 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/custom-node-configuration</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="I104" s="16" t="n"/>
@@ -5540,7 +5540,7 @@
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>90ce65de-8e13-4f9c-abd4-69266abca264</t>
+          <t>081a5417-4158-433e-a3ad-3c2de733165c</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5561,7 +5561,7 @@
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>Utilice el escalador automático de pod horizontal cuando sea necesario</t>
+          <t>Usar el escalador automático de clúster</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
@@ -5586,7 +5586,7 @@
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>faa19bfe-9d55-4d04-a3c4-919ca1b2d121</t>
+          <t>90ce65de-8e13-4f9c-abd4-69266abca264</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5607,17 +5607,13 @@
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>Considere un tamaño de nodo apropiado, ni demasiado grande ni demasiado pequeño</t>
-        </is>
-      </c>
-      <c r="D106" s="22" t="inlineStr">
-        <is>
-          <t>Los nodos más grandes traerán un mayor rendimiento y características como discos efímeros y redes aceleradas, pero aumentarán el radio de explosión y disminuirán la granularidad de escalado.</t>
-        </is>
-      </c>
+          <t>Personalizar la configuración de nodos para grupos de nodos AKS</t>
+        </is>
+      </c>
+      <c r="D106" s="22" t="n"/>
       <c r="E106" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5628,7 +5624,7 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://blog.cloudtrooper.net/2020/10/23/which-vm-size-should-i-choose-as-aks-node/</t>
+          <t>https://learn.microsoft.com/azure/aks/custom-node-configuration</t>
         </is>
       </c>
       <c r="I106" s="16" t="n"/>
@@ -5636,7 +5632,7 @@
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>831c2872-c693-4b39-a887-a561bada49bc</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5657,17 +5653,13 @@
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>Si es necesario para la escalabilidad, considere agregar más de 5000 nodos</t>
-        </is>
-      </c>
-      <c r="D107" s="22" t="inlineStr">
-        <is>
-          <t>Los nodos más grandes traerán un mayor rendimiento y características como discos efímeros y redes aceleradas, pero aumentarán el radio de explosión y disminuirán la granularidad de escalado.</t>
-        </is>
-      </c>
+          <t>Utilice el escalador automático de pod horizontal cuando sea necesario</t>
+        </is>
+      </c>
+      <c r="D107" s="22" t="n"/>
       <c r="E107" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5678,7 +5670,7 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/quotas-skus-regions#service-quotas-and-limits</t>
+          <t>https://docs.microsoft.com/azure/aks/concepts-scale</t>
         </is>
       </c>
       <c r="I107" s="16" t="n"/>
@@ -5686,7 +5678,7 @@
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>faa19bfe-9d55-4d04-a3c4-919ca1b2d121</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -5707,7 +5699,7 @@
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de suscribirse a EventGrid Events para la automatización de AKS</t>
+          <t>Considere un tamaño de nodo apropiado, ni demasiado grande ni demasiado pequeño</t>
         </is>
       </c>
       <c r="D108" s="22" t="inlineStr">
@@ -5717,7 +5709,7 @@
       </c>
       <c r="E108" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5728,7 +5720,7 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/event-grid/event-schema-aks</t>
+          <t>https://blog.cloudtrooper.net/2020/10/23/which-vm-size-should-i-choose-as-aks-node/</t>
         </is>
       </c>
       <c r="I108" s="16" t="n"/>
@@ -5757,14 +5749,10 @@
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>Para una operación de ejecución prolongada en un clúster de AKS, considere la finalización de eventos</t>
-        </is>
-      </c>
-      <c r="D109" s="22" t="inlineStr">
-        <is>
-          <t>Los nodos más grandes traerán un mayor rendimiento y características como discos efímeros y redes aceleradas, pero aumentarán el radio de explosión y disminuirán la granularidad de escalado.</t>
-        </is>
-      </c>
+          <t>Si es necesario para la escalabilidad, considere agregar más de 5000 nodos</t>
+        </is>
+      </c>
+      <c r="D109" s="22" t="n"/>
       <c r="E109" s="22" t="inlineStr">
         <is>
           <t>Bajo</t>
@@ -5778,7 +5766,7 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/manage-abort-operations</t>
+          <t>https://learn.microsoft.com/azure/aks/quotas-skus-regions#service-quotas-and-limits</t>
         </is>
       </c>
       <c r="I109" s="16" t="n"/>
@@ -5807,14 +5795,10 @@
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>Si es necesario, considere la posibilidad de usar Azure Dedicated Hosts para nodos AKS</t>
-        </is>
-      </c>
-      <c r="D110" s="22" t="inlineStr">
-        <is>
-          <t>Los nodos más grandes traerán un mayor rendimiento y características como discos efímeros y redes aceleradas, pero aumentarán el radio de explosión y disminuirán la granularidad de escalado.</t>
-        </is>
-      </c>
+          <t>Considere la posibilidad de suscribirse a EventGrid Events para la automatización de AKS</t>
+        </is>
+      </c>
+      <c r="D110" s="22" t="n"/>
       <c r="E110" s="22" t="inlineStr">
         <is>
           <t>Bajo</t>
@@ -5828,7 +5812,7 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-azure-dedicated-hosts</t>
+          <t>https://learn.microsoft.com/azure/event-grid/event-schema-aks</t>
         </is>
       </c>
       <c r="I110" s="16" t="n"/>
@@ -5852,18 +5836,18 @@
       </c>
       <c r="B111" s="22" t="inlineStr">
         <is>
-          <t>Recursos</t>
+          <t>Escalabilidad</t>
         </is>
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Configurar solicitudes y límites en las especificaciones de tu pod</t>
+          <t>Para una operación de ejecución prolongada en un clúster de AKS, considere la finalización de eventos</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
       <c r="E111" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -5874,14 +5858,14 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
+          <t>https://learn.microsoft.com/azure/aks/manage-abort-operations</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>b54eb2eb-03dd-4aa3-9927-18e2edb11726</t>
+          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -5897,18 +5881,18 @@
       </c>
       <c r="B112" s="22" t="inlineStr">
         <is>
-          <t>Recursos</t>
+          <t>Escalabilidad</t>
         </is>
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Aplicar cuotas de recursos para espacios de nombres</t>
+          <t>Si es necesario, considere la posibilidad de usar Azure Dedicated Hosts para nodos AKS</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
       <c r="E112" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -5919,7 +5903,7 @@
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
+          <t>https://learn.microsoft.com/azure/aks/use-azure-dedicated-hosts</t>
         </is>
       </c>
       <c r="I112" s="16" t="n"/>
@@ -5927,7 +5911,7 @@
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>769ef669-1a48-435a-a942-223ece80b123</t>
+          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -5943,12 +5927,12 @@
       </c>
       <c r="B113" s="22" t="inlineStr">
         <is>
-          <t>Recursos</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que su suscripción tenga suficiente cuota para escalar horizontalmente sus grupos de nodos</t>
+          <t>Usar discos de SO efímeros</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -5965,7 +5949,7 @@
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://docs.microsoft.com/azure/aks/cluster-configuration</t>
         </is>
       </c>
       <c r="I113" s="16" t="n"/>
@@ -5973,7 +5957,7 @@
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>081a5417-4158-433e-a3ad-3c2de733165c</t>
+          <t>24367b33-6971-45b1-952b-eee0b9b588de</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -5984,23 +5968,23 @@
     <row r="114" ht="16.5" customHeight="1" s="13">
       <c r="A114" s="22" t="inlineStr">
         <is>
-          <t>Implementación de aplicaciones</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>Infraestructura como código</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>Uso de la automatización a través de ARM/TF para crear los recursos de Azure</t>
+          <t>Para discos no efímeros, use IOPS altas y discos de sistema operativo más grandes para los nodos cuando ejecute muchos pods / nodo, ya que requiere un alto rendimiento para ejecutar varios pods y generará registros enormes con umbrales de rotación de registros de AKS predeterminados</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
       <c r="E114" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6011,7 +5995,7 @@
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/developer/terraform/create-k8s-cluster-with-tf-and-aks</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/disks-types</t>
         </is>
       </c>
       <c r="I114" s="16" t="n"/>
@@ -6019,7 +6003,7 @@
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>3acbe04b-be20-49d3-afda-47778424d116</t>
+          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6030,23 +6014,23 @@
     <row r="115" ht="16.5" customHeight="1" s="13">
       <c r="A115" s="22" t="inlineStr">
         <is>
-          <t>Implementación de aplicaciones</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B115" s="22" t="inlineStr">
         <is>
-          <t>Desarrollo</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>Usar implementaciones canarias o azules/verdes</t>
+          <t>Para la opción de almacenamiento de hiperrendimiento, use Ultra Disks en AKS</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
       <c r="E115" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6057,14 +6041,14 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/containers/aks/secure-baseline-aks</t>
+          <t>https://learn.microsoft.com/azure/aks/use-ultra-disks</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>785c2fa5-5b56-4ad4-a408-fe72734c476b</t>
+          <t>39c486ce-d5af-4062-89d5-18bb5fd795db</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6075,23 +6059,23 @@
     <row r="116" ht="16.5" customHeight="1" s="13">
       <c r="A116" s="22" t="inlineStr">
         <is>
-          <t>Implementación de aplicaciones</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B116" s="22" t="inlineStr">
         <is>
-          <t>Desarrollo</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>Si se requiere para cargas de trabajo de Windows de AKS, se pueden usar contenedores de HostProcess</t>
+          <t>Evite mantener el estado en el clúster y almacene datos fuera (AzStorage, AzSQL, Cosmos, etc.)</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
       <c r="E116" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -6102,14 +6086,14 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-windows-hpc</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-multi-region</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>785c2fa5-5b56-4ad4-a408-fe72734c476b</t>
+          <t>9f7547c1-747d-4c56-868a-714435bd19dd</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6120,23 +6104,23 @@
     <row r="117" ht="16.5" customHeight="1" s="13">
       <c r="A117" s="22" t="inlineStr">
         <is>
-          <t>Implementación de aplicaciones</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B117" s="22" t="inlineStr">
         <is>
-          <t>Desarrollo</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>Usar KEDA si ejecuta cargas de trabajo controladas por eventos</t>
+          <t>Si utiliza AzFiles Standard, considere AzFiles Premium y/o ANF por razones de rendimiento</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
       <c r="E117" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6147,14 +6131,14 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-functions/functions-kubernetes-keda</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-storage</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>a280dcf5-90ce-465d-b8e1-3f9ccbd46926</t>
+          <t>24429eb7-2281-4376-85cc-57b4a4b18142</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6165,23 +6149,23 @@
     <row r="118" ht="16.5" customHeight="1" s="13">
       <c r="A118" s="22" t="inlineStr">
         <is>
-          <t>Implementación de aplicaciones</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B118" s="22" t="inlineStr">
         <is>
-          <t>Desarrollo</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Usar Dapr para facilitar el desarrollo de microservicios</t>
+          <t>Si usa discos y zonas de disponibilidad de Azure, considere la posibilidad de tener grupos de nodos dentro de una zona para el disco LRS con VolumeBindingMode:WaitForFirstConsumer para aprovisionar almacenamiento en la zona correcta o use el disco ZRS para grupos de nodos que abarcan varias zonas</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
       <c r="E118" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6192,7 +6176,7 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://dapr.io/</t>
+          <t>https://docs.microsoft.com/azure/aks/availability-zones#azure-disk-availability-zone-support</t>
         </is>
       </c>
       <c r="I118" s="16" t="n"/>
@@ -6200,7 +6184,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>26886d20-b66c-457b-a591-19bf8e8f5c58</t>
+          <t>83958a8c-2689-4b32-ab57-cfc64546135a</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -11259,7 +11243,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="H87:I308 A87:E297 G87:G297 I8:J57 J87:P297 I59:J86 L59:P86 L8:P57">
+  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
     <cfRule type="expression" priority="57" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11343,7 +11327,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G59:H86 G8:H57">
+  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
     <cfRule type="expression" priority="9" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11400,43 +11384,43 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="13">
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F119" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F119" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/aks_checklist.es.xlsx
+++ b/spreadsheet/aks_checklist.es.xlsx
@@ -5774,7 +5774,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>38800e6a-ae01-40a2-9fbc-ae5a06e5462d</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -5820,7 +5820,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>9583c0f6-6083-43f6-aa6b-df7102c901bb</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -5865,7 +5865,7 @@
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>c5016d8c-c6c9-4165-89ae-673ef0fff19d</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -5911,7 +5911,7 @@
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>c4e37133-f186-4ce1-aed9-9f1b32f6e021</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>

--- a/spreadsheet/aks_checklist.es.xlsx
+++ b/spreadsheet/aks_checklist.es.xlsx
@@ -1151,7 +1151,7 @@
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>Si se requiere para cargas de trabajo de Windows de AKS, se pueden usar contenedores de HostProcess</t>
+          <t>Si es necesario para cargas de trabajo de Windows de AKS, se pueden usar contenedores de HostProcess</t>
         </is>
       </c>
       <c r="D9" s="22" t="n"/>
@@ -4725,7 +4725,7 @@
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>Desarrollar prácticas gubernamentales propias para asegurarse de que los operadores no realicen cambios en el nodo RG (también conocido como 'infra RG')</t>
+          <t>Desarrollar prácticas de gobierno propias para asegurarse de que los operadores no realicen cambios en el nodo RG (también conocido como 'infra RG')</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
@@ -5774,7 +5774,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>38800e6a-ae01-40a2-9fbc-ae5a06e5462d</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -5820,7 +5820,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>9583c0f6-6083-43f6-aa6b-df7102c901bb</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -5865,7 +5865,7 @@
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>c5016d8c-c6c9-4165-89ae-673ef0fff19d</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -5911,7 +5911,7 @@
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>c4e37133-f186-4ce1-aed9-9f1b32f6e021</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
